--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91EDA9E8-D609-4F84-B332-E0CA6B73353F}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D3D2C01-A6BB-4967-B8D6-417FFE4BD490}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="773">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -161,6 +161,9 @@
     <t>Chiriquí Grande (Cabecera)</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Miramar</t>
   </si>
   <si>
@@ -324,9 +327,6 @@
   </si>
   <si>
     <t>Barrio Norte</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Barrio Sur</t>
@@ -3374,7 +3374,7 @@
   <slicer name="Cuarentena (SI)" xr10:uid="{526E11D5-8444-4DC4-AC7A-F132E2698399}" cache="SegmentaciónDeDatos_Cuarentena__SI" caption="Cuarentena (SI)" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Cordón Sanitario (SI)" xr10:uid="{23800F20-AFA8-4F10-B9A5-1114DB3DF283}" cache="SegmentaciónDeDatos_Cordón_Sanitario__SI" caption="Cerco Sanitario (SI)" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Provincia" xr10:uid="{05674A6C-F3DE-4DC0-947A-32D804437B88}" cache="SegmentaciónDeDatos_Provincia" caption="Provincia" columnCount="3" rowHeight="241300"/>
-  <slicer name="Distrito" xr10:uid="{94517B6B-4F47-417C-85A6-9D51100AC2B7}" cache="SegmentaciónDeDatos_Distrito" caption="Distrito" columnCount="5" rowHeight="241300"/>
+  <slicer name="Distrito" xr10:uid="{94517B6B-4F47-417C-85A6-9D51100AC2B7}" cache="SegmentaciónDeDatos_Distrito" caption="Distrito" startItem="60" columnCount="5" rowHeight="241300"/>
   <slicer name="Corregimiento" xr10:uid="{BE7F280B-65B0-4B5C-BC71-5D2C93821AB4}" cache="SegmentaciónDeDatos_Corregimiento" caption="Corregimiento" startItem="595" columnCount="5" rowHeight="241300"/>
 </slicers>
 </file>
@@ -3719,8 +3719,8 @@
   <dimension ref="A10:P721"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M654" sqref="M654"/>
+      <pane ySplit="10" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4418,7 +4418,9 @@
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" ht="15.75">
@@ -4450,7 +4452,7 @@
         <v>10302</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26" s="1">
         <v>8.9854602813720703</v>
@@ -4460,7 +4462,9 @@
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" ht="15.75">
@@ -4492,7 +4496,7 @@
         <v>10303</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="1">
         <v>8.890629768371582</v>
@@ -4502,7 +4506,9 @@
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="7"/>
+      <c r="O27" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" ht="15.75">
@@ -4534,7 +4540,7 @@
         <v>10304</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28" s="1">
         <v>9.0424003601074219</v>
@@ -4544,7 +4550,9 @@
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="7"/>
+      <c r="O28" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P28" s="8"/>
     </row>
     <row r="29" spans="1:16" ht="15.75">
@@ -4576,7 +4584,7 @@
         <v>10305</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29" s="1">
         <v>8.9483699798583984</v>
@@ -4586,7 +4594,9 @@
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="7"/>
+      <c r="O29" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="15.75">
@@ -4618,7 +4628,7 @@
         <v>10306</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30" s="1">
         <v>9.1191902160644531</v>
@@ -4628,7 +4638,9 @@
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="7"/>
+      <c r="O30" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="15.75">
@@ -4636,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
         <v>8.5502901077270508</v>
@@ -4648,7 +4660,7 @@
         <v>201</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31" s="1">
         <v>8.208470344543457</v>
@@ -4660,7 +4672,7 @@
         <v>20101</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31" s="1">
         <v>8.228480339050293</v>
@@ -4678,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
         <v>8.5502901077270508</v>
@@ -4690,7 +4702,7 @@
         <v>201</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" s="1">
         <v>8.208470344543457</v>
@@ -4702,7 +4714,7 @@
         <v>20102</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32" s="1">
         <v>8.2564401626586914</v>
@@ -4720,7 +4732,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1">
         <v>8.5502901077270508</v>
@@ -4732,7 +4744,7 @@
         <v>201</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" s="1">
         <v>8.208470344543457</v>
@@ -4744,7 +4756,7 @@
         <v>20103</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33" s="1">
         <v>8.1534299850463867</v>
@@ -4762,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1">
         <v>8.5502901077270508</v>
@@ -4774,7 +4786,7 @@
         <v>201</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G34" s="1">
         <v>8.208470344543457</v>
@@ -4786,7 +4798,7 @@
         <v>20104</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34" s="1">
         <v>8.261500358581543</v>
@@ -4804,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1">
         <v>8.5502901077270508</v>
@@ -4816,7 +4828,7 @@
         <v>201</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35" s="1">
         <v>8.208470344543457</v>
@@ -4828,7 +4840,7 @@
         <v>20105</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35" s="1">
         <v>8.2070999145507813</v>
@@ -4846,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <v>8.5502901077270508</v>
@@ -4858,7 +4870,7 @@
         <v>202</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36" s="1">
         <v>8.4476499557495117</v>
@@ -4870,7 +4882,7 @@
         <v>20201</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" s="1">
         <v>8.3821001052856445</v>
@@ -4888,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1">
         <v>8.5502901077270508</v>
@@ -4900,7 +4912,7 @@
         <v>202</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G37" s="1">
         <v>8.4476499557495117</v>
@@ -4912,7 +4924,7 @@
         <v>20202</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37" s="1">
         <v>8.5438604354858398</v>
@@ -4930,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <v>8.5502901077270508</v>
@@ -4942,7 +4954,7 @@
         <v>202</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G38" s="1">
         <v>8.4476499557495117</v>
@@ -4954,7 +4966,7 @@
         <v>20203</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" s="1">
         <v>8.3665800094604492</v>
@@ -4972,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1">
         <v>8.5502901077270508</v>
@@ -4984,7 +4996,7 @@
         <v>202</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39" s="1">
         <v>8.4476499557495117</v>
@@ -4996,7 +5008,7 @@
         <v>20204</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39" s="1">
         <v>8.4470300674438477</v>
@@ -5014,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
         <v>8.5502901077270508</v>
@@ -5026,7 +5038,7 @@
         <v>202</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G40" s="1">
         <v>8.4476499557495117</v>
@@ -5038,7 +5050,7 @@
         <v>20205</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" s="1">
         <v>8.6173000335693359</v>
@@ -5056,7 +5068,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <v>8.5502901077270508</v>
@@ -5068,7 +5080,7 @@
         <v>202</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" s="1">
         <v>8.4476499557495117</v>
@@ -5080,7 +5092,7 @@
         <v>20206</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41" s="1">
         <v>8.4045696258544922</v>
@@ -5098,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <v>8.5502901077270508</v>
@@ -5110,7 +5122,7 @@
         <v>202</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G42" s="1">
         <v>8.4476499557495117</v>
@@ -5122,7 +5134,7 @@
         <v>20207</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42" s="1">
         <v>8.4235696792602539</v>
@@ -5140,7 +5152,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <v>8.5502901077270508</v>
@@ -5152,7 +5164,7 @@
         <v>202</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G43" s="1">
         <v>8.4476499557495117</v>
@@ -5164,7 +5176,7 @@
         <v>20208</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43" s="1">
         <v>8.5443096160888672</v>
@@ -5182,7 +5194,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1">
         <v>8.5502901077270508</v>
@@ -5194,7 +5206,7 @@
         <v>202</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G44" s="1">
         <v>8.4476499557495117</v>
@@ -5206,7 +5218,7 @@
         <v>20209</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44" s="1">
         <v>8.4932699203491211</v>
@@ -5224,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1">
         <v>8.5502901077270508</v>
@@ -5236,7 +5248,7 @@
         <v>202</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G45" s="1">
         <v>8.4476499557495117</v>
@@ -5248,7 +5260,7 @@
         <v>20210</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K45" s="1">
         <v>8.5330896377563477</v>
@@ -5266,7 +5278,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1">
         <v>8.5502901077270508</v>
@@ -5278,7 +5290,7 @@
         <v>203</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G46" s="1">
         <v>8.700169563293457</v>
@@ -5290,7 +5302,7 @@
         <v>20301</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K46" s="1">
         <v>8.5803499221801758</v>
@@ -5308,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1">
         <v>8.5502901077270508</v>
@@ -5320,7 +5332,7 @@
         <v>203</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G47" s="1">
         <v>8.700169563293457</v>
@@ -5332,7 +5344,7 @@
         <v>20302</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K47" s="1">
         <v>8.6912498474121094</v>
@@ -5350,7 +5362,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1">
         <v>8.5502901077270508</v>
@@ -5362,7 +5374,7 @@
         <v>203</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G48" s="1">
         <v>8.700169563293457</v>
@@ -5374,7 +5386,7 @@
         <v>20303</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K48" s="1">
         <v>8.5453596115112305</v>
@@ -5392,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1">
         <v>8.5502901077270508</v>
@@ -5404,7 +5416,7 @@
         <v>203</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G49" s="1">
         <v>8.700169563293457</v>
@@ -5416,7 +5428,7 @@
         <v>20304</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K49" s="1">
         <v>8.6641502380371094</v>
@@ -5434,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1">
         <v>8.5502901077270508</v>
@@ -5446,7 +5458,7 @@
         <v>203</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G50" s="1">
         <v>8.700169563293457</v>
@@ -5458,7 +5470,7 @@
         <v>20305</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K50" s="1">
         <v>8.6909599304199219</v>
@@ -5476,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1">
         <v>8.5502901077270508</v>
@@ -5488,7 +5500,7 @@
         <v>203</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G51" s="1">
         <v>8.700169563293457</v>
@@ -5500,7 +5512,7 @@
         <v>20306</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K51" s="1">
         <v>8.613800048828125</v>
@@ -5518,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1">
         <v>8.5502901077270508</v>
@@ -5530,7 +5542,7 @@
         <v>204</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G52" s="1">
         <v>8.3922796249389648</v>
@@ -5542,7 +5554,7 @@
         <v>20401</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K52" s="1">
         <v>8.3145303726196289</v>
@@ -5560,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1">
         <v>8.5502901077270508</v>
@@ -5572,7 +5584,7 @@
         <v>204</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G53" s="1">
         <v>8.3922796249389648</v>
@@ -5584,7 +5596,7 @@
         <v>20402</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K53" s="1">
         <v>8.295989990234375</v>
@@ -5602,7 +5614,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" s="1">
         <v>8.5502901077270508</v>
@@ -5614,7 +5626,7 @@
         <v>204</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G54" s="1">
         <v>8.3922796249389648</v>
@@ -5626,7 +5638,7 @@
         <v>20403</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K54" s="1">
         <v>8.4404096603393555</v>
@@ -5644,7 +5656,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" s="1">
         <v>8.5502901077270508</v>
@@ -5656,7 +5668,7 @@
         <v>204</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G55" s="1">
         <v>8.3922796249389648</v>
@@ -5668,7 +5680,7 @@
         <v>20404</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K55" s="1">
         <v>8.541839599609375</v>
@@ -5686,7 +5698,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1">
         <v>8.5502901077270508</v>
@@ -5698,7 +5710,7 @@
         <v>204</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G56" s="1">
         <v>8.3922796249389648</v>
@@ -5710,7 +5722,7 @@
         <v>20405</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K56" s="1">
         <v>8.4918498992919922</v>
@@ -5728,7 +5740,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1">
         <v>8.5502901077270508</v>
@@ -5740,7 +5752,7 @@
         <v>204</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G57" s="1">
         <v>8.3922796249389648</v>
@@ -5752,7 +5764,7 @@
         <v>20406</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K57" s="1">
         <v>8.365300178527832</v>
@@ -5770,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" s="1">
         <v>8.5502901077270508</v>
@@ -5782,7 +5794,7 @@
         <v>205</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G58" s="1">
         <v>8.4896202087402344</v>
@@ -5794,7 +5806,7 @@
         <v>20501</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K58" s="1">
         <v>8.4641895294189453</v>
@@ -5812,7 +5824,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" s="1">
         <v>8.5502901077270508</v>
@@ -5824,7 +5836,7 @@
         <v>205</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G59" s="1">
         <v>8.4896202087402344</v>
@@ -5836,7 +5848,7 @@
         <v>20502</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K59" s="1">
         <v>8.4704198837280273</v>
@@ -5854,7 +5866,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="1">
         <v>8.5502901077270508</v>
@@ -5866,7 +5878,7 @@
         <v>205</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G60" s="1">
         <v>8.4896202087402344</v>
@@ -5878,7 +5890,7 @@
         <v>20503</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K60" s="1">
         <v>8.5693798065185547</v>
@@ -5896,7 +5908,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1">
         <v>8.5502901077270508</v>
@@ -5908,7 +5920,7 @@
         <v>205</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G61" s="1">
         <v>8.4896202087402344</v>
@@ -5920,7 +5932,7 @@
         <v>20504</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61" s="1">
         <v>8.3898496627807617</v>
@@ -5938,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1">
         <v>8.5502901077270508</v>
@@ -5950,7 +5962,7 @@
         <v>205</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G62" s="1">
         <v>8.4896202087402344</v>
@@ -5962,7 +5974,7 @@
         <v>20505</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K62" s="1">
         <v>8.4689702987670898</v>
@@ -5980,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1">
         <v>8.5502901077270508</v>
@@ -5992,7 +6004,7 @@
         <v>206</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G63" s="1">
         <v>8.66864013671875</v>
@@ -6004,7 +6016,7 @@
         <v>20601</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K63" s="1">
         <v>8.5279197692871094</v>
@@ -6022,7 +6034,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1">
         <v>8.5502901077270508</v>
@@ -6034,7 +6046,7 @@
         <v>206</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G64" s="1">
         <v>8.66864013671875</v>
@@ -6046,7 +6058,7 @@
         <v>20602</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K64" s="1">
         <v>8.5223703384399414</v>
@@ -6064,7 +6076,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1">
         <v>8.5502901077270508</v>
@@ -6076,7 +6088,7 @@
         <v>206</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G65" s="1">
         <v>8.66864013671875</v>
@@ -6088,7 +6100,7 @@
         <v>20603</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K65" s="1">
         <v>8.4075002670288086</v>
@@ -6106,7 +6118,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1">
         <v>8.5502901077270508</v>
@@ -6118,7 +6130,7 @@
         <v>206</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G66" s="1">
         <v>8.66864013671875</v>
@@ -6130,7 +6142,7 @@
         <v>20604</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K66" s="1">
         <v>8.7105703353881836</v>
@@ -6148,7 +6160,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1">
         <v>8.5502901077270508</v>
@@ -6160,7 +6172,7 @@
         <v>206</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G67" s="1">
         <v>8.66864013671875</v>
@@ -6172,7 +6184,7 @@
         <v>20605</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67" s="1">
         <v>8.4118204116821289</v>
@@ -6190,7 +6202,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1">
         <v>8.5502901077270508</v>
@@ -6202,7 +6214,7 @@
         <v>206</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G68" s="1">
         <v>8.66864013671875</v>
@@ -6214,7 +6226,7 @@
         <v>20606</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K68" s="1">
         <v>8.5912799835205078</v>
@@ -6232,7 +6244,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C69" s="1">
         <v>8.5502901077270508</v>
@@ -6244,7 +6256,7 @@
         <v>206</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G69" s="1">
         <v>8.66864013671875</v>
@@ -6256,7 +6268,7 @@
         <v>20607</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69" s="1">
         <v>8.4470500946044922</v>
@@ -6274,7 +6286,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" s="1">
         <v>8.5502901077270508</v>
@@ -6286,7 +6298,7 @@
         <v>206</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G70" s="1">
         <v>8.66864013671875</v>
@@ -6298,7 +6310,7 @@
         <v>20608</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70" s="1">
         <v>8.9061002731323242</v>
@@ -6316,7 +6328,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" s="1">
         <v>8.5502901077270508</v>
@@ -6328,7 +6340,7 @@
         <v>206</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G71" s="1">
         <v>8.66864013671875</v>
@@ -6340,7 +6352,7 @@
         <v>20609</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71" s="1">
         <v>8.7375898361206055</v>
@@ -6358,7 +6370,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1">
         <v>8.5502901077270508</v>
@@ -6370,7 +6382,7 @@
         <v>206</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G72" s="1">
         <v>8.66864013671875</v>
@@ -6382,7 +6394,7 @@
         <v>20610</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K72" s="1">
         <v>8.7228899002075195</v>
@@ -6400,7 +6412,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73" s="1">
         <v>9.18634033203125</v>
@@ -6412,7 +6424,7 @@
         <v>301</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G73" s="1">
         <v>9.2426204681396484</v>
@@ -6424,7 +6436,7 @@
         <v>30101</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73" s="1">
         <v>9.3623695373535156</v>
@@ -6435,7 +6447,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="8"/>
       <c r="O73" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P73" s="8"/>
     </row>
@@ -6444,7 +6456,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C74" s="1">
         <v>9.18634033203125</v>
@@ -6456,7 +6468,7 @@
         <v>301</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G74" s="1">
         <v>9.2426204681396484</v>
@@ -6479,7 +6491,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="8"/>
       <c r="O74" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P74" s="8"/>
     </row>
@@ -6488,7 +6500,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" s="1">
         <v>9.18634033203125</v>
@@ -6500,7 +6512,7 @@
         <v>301</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G75" s="1">
         <v>9.2426204681396484</v>
@@ -6523,7 +6535,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="8"/>
       <c r="O75" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P75" s="8"/>
     </row>
@@ -6532,7 +6544,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" s="1">
         <v>9.18634033203125</v>
@@ -6544,7 +6556,7 @@
         <v>301</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G76" s="1">
         <v>9.2426204681396484</v>
@@ -6567,7 +6579,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="8"/>
       <c r="O76" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P76" s="8"/>
     </row>
@@ -6576,7 +6588,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C77" s="1">
         <v>9.18634033203125</v>
@@ -6588,7 +6600,7 @@
         <v>301</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G77" s="1">
         <v>9.2426204681396484</v>
@@ -6611,7 +6623,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="8"/>
       <c r="O77" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P77" s="8"/>
     </row>
@@ -6620,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C78" s="1">
         <v>9.18634033203125</v>
@@ -6632,7 +6644,7 @@
         <v>301</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G78" s="1">
         <v>9.2426204681396484</v>
@@ -6655,7 +6667,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="8"/>
       <c r="O78" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P78" s="8"/>
     </row>
@@ -6664,7 +6676,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C79" s="1">
         <v>9.18634033203125</v>
@@ -6676,7 +6688,7 @@
         <v>301</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G79" s="1">
         <v>9.2426204681396484</v>
@@ -6699,7 +6711,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="8"/>
       <c r="O79" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P79" s="8"/>
     </row>
@@ -6708,7 +6720,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C80" s="1">
         <v>9.18634033203125</v>
@@ -6720,7 +6732,7 @@
         <v>301</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G80" s="1">
         <v>9.2426204681396484</v>
@@ -6743,7 +6755,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="8"/>
       <c r="O80" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P80" s="8"/>
     </row>
@@ -6752,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C81" s="1">
         <v>9.18634033203125</v>
@@ -6764,7 +6776,7 @@
         <v>301</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G81" s="1">
         <v>9.2426204681396484</v>
@@ -6787,7 +6799,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="8"/>
       <c r="O81" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P81" s="8"/>
     </row>
@@ -6796,7 +6808,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82" s="1">
         <v>9.18634033203125</v>
@@ -6808,7 +6820,7 @@
         <v>301</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G82" s="1">
         <v>9.2426204681396484</v>
@@ -6831,7 +6843,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="8"/>
       <c r="O82" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P82" s="8"/>
     </row>
@@ -6840,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C83" s="1">
         <v>9.18634033203125</v>
@@ -6852,7 +6864,7 @@
         <v>301</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G83" s="1">
         <v>9.2426204681396484</v>
@@ -6875,7 +6887,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="8"/>
       <c r="O83" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P83" s="8"/>
     </row>
@@ -6884,7 +6896,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84" s="1">
         <v>9.18634033203125</v>
@@ -6896,7 +6908,7 @@
         <v>301</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G84" s="1">
         <v>9.2426204681396484</v>
@@ -6919,7 +6931,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="8"/>
       <c r="O84" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P84" s="8"/>
     </row>
@@ -6928,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" s="1">
         <v>9.18634033203125</v>
@@ -6940,7 +6952,7 @@
         <v>301</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G85" s="1">
         <v>9.2426204681396484</v>
@@ -6963,7 +6975,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="8"/>
       <c r="O85" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P85" s="8"/>
     </row>
@@ -6972,7 +6984,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" s="1">
         <v>9.18634033203125</v>
@@ -6984,7 +6996,7 @@
         <v>301</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G86" s="1">
         <v>9.2426204681396484</v>
@@ -7007,7 +7019,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="8"/>
       <c r="O86" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P86" s="8"/>
     </row>
@@ -7016,7 +7028,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" s="1">
         <v>9.18634033203125</v>
@@ -7028,7 +7040,7 @@
         <v>301</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G87" s="1">
         <v>9.2426204681396484</v>
@@ -7051,7 +7063,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="8"/>
       <c r="O87" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P87" s="8"/>
     </row>
@@ -7060,7 +7072,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1">
         <v>9.18634033203125</v>
@@ -7095,7 +7107,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="8"/>
       <c r="O88" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P88" s="8"/>
     </row>
@@ -7104,7 +7116,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" s="1">
         <v>9.18634033203125</v>
@@ -7139,7 +7151,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="8"/>
       <c r="O89" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P89" s="8"/>
     </row>
@@ -7148,7 +7160,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1">
         <v>9.18634033203125</v>
@@ -7183,7 +7195,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="8"/>
       <c r="O90" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P90" s="8"/>
     </row>
@@ -7192,7 +7204,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1">
         <v>9.18634033203125</v>
@@ -7227,7 +7239,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="8"/>
       <c r="O91" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P91" s="8"/>
     </row>
@@ -7236,7 +7248,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C92" s="1">
         <v>9.18634033203125</v>
@@ -7271,7 +7283,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="8"/>
       <c r="O92" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P92" s="8"/>
     </row>
@@ -7280,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1">
         <v>9.18634033203125</v>
@@ -7315,7 +7327,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="8"/>
       <c r="O93" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P93" s="8"/>
     </row>
@@ -7324,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C94" s="1">
         <v>9.18634033203125</v>
@@ -7359,7 +7371,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="8"/>
       <c r="O94" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P94" s="8"/>
     </row>
@@ -7368,7 +7380,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C95" s="1">
         <v>9.18634033203125</v>
@@ -7403,7 +7415,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="8"/>
       <c r="O95" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P95" s="8"/>
     </row>
@@ -7412,7 +7424,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C96" s="1">
         <v>9.18634033203125</v>
@@ -7447,7 +7459,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="8"/>
       <c r="O96" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P96" s="8"/>
     </row>
@@ -7456,7 +7468,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C97" s="1">
         <v>9.18634033203125</v>
@@ -7491,7 +7503,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="8"/>
       <c r="O97" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P97" s="8"/>
     </row>
@@ -7500,7 +7512,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C98" s="1">
         <v>9.18634033203125</v>
@@ -7535,7 +7547,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="8"/>
       <c r="O98" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P98" s="8"/>
     </row>
@@ -7544,7 +7556,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C99" s="1">
         <v>9.18634033203125</v>
@@ -7568,7 +7580,7 @@
         <v>30305</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K99" s="1">
         <v>9.0889797210693359</v>
@@ -7579,7 +7591,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="8"/>
       <c r="O99" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P99" s="8"/>
     </row>
@@ -7588,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C100" s="1">
         <v>9.18634033203125</v>
@@ -7623,7 +7635,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="8"/>
       <c r="O100" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P100" s="8"/>
     </row>
@@ -7632,7 +7644,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C101" s="1">
         <v>9.18634033203125</v>
@@ -7667,7 +7679,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="8"/>
       <c r="O101" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P101" s="8"/>
     </row>
@@ -7676,7 +7688,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C102" s="1">
         <v>9.18634033203125</v>
@@ -7711,7 +7723,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="8"/>
       <c r="O102" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P102" s="8"/>
     </row>
@@ -7720,7 +7732,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C103" s="1">
         <v>9.18634033203125</v>
@@ -7755,7 +7767,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="8"/>
       <c r="O103" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P103" s="8"/>
     </row>
@@ -7764,7 +7776,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C104" s="1">
         <v>9.18634033203125</v>
@@ -7799,7 +7811,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="8"/>
       <c r="O104" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P104" s="8"/>
     </row>
@@ -7808,7 +7820,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C105" s="1">
         <v>9.18634033203125</v>
@@ -7843,7 +7855,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="8"/>
       <c r="O105" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P105" s="8"/>
     </row>
@@ -7852,7 +7864,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C106" s="1">
         <v>9.18634033203125</v>
@@ -7887,7 +7899,7 @@
       <c r="M106" s="7"/>
       <c r="N106" s="8"/>
       <c r="O106" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P106" s="8"/>
     </row>
@@ -7896,7 +7908,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C107" s="1">
         <v>9.18634033203125</v>
@@ -7920,7 +7932,7 @@
         <v>30503</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K107" s="1">
         <v>9.558380126953125</v>
@@ -7931,7 +7943,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="8"/>
       <c r="O107" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P107" s="8"/>
     </row>
@@ -7940,7 +7952,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C108" s="1">
         <v>9.18634033203125</v>
@@ -7975,7 +7987,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="8"/>
       <c r="O108" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P108" s="8"/>
     </row>
@@ -7984,7 +7996,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C109" s="1">
         <v>9.18634033203125</v>
@@ -8019,7 +8031,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="8"/>
       <c r="O109" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P109" s="8"/>
     </row>
@@ -8028,7 +8040,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C110" s="1">
         <v>9.18634033203125</v>
@@ -8063,7 +8075,7 @@
       <c r="M110" s="7"/>
       <c r="N110" s="8"/>
       <c r="O110" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P110" s="8"/>
     </row>
@@ -8072,7 +8084,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C111" s="1">
         <v>9.18634033203125</v>
@@ -8107,7 +8119,7 @@
       <c r="M111" s="7"/>
       <c r="N111" s="8"/>
       <c r="O111" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P111" s="8"/>
     </row>
@@ -8116,7 +8128,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C112" s="1">
         <v>9.18634033203125</v>
@@ -8151,7 +8163,7 @@
       <c r="M112" s="7"/>
       <c r="N112" s="8"/>
       <c r="O112" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P112" s="8"/>
     </row>
@@ -10032,7 +10044,7 @@
         <v>40606</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K157" s="1">
         <v>8.4426403045654297</v>
@@ -11922,7 +11934,7 @@
         <v>41304</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K202" s="1">
         <v>8.3224802017211914</v>
@@ -14232,7 +14244,7 @@
         <v>60404</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K257" s="1">
         <v>7.9790301322937012</v>
@@ -14442,7 +14454,7 @@
         <v>60502</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K262" s="1">
         <v>8.0270900726318359</v>
@@ -17916,7 +17928,7 @@
         <v>706</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G345" s="1">
         <v>7.6311302185058594</v>
@@ -17958,7 +17970,7 @@
         <v>706</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G346" s="1">
         <v>7.6311302185058594</v>
@@ -18000,7 +18012,7 @@
         <v>706</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G347" s="1">
         <v>7.6311302185058594</v>
@@ -18042,7 +18054,7 @@
         <v>706</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G348" s="1">
         <v>7.6311302185058594</v>
@@ -18084,7 +18096,7 @@
         <v>706</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G349" s="1">
         <v>7.6311302185058594</v>
@@ -18609,13 +18621,13 @@
         <v>-78.925697326660156</v>
       </c>
       <c r="M361" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N361" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O361" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P361" s="8"/>
     </row>
@@ -18657,13 +18669,13 @@
         <v>-78.871299743652344</v>
       </c>
       <c r="M362" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N362" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O362" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P362" s="8"/>
     </row>
@@ -18705,13 +18717,13 @@
         <v>-78.91729736328125</v>
       </c>
       <c r="M363" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N363" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O363" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P363" s="8"/>
     </row>
@@ -18753,13 +18765,13 @@
         <v>-78.93609619140625</v>
       </c>
       <c r="M364" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N364" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O364" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P364" s="8"/>
     </row>
@@ -18801,13 +18813,13 @@
         <v>-79.109397888183594</v>
       </c>
       <c r="M365" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N365" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O365" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P365" s="8"/>
     </row>
@@ -18849,13 +18861,13 @@
         <v>-79.045097351074219</v>
       </c>
       <c r="M366" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N366" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O366" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P366" s="8"/>
     </row>
@@ -18897,13 +18909,13 @@
         <v>-79.077102661132813</v>
       </c>
       <c r="M367" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N367" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O367" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P367" s="8"/>
     </row>
@@ -18945,13 +18957,13 @@
         <v>-78.830001831054688</v>
       </c>
       <c r="M368" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N368" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O368" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P368" s="8"/>
     </row>
@@ -18993,13 +19005,13 @@
         <v>-78.898300170898438</v>
       </c>
       <c r="M369" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N369" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O369" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P369" s="8"/>
     </row>
@@ -19041,13 +19053,13 @@
         <v>-78.831497192382813</v>
       </c>
       <c r="M370" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N370" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O370" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P370" s="8"/>
     </row>
@@ -19089,13 +19101,13 @@
         <v>-79.136802673339844</v>
       </c>
       <c r="M371" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N371" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O371" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P371" s="8"/>
     </row>
@@ -19137,13 +19149,13 @@
         <v>-79.129302978515625</v>
       </c>
       <c r="M372" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N372" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O372" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P372" s="8"/>
     </row>
@@ -19185,13 +19197,13 @@
         <v>-78.991500854492188</v>
       </c>
       <c r="M373" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N373" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O373" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P373" s="8"/>
     </row>
@@ -19233,13 +19245,13 @@
         <v>-78.422698974609375</v>
       </c>
       <c r="M374" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N374" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O374" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P374" s="8"/>
     </row>
@@ -19281,13 +19293,13 @@
         <v>-78.674896240234375</v>
       </c>
       <c r="M375" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N375" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O375" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P375" s="8"/>
     </row>
@@ -19329,13 +19341,13 @@
         <v>-78.501899719238281</v>
       </c>
       <c r="M376" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N376" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O376" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P376" s="8"/>
     </row>
@@ -19377,13 +19389,13 @@
         <v>-78.560203552246094</v>
       </c>
       <c r="M377" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N377" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O377" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P377" s="8"/>
     </row>
@@ -19425,13 +19437,13 @@
         <v>-78.500999450683594</v>
       </c>
       <c r="M378" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N378" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O378" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P378" s="8"/>
     </row>
@@ -19473,13 +19485,13 @@
         <v>-78.441703796386719</v>
       </c>
       <c r="M379" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N379" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O379" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P379" s="8"/>
     </row>
@@ -19521,13 +19533,13 @@
         <v>-78.825798034667969</v>
       </c>
       <c r="M380" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N380" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O380" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P380" s="8"/>
     </row>
@@ -19569,13 +19581,13 @@
         <v>-78.683799743652344</v>
       </c>
       <c r="M381" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N381" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O381" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P381" s="8"/>
     </row>
@@ -19617,13 +19629,13 @@
         <v>-78.510498046875</v>
       </c>
       <c r="M382" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N382" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O382" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P382" s="8"/>
     </row>
@@ -19665,13 +19677,13 @@
         <v>-79.535301208496094</v>
       </c>
       <c r="M383" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N383" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O383" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P383" s="8"/>
     </row>
@@ -19713,13 +19725,13 @@
         <v>-79.544502258300781</v>
       </c>
       <c r="M384" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N384" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O384" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P384" s="8"/>
     </row>
@@ -19761,13 +19773,13 @@
         <v>-79.541297912597656</v>
       </c>
       <c r="M385" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N385" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O385" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P385" s="8"/>
     </row>
@@ -19809,13 +19821,13 @@
         <v>-79.535896301269531</v>
       </c>
       <c r="M386" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N386" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O386" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P386" s="8"/>
     </row>
@@ -19857,13 +19869,13 @@
         <v>-79.539398193359375</v>
       </c>
       <c r="M387" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N387" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O387" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P387" s="8"/>
     </row>
@@ -19905,13 +19917,13 @@
         <v>-79.527801513671875</v>
       </c>
       <c r="M388" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N388" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O388" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P388" s="8"/>
     </row>
@@ -19953,13 +19965,13 @@
         <v>-79.525299072265625</v>
       </c>
       <c r="M389" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N389" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O389" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P389" s="8"/>
     </row>
@@ -20001,13 +20013,13 @@
         <v>-79.513801574707031</v>
       </c>
       <c r="M390" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N390" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O390" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P390" s="8"/>
     </row>
@@ -20049,13 +20061,13 @@
         <v>-79.507896423339844</v>
       </c>
       <c r="M391" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N391" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O391" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P391" s="8"/>
     </row>
@@ -20097,13 +20109,13 @@
         <v>-79.485603332519531</v>
       </c>
       <c r="M392" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N392" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O392" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P392" s="8"/>
     </row>
@@ -20145,13 +20157,13 @@
         <v>-79.493598937988281</v>
       </c>
       <c r="M393" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N393" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O393" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P393" s="8"/>
     </row>
@@ -20184,7 +20196,7 @@
         <v>80812</v>
       </c>
       <c r="J394" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K394" s="1">
         <v>9.0325002670288086</v>
@@ -20193,13 +20205,13 @@
         <v>-79.452102661132813</v>
       </c>
       <c r="M394" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N394" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O394" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P394" s="8"/>
     </row>
@@ -20241,13 +20253,13 @@
         <v>-79.437797546386719</v>
       </c>
       <c r="M395" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N395" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O395" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P395" s="8"/>
     </row>
@@ -20289,13 +20301,13 @@
         <v>-79.571502685546875</v>
       </c>
       <c r="M396" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N396" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O396" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P396" s="8"/>
     </row>
@@ -20337,13 +20349,13 @@
         <v>-79.442001342773438</v>
       </c>
       <c r="M397" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N397" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O397" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P397" s="8"/>
     </row>
@@ -20385,13 +20397,13 @@
         <v>-79.602699279785156</v>
       </c>
       <c r="M398" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N398" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O398" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P398" s="8"/>
     </row>
@@ -20433,13 +20445,13 @@
         <v>-79.55419921875</v>
       </c>
       <c r="M399" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N399" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O399" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P399" s="8"/>
     </row>
@@ -20481,13 +20493,13 @@
         <v>-79.218803405761719</v>
       </c>
       <c r="M400" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N400" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O400" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P400" s="8"/>
     </row>
@@ -20529,13 +20541,13 @@
         <v>-79.329200744628906</v>
       </c>
       <c r="M401" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N401" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O401" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P401" s="8"/>
     </row>
@@ -20577,13 +20589,13 @@
         <v>-79.252998352050781</v>
       </c>
       <c r="M402" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N402" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O402" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P402" s="8"/>
     </row>
@@ -20625,13 +20637,13 @@
         <v>-79.400001525878906</v>
       </c>
       <c r="M403" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N403" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O403" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P403" s="8"/>
     </row>
@@ -20673,13 +20685,13 @@
         <v>-79.417999267578125</v>
       </c>
       <c r="M404" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N404" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O404" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P404" s="8"/>
     </row>
@@ -20721,13 +20733,13 @@
         <v>-79.382003784179688</v>
       </c>
       <c r="M405" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N405" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O405" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P405" s="8"/>
     </row>
@@ -20769,13 +20781,13 @@
         <v>-79.510597229003906</v>
       </c>
       <c r="M406" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N406" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O406" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P406" s="8"/>
     </row>
@@ -20817,13 +20829,13 @@
         <v>-79.4927978515625</v>
       </c>
       <c r="M407" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N407" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O407" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P407" s="8"/>
     </row>
@@ -20865,13 +20877,13 @@
         <v>-79.635597229003906</v>
       </c>
       <c r="M408" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N408" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O408" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P408" s="8"/>
     </row>
@@ -20913,13 +20925,13 @@
         <v>-79.607597351074219</v>
       </c>
       <c r="M409" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N409" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O409" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P409" s="8"/>
     </row>
@@ -20961,13 +20973,13 @@
         <v>-79.514198303222656</v>
       </c>
       <c r="M410" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N410" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O410" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P410" s="8"/>
     </row>
@@ -21009,13 +21021,13 @@
         <v>-79.4989013671875</v>
       </c>
       <c r="M411" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N411" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O411" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P411" s="8"/>
     </row>
@@ -21057,13 +21069,13 @@
         <v>-79.478302001953125</v>
       </c>
       <c r="M412" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N412" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O412" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P412" s="8"/>
     </row>
@@ -21105,13 +21117,13 @@
         <v>-79.496200561523438</v>
       </c>
       <c r="M413" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N413" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O413" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P413" s="8"/>
     </row>
@@ -21153,13 +21165,13 @@
         <v>-79.505996704101563</v>
       </c>
       <c r="M414" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N414" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O414" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P414" s="8"/>
     </row>
@@ -21201,13 +21213,13 @@
         <v>-79.482002258300781</v>
       </c>
       <c r="M415" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N415" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O415" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P415" s="8"/>
     </row>
@@ -21249,13 +21261,13 @@
         <v>-79.490699768066406</v>
       </c>
       <c r="M416" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N416" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O416" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P416" s="8"/>
     </row>
@@ -21297,13 +21309,13 @@
         <v>-79.52130126953125</v>
       </c>
       <c r="M417" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N417" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O417" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P417" s="8"/>
     </row>
@@ -21345,13 +21357,13 @@
         <v>-79.457603454589844</v>
       </c>
       <c r="M418" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N418" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O418" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P418" s="8"/>
     </row>
@@ -21393,13 +21405,13 @@
         <v>-79.549201965332031</v>
       </c>
       <c r="M419" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N419" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O419" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P419" s="8"/>
     </row>
@@ -21441,13 +21453,13 @@
         <v>-79.605697631835938</v>
       </c>
       <c r="M420" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N420" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O420" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P420" s="8"/>
     </row>
@@ -21489,13 +21501,13 @@
         <v>-79.594100952148438</v>
       </c>
       <c r="M421" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N421" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O421" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P421" s="8"/>
     </row>
@@ -21906,7 +21918,7 @@
         <v>90205</v>
       </c>
       <c r="J431" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K431" s="1">
         <v>8.3852396011352539</v>
@@ -22746,7 +22758,7 @@
         <v>90404</v>
       </c>
       <c r="J451" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K451" s="1">
         <v>8.0902595520019531</v>
@@ -23754,7 +23766,7 @@
         <v>90702</v>
       </c>
       <c r="J475" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K475" s="1">
         <v>7.8885002136230469</v>
@@ -25350,7 +25362,7 @@
         <v>91109</v>
       </c>
       <c r="J513" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K513" s="1">
         <v>7.7116098403930664</v>
@@ -28644,7 +28656,7 @@
         <v>2</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C592" s="1">
         <v>8.5502901077270508</v>
@@ -28656,7 +28668,7 @@
         <v>201</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G592" s="1">
         <v>8.208470344543457</v>
@@ -28686,7 +28698,7 @@
         <v>2</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C593" s="1">
         <v>8.5502901077270508</v>
@@ -28698,7 +28710,7 @@
         <v>201</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G593" s="1">
         <v>8.208470344543457</v>
@@ -28728,7 +28740,7 @@
         <v>2</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C594" s="1">
         <v>8.5502901077270508</v>
@@ -28740,7 +28752,7 @@
         <v>201</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G594" s="1">
         <v>8.208470344543457</v>
@@ -28770,7 +28782,7 @@
         <v>2</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C595" s="1">
         <v>8.5502901077270508</v>
@@ -28782,7 +28794,7 @@
         <v>203</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G595" s="1">
         <v>8.700169563293457</v>
@@ -28812,7 +28824,7 @@
         <v>2</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C596" s="1">
         <v>8.5502901077270508</v>
@@ -28824,7 +28836,7 @@
         <v>204</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G596" s="1">
         <v>8.3922796249389648</v>
@@ -28854,7 +28866,7 @@
         <v>3</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C597" s="1">
         <v>9.18634033203125</v>
@@ -28866,7 +28878,7 @@
         <v>301</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G597" s="1">
         <v>9.2426204681396484</v>
@@ -28889,7 +28901,7 @@
       <c r="M597" s="7"/>
       <c r="N597" s="8"/>
       <c r="O597" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P597" s="8"/>
     </row>
@@ -28898,7 +28910,7 @@
         <v>3</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C598" s="1">
         <v>9.18634033203125</v>
@@ -28933,7 +28945,7 @@
       <c r="M598" s="7"/>
       <c r="N598" s="8"/>
       <c r="O598" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P598" s="8"/>
     </row>
@@ -28942,7 +28954,7 @@
         <v>3</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C599" s="1">
         <v>9.18634033203125</v>
@@ -28977,7 +28989,7 @@
       <c r="M599" s="7"/>
       <c r="N599" s="8"/>
       <c r="O599" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P599" s="8"/>
     </row>
@@ -28986,7 +28998,7 @@
         <v>3</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C600" s="1">
         <v>9.18634033203125</v>
@@ -29021,7 +29033,7 @@
       <c r="M600" s="7"/>
       <c r="N600" s="8"/>
       <c r="O600" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P600" s="8"/>
     </row>
@@ -30071,13 +30083,13 @@
         <v>-79.418296813964844</v>
       </c>
       <c r="M625" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N625" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O625" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P625" s="8"/>
     </row>
@@ -30782,7 +30794,7 @@
         <v>120708</v>
       </c>
       <c r="J642" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K642" s="1">
         <v>8.8311300277709961</v>
@@ -31253,13 +31265,13 @@
         <v>-79.581001281738281</v>
       </c>
       <c r="M653" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N653" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O653" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P653" s="8"/>
     </row>
@@ -31301,13 +31313,13 @@
         <v>-79.625297546386719</v>
       </c>
       <c r="M654" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N654" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O654" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P654" s="8"/>
     </row>
@@ -31349,13 +31361,13 @@
         <v>-79.732101440429688</v>
       </c>
       <c r="M655" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N655" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O655" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P655" s="8"/>
     </row>
@@ -31397,13 +31409,13 @@
         <v>-79.714302062988281</v>
       </c>
       <c r="M656" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N656" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O656" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P656" s="8"/>
     </row>
@@ -31445,13 +31457,13 @@
         <v>-79.712501525878906</v>
       </c>
       <c r="M657" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N657" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O657" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P657" s="8"/>
     </row>
@@ -31493,13 +31505,13 @@
         <v>-79.758499145507813</v>
       </c>
       <c r="M658" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N658" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O658" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P658" s="8"/>
     </row>
@@ -31541,13 +31553,13 @@
         <v>-79.786201477050781</v>
       </c>
       <c r="M659" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N659" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O659" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P659" s="8"/>
     </row>
@@ -31589,13 +31601,13 @@
         <v>-79.603302001953125</v>
       </c>
       <c r="M660" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N660" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O660" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P660" s="8"/>
     </row>
@@ -31637,13 +31649,13 @@
         <v>-79.691200256347656</v>
       </c>
       <c r="M661" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N661" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O661" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P661" s="8"/>
     </row>
@@ -31685,13 +31697,13 @@
         <v>-79.627899169921875</v>
       </c>
       <c r="M662" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N662" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O662" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P662" s="8"/>
     </row>
@@ -31733,13 +31745,13 @@
         <v>-79.665397644042969</v>
       </c>
       <c r="M663" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N663" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O663" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P663" s="8"/>
     </row>
@@ -31781,13 +31793,13 @@
         <v>-79.680496215820313</v>
       </c>
       <c r="M664" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N664" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O664" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P664" s="8"/>
     </row>
@@ -31829,13 +31841,13 @@
         <v>-79.843696594238281</v>
       </c>
       <c r="M665" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N665" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O665" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P665" s="8"/>
     </row>
@@ -31877,13 +31889,13 @@
         <v>-79.963798522949219</v>
       </c>
       <c r="M666" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N666" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O666" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P666" s="8"/>
     </row>
@@ -31925,13 +31937,13 @@
         <v>-79.871101379394531</v>
       </c>
       <c r="M667" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N667" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O667" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P667" s="8"/>
     </row>
@@ -31973,13 +31985,13 @@
         <v>-79.932403564453125</v>
       </c>
       <c r="M668" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N668" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O668" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P668" s="8"/>
     </row>
@@ -32021,13 +32033,13 @@
         <v>-80.102798461914063</v>
       </c>
       <c r="M669" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N669" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O669" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P669" s="8"/>
     </row>
@@ -32069,13 +32081,13 @@
         <v>-80.090301513671875</v>
       </c>
       <c r="M670" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N670" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O670" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P670" s="8"/>
     </row>
@@ -32117,13 +32129,13 @@
         <v>-80.025596618652344</v>
       </c>
       <c r="M671" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N671" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O671" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P671" s="8"/>
     </row>
@@ -32165,13 +32177,13 @@
         <v>-80.013496398925781</v>
       </c>
       <c r="M672" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N672" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O672" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P672" s="8"/>
     </row>
@@ -32213,13 +32225,13 @@
         <v>-79.905601501464844</v>
       </c>
       <c r="M673" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N673" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O673" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P673" s="8"/>
     </row>
@@ -32261,13 +32273,13 @@
         <v>-79.868896484375</v>
       </c>
       <c r="M674" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N674" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O674" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P674" s="8"/>
     </row>
@@ -32309,13 +32321,13 @@
         <v>-79.862998962402344</v>
       </c>
       <c r="M675" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N675" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O675" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P675" s="8"/>
     </row>
@@ -32357,13 +32369,13 @@
         <v>-80.111801147460938</v>
       </c>
       <c r="M676" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N676" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O676" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P676" s="8"/>
     </row>
@@ -32405,13 +32417,13 @@
         <v>-79.797798156738281</v>
       </c>
       <c r="M677" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N677" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O677" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P677" s="8"/>
     </row>
@@ -32453,13 +32465,13 @@
         <v>-79.849998474121094</v>
       </c>
       <c r="M678" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N678" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O678" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P678" s="8"/>
     </row>
@@ -32501,13 +32513,13 @@
         <v>-79.888397216796875</v>
       </c>
       <c r="M679" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N679" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O679" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P679" s="8"/>
     </row>
@@ -32549,13 +32561,13 @@
         <v>-79.950599670410156</v>
       </c>
       <c r="M680" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N680" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O680" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P680" s="8"/>
     </row>
@@ -32588,7 +32600,7 @@
         <v>130404</v>
       </c>
       <c r="J681" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K681" s="1">
         <v>8.5804996490478516</v>
@@ -32597,13 +32609,13 @@
         <v>-79.955902099609375</v>
       </c>
       <c r="M681" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N681" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O681" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P681" s="8"/>
     </row>
@@ -32645,13 +32657,13 @@
         <v>-79.942596435546875</v>
       </c>
       <c r="M682" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N682" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O682" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P682" s="8"/>
     </row>
@@ -32693,13 +32705,13 @@
         <v>-79.809700012207031</v>
       </c>
       <c r="M683" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N683" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O683" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P683" s="8"/>
     </row>
@@ -32741,13 +32753,13 @@
         <v>-79.91290283203125</v>
       </c>
       <c r="M684" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N684" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O684" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P684" s="8"/>
     </row>
@@ -32789,13 +32801,13 @@
         <v>-79.87860107421875</v>
       </c>
       <c r="M685" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N685" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O685" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P685" s="8"/>
     </row>
@@ -32837,13 +32849,13 @@
         <v>-79.758903503417969</v>
       </c>
       <c r="M686" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N686" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O686" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P686" s="8"/>
     </row>
@@ -32885,13 +32897,13 @@
         <v>-79.875900268554688</v>
       </c>
       <c r="M687" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N687" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O687" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P687" s="8"/>
     </row>
@@ -32933,13 +32945,13 @@
         <v>-80.010101318359375</v>
       </c>
       <c r="M688" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N688" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O688" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P688" s="8"/>
     </row>
@@ -32981,13 +32993,13 @@
         <v>-79.790901184082031</v>
       </c>
       <c r="M689" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N689" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O689" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P689" s="8"/>
     </row>
@@ -33029,13 +33041,13 @@
         <v>-79.765098571777344</v>
       </c>
       <c r="M690" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N690" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O690" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P690" s="8"/>
     </row>
@@ -33077,13 +33089,13 @@
         <v>-79.888198852539063</v>
       </c>
       <c r="M691" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N691" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O691" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P691" s="8"/>
     </row>
@@ -33125,13 +33137,13 @@
         <v>-79.895301818847656</v>
       </c>
       <c r="M692" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N692" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O692" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P692" s="8"/>
     </row>
@@ -33173,13 +33185,13 @@
         <v>-79.957099914550781</v>
       </c>
       <c r="M693" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N693" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O693" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P693" s="8"/>
     </row>
@@ -33221,13 +33233,13 @@
         <v>-79.964401245117188</v>
       </c>
       <c r="M694" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N694" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O694" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P694" s="8"/>
     </row>
@@ -33269,13 +33281,13 @@
         <v>-79.781501770019531</v>
       </c>
       <c r="M695" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N695" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O695" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P695" s="8"/>
     </row>
@@ -33317,13 +33329,13 @@
         <v>-79.804801940917969</v>
       </c>
       <c r="M696" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N696" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O696" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P696" s="8"/>
     </row>
@@ -33356,7 +33368,7 @@
         <v>130706</v>
       </c>
       <c r="J697" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K697" s="1">
         <v>8.8833703994750977</v>
@@ -33365,13 +33377,13 @@
         <v>-79.823799133300781</v>
       </c>
       <c r="M697" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N697" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O697" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P697" s="8"/>
     </row>
@@ -33413,13 +33425,13 @@
         <v>-79.869003295898438</v>
       </c>
       <c r="M698" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N698" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O698" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P698" s="8"/>
     </row>
@@ -33461,13 +33473,13 @@
         <v>-79.827598571777344</v>
       </c>
       <c r="M699" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N699" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O699" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P699" s="8"/>
     </row>
@@ -33509,13 +33521,13 @@
         <v>-79.840896606445313</v>
       </c>
       <c r="M700" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N700" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O700" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P700" s="8"/>
     </row>
@@ -33557,13 +33569,13 @@
         <v>-79.891098022460938</v>
       </c>
       <c r="M701" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N701" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O701" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P701" s="8"/>
     </row>
@@ -33605,13 +33617,13 @@
         <v>-79.9302978515625</v>
       </c>
       <c r="M702" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N702" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O702" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P702" s="8"/>
     </row>
@@ -33653,13 +33665,13 @@
         <v>-79.958396911621094</v>
       </c>
       <c r="M703" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N703" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O703" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P703" s="8"/>
     </row>
@@ -33701,13 +33713,13 @@
         <v>-79.815399169921875</v>
       </c>
       <c r="M704" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N704" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O704" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P704" s="8"/>
     </row>
@@ -33749,13 +33761,13 @@
         <v>-79.830596923828125</v>
       </c>
       <c r="M705" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N705" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O705" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P705" s="8"/>
     </row>
@@ -33797,13 +33809,13 @@
         <v>-79.922599792480469</v>
       </c>
       <c r="M706" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N706" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O706" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P706" s="8"/>
     </row>
@@ -33845,13 +33857,13 @@
         <v>-79.8551025390625</v>
       </c>
       <c r="M707" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N707" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O707" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P707" s="8"/>
     </row>
@@ -33893,13 +33905,13 @@
         <v>-79.839500427246094</v>
       </c>
       <c r="M708" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N708" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O708" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P708" s="8"/>
     </row>
@@ -33941,13 +33953,13 @@
         <v>-79.961097717285156</v>
       </c>
       <c r="M709" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N709" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O709" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P709" s="8"/>
     </row>
@@ -33989,13 +34001,13 @@
         <v>-79.789299011230469</v>
       </c>
       <c r="M710" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N710" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O710" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P710" s="8"/>
     </row>
@@ -34037,13 +34049,13 @@
         <v>-79.737701416015625</v>
       </c>
       <c r="M711" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N711" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O711" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P711" s="8"/>
     </row>
@@ -34076,7 +34088,7 @@
         <v>130718</v>
       </c>
       <c r="J712" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K712" s="1">
         <v>8.875889778137207</v>
@@ -34085,13 +34097,13 @@
         <v>-79.902099609375</v>
       </c>
       <c r="M712" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N712" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O712" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P712" s="8"/>
     </row>
@@ -34133,13 +34145,13 @@
         <v>-79.962799072265625</v>
       </c>
       <c r="M713" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N713" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O713" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P713" s="8"/>
     </row>
@@ -34181,13 +34193,13 @@
         <v>-80.023902893066406</v>
       </c>
       <c r="M714" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N714" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O714" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P714" s="8"/>
     </row>
@@ -34229,13 +34241,13 @@
         <v>-80.040000915527344</v>
       </c>
       <c r="M715" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N715" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O715" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P715" s="8"/>
     </row>
@@ -34277,13 +34289,13 @@
         <v>-80.000198364257813</v>
       </c>
       <c r="M716" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N716" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O716" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P716" s="8"/>
     </row>
@@ -34325,13 +34337,13 @@
         <v>-80.071998596191406</v>
       </c>
       <c r="M717" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N717" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O717" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P717" s="8"/>
     </row>
@@ -34373,13 +34385,13 @@
         <v>-80.043403625488281</v>
       </c>
       <c r="M718" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N718" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O718" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P718" s="8"/>
     </row>
@@ -34421,13 +34433,13 @@
         <v>-79.994499206542969</v>
       </c>
       <c r="M719" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N719" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O719" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P719" s="8"/>
     </row>
@@ -34469,13 +34481,13 @@
         <v>-80.0791015625</v>
       </c>
       <c r="M720" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N720" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O720" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P720" s="8"/>
     </row>
@@ -34517,19 +34529,19 @@
         <v>-79.942497253417969</v>
       </c>
       <c r="M721" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N721" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O721" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P721" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="O143:O351 O12:O141 M11:M721">
+  <conditionalFormatting sqref="O143:O351 M11:M721 O12:O141">
     <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"SI"</formula>
     </cfRule>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D3D2C01-A6BB-4967-B8D6-417FFE4BD490}"/>
+  <xr:revisionPtr revIDLastSave="444" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0F427CA-26DC-49B4-8F9F-5502D9C6C9C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="773">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -134,6 +134,9 @@
     <t>Changuinola (Cabecera)</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Guabito</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t>Chiriquí Grande (Cabecera)</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Miramar</t>
@@ -3375,7 +3375,7 @@
   <slicer name="Cordón Sanitario (SI)" xr10:uid="{23800F20-AFA8-4F10-B9A5-1114DB3DF283}" cache="SegmentaciónDeDatos_Cordón_Sanitario__SI" caption="Cerco Sanitario (SI)" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Provincia" xr10:uid="{05674A6C-F3DE-4DC0-947A-32D804437B88}" cache="SegmentaciónDeDatos_Provincia" caption="Provincia" columnCount="3" rowHeight="241300"/>
   <slicer name="Distrito" xr10:uid="{94517B6B-4F47-417C-85A6-9D51100AC2B7}" cache="SegmentaciónDeDatos_Distrito" caption="Distrito" startItem="60" columnCount="5" rowHeight="241300"/>
-  <slicer name="Corregimiento" xr10:uid="{BE7F280B-65B0-4B5C-BC71-5D2C93821AB4}" cache="SegmentaciónDeDatos_Corregimiento" caption="Corregimiento" startItem="595" columnCount="5" rowHeight="241300"/>
+  <slicer name="Corregimiento" xr10:uid="{BE7F280B-65B0-4B5C-BC71-5D2C93821AB4}" cache="SegmentaciónDeDatos_Corregimiento" caption="Corregimiento" columnCount="5" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -3719,8 +3719,8 @@
   <dimension ref="A10:P721"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25:O30"/>
+      <pane ySplit="10" topLeftCell="F17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O722" sqref="O722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4082,7 +4082,9 @@
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" ht="15.75">
@@ -4114,7 +4116,7 @@
         <v>10203</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" s="1">
         <v>9.4860296249389648</v>
@@ -4156,7 +4158,7 @@
         <v>10204</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19" s="1">
         <v>9.2762298583984375</v>
@@ -4198,7 +4200,7 @@
         <v>10206</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1">
         <v>9.4120197296142578</v>
@@ -4240,7 +4242,7 @@
         <v>10207</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21" s="1">
         <v>9.5335798263549805</v>
@@ -4282,7 +4284,7 @@
         <v>10208</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22" s="1">
         <v>9.2639398574829102</v>
@@ -4324,7 +4326,7 @@
         <v>10209</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23" s="1">
         <v>9.3837003707885742</v>
@@ -4366,7 +4368,7 @@
         <v>10210</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24" s="1">
         <v>9.4179201126098633</v>
@@ -4396,7 +4398,7 @@
         <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1">
         <v>8.9838895797729492</v>
@@ -4408,7 +4410,7 @@
         <v>10301</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25" s="1">
         <v>8.9332103729248047</v>
@@ -4419,7 +4421,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="8"/>
       <c r="O25" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P25" s="8"/>
     </row>
@@ -4440,7 +4442,7 @@
         <v>103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1">
         <v>8.9838895797729492</v>
@@ -4463,7 +4465,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="8"/>
       <c r="O26" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P26" s="8"/>
     </row>
@@ -4484,7 +4486,7 @@
         <v>103</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1">
         <v>8.9838895797729492</v>
@@ -4507,7 +4509,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="8"/>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P27" s="8"/>
     </row>
@@ -4528,7 +4530,7 @@
         <v>103</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" s="1">
         <v>8.9838895797729492</v>
@@ -4551,7 +4553,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="8"/>
       <c r="O28" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P28" s="8"/>
     </row>
@@ -4572,7 +4574,7 @@
         <v>103</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1">
         <v>8.9838895797729492</v>
@@ -4595,7 +4597,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="8"/>
       <c r="O29" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P29" s="8"/>
     </row>
@@ -4616,7 +4618,7 @@
         <v>103</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" s="1">
         <v>8.9838895797729492</v>
@@ -4639,7 +4641,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="8"/>
       <c r="O30" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P30" s="8"/>
     </row>
@@ -6447,7 +6449,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="8"/>
       <c r="O73" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P73" s="8"/>
     </row>
@@ -6491,7 +6493,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="8"/>
       <c r="O74" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P74" s="8"/>
     </row>
@@ -6535,7 +6537,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="8"/>
       <c r="O75" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P75" s="8"/>
     </row>
@@ -6579,7 +6581,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="8"/>
       <c r="O76" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P76" s="8"/>
     </row>
@@ -6623,7 +6625,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="8"/>
       <c r="O77" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P77" s="8"/>
     </row>
@@ -6667,7 +6669,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="8"/>
       <c r="O78" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P78" s="8"/>
     </row>
@@ -6711,7 +6713,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="8"/>
       <c r="O79" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P79" s="8"/>
     </row>
@@ -6755,7 +6757,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="8"/>
       <c r="O80" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P80" s="8"/>
     </row>
@@ -6799,7 +6801,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="8"/>
       <c r="O81" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P81" s="8"/>
     </row>
@@ -6843,7 +6845,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="8"/>
       <c r="O82" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P82" s="8"/>
     </row>
@@ -6887,7 +6889,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="8"/>
       <c r="O83" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P83" s="8"/>
     </row>
@@ -6931,7 +6933,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="8"/>
       <c r="O84" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P84" s="8"/>
     </row>
@@ -6975,7 +6977,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="8"/>
       <c r="O85" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P85" s="8"/>
     </row>
@@ -7019,7 +7021,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="8"/>
       <c r="O86" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P86" s="8"/>
     </row>
@@ -7063,7 +7065,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="8"/>
       <c r="O87" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P87" s="8"/>
     </row>
@@ -7107,7 +7109,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="8"/>
       <c r="O88" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P88" s="8"/>
     </row>
@@ -7151,7 +7153,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="8"/>
       <c r="O89" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P89" s="8"/>
     </row>
@@ -7195,7 +7197,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="8"/>
       <c r="O90" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P90" s="8"/>
     </row>
@@ -7239,7 +7241,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="8"/>
       <c r="O91" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P91" s="8"/>
     </row>
@@ -7283,7 +7285,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="8"/>
       <c r="O92" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P92" s="8"/>
     </row>
@@ -7327,7 +7329,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="8"/>
       <c r="O93" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P93" s="8"/>
     </row>
@@ -7371,7 +7373,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="8"/>
       <c r="O94" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P94" s="8"/>
     </row>
@@ -7415,7 +7417,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="8"/>
       <c r="O95" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P95" s="8"/>
     </row>
@@ -7459,7 +7461,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="8"/>
       <c r="O96" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P96" s="8"/>
     </row>
@@ -7503,7 +7505,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="8"/>
       <c r="O97" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P97" s="8"/>
     </row>
@@ -7547,7 +7549,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="8"/>
       <c r="O98" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P98" s="8"/>
     </row>
@@ -7591,7 +7593,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="8"/>
       <c r="O99" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P99" s="8"/>
     </row>
@@ -7635,7 +7637,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="8"/>
       <c r="O100" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P100" s="8"/>
     </row>
@@ -7679,7 +7681,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="8"/>
       <c r="O101" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P101" s="8"/>
     </row>
@@ -7723,7 +7725,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="8"/>
       <c r="O102" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P102" s="8"/>
     </row>
@@ -7767,7 +7769,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="8"/>
       <c r="O103" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P103" s="8"/>
     </row>
@@ -7811,7 +7813,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="8"/>
       <c r="O104" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P104" s="8"/>
     </row>
@@ -7855,7 +7857,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="8"/>
       <c r="O105" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P105" s="8"/>
     </row>
@@ -7899,7 +7901,7 @@
       <c r="M106" s="7"/>
       <c r="N106" s="8"/>
       <c r="O106" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P106" s="8"/>
     </row>
@@ -7943,7 +7945,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="8"/>
       <c r="O107" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P107" s="8"/>
     </row>
@@ -7987,7 +7989,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="8"/>
       <c r="O108" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P108" s="8"/>
     </row>
@@ -8031,7 +8033,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="8"/>
       <c r="O109" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P109" s="8"/>
     </row>
@@ -8075,7 +8077,7 @@
       <c r="M110" s="7"/>
       <c r="N110" s="8"/>
       <c r="O110" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P110" s="8"/>
     </row>
@@ -8119,7 +8121,7 @@
       <c r="M111" s="7"/>
       <c r="N111" s="8"/>
       <c r="O111" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P111" s="8"/>
     </row>
@@ -8163,7 +8165,7 @@
       <c r="M112" s="7"/>
       <c r="N112" s="8"/>
       <c r="O112" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P112" s="8"/>
     </row>
@@ -15660,7 +15662,7 @@
         <v>702</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G291" s="1">
         <v>7.6422300338745117</v>
@@ -15702,7 +15704,7 @@
         <v>702</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G292" s="1">
         <v>7.6422300338745117</v>
@@ -15744,7 +15746,7 @@
         <v>702</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G293" s="1">
         <v>7.6422300338745117</v>
@@ -15786,7 +15788,7 @@
         <v>702</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G294" s="1">
         <v>7.6422300338745117</v>
@@ -15828,7 +15830,7 @@
         <v>702</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G295" s="1">
         <v>7.6422300338745117</v>
@@ -15870,7 +15872,7 @@
         <v>702</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G296" s="1">
         <v>7.6422300338745117</v>
@@ -15912,7 +15914,7 @@
         <v>702</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G297" s="1">
         <v>7.6422300338745117</v>
@@ -15954,7 +15956,7 @@
         <v>702</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G298" s="1">
         <v>7.6422300338745117</v>
@@ -15996,7 +15998,7 @@
         <v>702</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G299" s="1">
         <v>7.6422300338745117</v>
@@ -16038,7 +16040,7 @@
         <v>702</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G300" s="1">
         <v>7.6422300338745117</v>
@@ -16080,7 +16082,7 @@
         <v>702</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G301" s="1">
         <v>7.6422300338745117</v>
@@ -16122,7 +16124,7 @@
         <v>702</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G302" s="1">
         <v>7.6422300338745117</v>
@@ -16164,7 +16166,7 @@
         <v>702</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G303" s="1">
         <v>7.6422300338745117</v>
@@ -16206,7 +16208,7 @@
         <v>702</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G304" s="1">
         <v>7.6422300338745117</v>
@@ -16248,7 +16250,7 @@
         <v>702</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G305" s="1">
         <v>7.6422300338745117</v>
@@ -16290,7 +16292,7 @@
         <v>702</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G306" s="1">
         <v>7.6422300338745117</v>
@@ -16332,7 +16334,7 @@
         <v>702</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G307" s="1">
         <v>7.6422300338745117</v>
@@ -16374,7 +16376,7 @@
         <v>702</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G308" s="1">
         <v>7.6422300338745117</v>
@@ -16416,7 +16418,7 @@
         <v>702</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G309" s="1">
         <v>7.6422300338745117</v>
@@ -16458,7 +16460,7 @@
         <v>702</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G310" s="1">
         <v>7.6422300338745117</v>
@@ -16500,7 +16502,7 @@
         <v>702</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G311" s="1">
         <v>7.6422300338745117</v>
@@ -16542,7 +16544,7 @@
         <v>702</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G312" s="1">
         <v>7.6422300338745117</v>
@@ -16584,7 +16586,7 @@
         <v>702</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G313" s="1">
         <v>7.6422300338745117</v>
@@ -16626,7 +16628,7 @@
         <v>702</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G314" s="1">
         <v>7.6422300338745117</v>
@@ -18621,13 +18623,13 @@
         <v>-78.925697326660156</v>
       </c>
       <c r="M361" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N361" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O361" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P361" s="8"/>
     </row>
@@ -18669,13 +18671,13 @@
         <v>-78.871299743652344</v>
       </c>
       <c r="M362" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N362" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O362" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P362" s="8"/>
     </row>
@@ -18717,13 +18719,13 @@
         <v>-78.91729736328125</v>
       </c>
       <c r="M363" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N363" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O363" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P363" s="8"/>
     </row>
@@ -18765,13 +18767,13 @@
         <v>-78.93609619140625</v>
       </c>
       <c r="M364" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N364" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O364" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P364" s="8"/>
     </row>
@@ -18813,13 +18815,13 @@
         <v>-79.109397888183594</v>
       </c>
       <c r="M365" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N365" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O365" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P365" s="8"/>
     </row>
@@ -18861,13 +18863,13 @@
         <v>-79.045097351074219</v>
       </c>
       <c r="M366" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N366" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O366" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P366" s="8"/>
     </row>
@@ -18909,13 +18911,13 @@
         <v>-79.077102661132813</v>
       </c>
       <c r="M367" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N367" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O367" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P367" s="8"/>
     </row>
@@ -18957,13 +18959,13 @@
         <v>-78.830001831054688</v>
       </c>
       <c r="M368" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N368" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O368" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P368" s="8"/>
     </row>
@@ -19005,13 +19007,13 @@
         <v>-78.898300170898438</v>
       </c>
       <c r="M369" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N369" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O369" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P369" s="8"/>
     </row>
@@ -19053,13 +19055,13 @@
         <v>-78.831497192382813</v>
       </c>
       <c r="M370" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N370" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O370" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P370" s="8"/>
     </row>
@@ -19101,13 +19103,13 @@
         <v>-79.136802673339844</v>
       </c>
       <c r="M371" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N371" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O371" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P371" s="8"/>
     </row>
@@ -19149,13 +19151,13 @@
         <v>-79.129302978515625</v>
       </c>
       <c r="M372" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N372" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O372" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P372" s="8"/>
     </row>
@@ -19197,13 +19199,13 @@
         <v>-78.991500854492188</v>
       </c>
       <c r="M373" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N373" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O373" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P373" s="8"/>
     </row>
@@ -19245,13 +19247,13 @@
         <v>-78.422698974609375</v>
       </c>
       <c r="M374" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N374" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O374" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P374" s="8"/>
     </row>
@@ -19293,13 +19295,13 @@
         <v>-78.674896240234375</v>
       </c>
       <c r="M375" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N375" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O375" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P375" s="8"/>
     </row>
@@ -19341,13 +19343,13 @@
         <v>-78.501899719238281</v>
       </c>
       <c r="M376" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N376" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O376" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P376" s="8"/>
     </row>
@@ -19389,13 +19391,13 @@
         <v>-78.560203552246094</v>
       </c>
       <c r="M377" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N377" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O377" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P377" s="8"/>
     </row>
@@ -19437,13 +19439,13 @@
         <v>-78.500999450683594</v>
       </c>
       <c r="M378" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N378" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O378" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P378" s="8"/>
     </row>
@@ -19485,13 +19487,13 @@
         <v>-78.441703796386719</v>
       </c>
       <c r="M379" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N379" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O379" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P379" s="8"/>
     </row>
@@ -19533,13 +19535,13 @@
         <v>-78.825798034667969</v>
       </c>
       <c r="M380" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N380" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O380" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P380" s="8"/>
     </row>
@@ -19581,13 +19583,13 @@
         <v>-78.683799743652344</v>
       </c>
       <c r="M381" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N381" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O381" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P381" s="8"/>
     </row>
@@ -19629,13 +19631,13 @@
         <v>-78.510498046875</v>
       </c>
       <c r="M382" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N382" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O382" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P382" s="8"/>
     </row>
@@ -19677,13 +19679,13 @@
         <v>-79.535301208496094</v>
       </c>
       <c r="M383" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N383" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O383" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P383" s="8"/>
     </row>
@@ -19725,13 +19727,13 @@
         <v>-79.544502258300781</v>
       </c>
       <c r="M384" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N384" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O384" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P384" s="8"/>
     </row>
@@ -19773,13 +19775,13 @@
         <v>-79.541297912597656</v>
       </c>
       <c r="M385" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N385" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O385" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P385" s="8"/>
     </row>
@@ -19821,13 +19823,13 @@
         <v>-79.535896301269531</v>
       </c>
       <c r="M386" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N386" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O386" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P386" s="8"/>
     </row>
@@ -19869,13 +19871,13 @@
         <v>-79.539398193359375</v>
       </c>
       <c r="M387" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N387" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O387" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P387" s="8"/>
     </row>
@@ -19917,13 +19919,13 @@
         <v>-79.527801513671875</v>
       </c>
       <c r="M388" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N388" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O388" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P388" s="8"/>
     </row>
@@ -19965,13 +19967,13 @@
         <v>-79.525299072265625</v>
       </c>
       <c r="M389" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N389" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O389" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P389" s="8"/>
     </row>
@@ -20013,13 +20015,13 @@
         <v>-79.513801574707031</v>
       </c>
       <c r="M390" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N390" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O390" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P390" s="8"/>
     </row>
@@ -20061,13 +20063,13 @@
         <v>-79.507896423339844</v>
       </c>
       <c r="M391" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N391" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O391" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P391" s="8"/>
     </row>
@@ -20109,13 +20111,13 @@
         <v>-79.485603332519531</v>
       </c>
       <c r="M392" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N392" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O392" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P392" s="8"/>
     </row>
@@ -20157,13 +20159,13 @@
         <v>-79.493598937988281</v>
       </c>
       <c r="M393" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N393" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O393" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P393" s="8"/>
     </row>
@@ -20205,13 +20207,13 @@
         <v>-79.452102661132813</v>
       </c>
       <c r="M394" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N394" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O394" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P394" s="8"/>
     </row>
@@ -20253,13 +20255,13 @@
         <v>-79.437797546386719</v>
       </c>
       <c r="M395" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N395" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O395" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P395" s="8"/>
     </row>
@@ -20301,13 +20303,13 @@
         <v>-79.571502685546875</v>
       </c>
       <c r="M396" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N396" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O396" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P396" s="8"/>
     </row>
@@ -20349,13 +20351,13 @@
         <v>-79.442001342773438</v>
       </c>
       <c r="M397" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N397" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O397" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P397" s="8"/>
     </row>
@@ -20397,13 +20399,13 @@
         <v>-79.602699279785156</v>
       </c>
       <c r="M398" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N398" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O398" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P398" s="8"/>
     </row>
@@ -20445,13 +20447,13 @@
         <v>-79.55419921875</v>
       </c>
       <c r="M399" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N399" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O399" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P399" s="8"/>
     </row>
@@ -20493,13 +20495,13 @@
         <v>-79.218803405761719</v>
       </c>
       <c r="M400" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N400" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O400" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P400" s="8"/>
     </row>
@@ -20541,13 +20543,13 @@
         <v>-79.329200744628906</v>
       </c>
       <c r="M401" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N401" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O401" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P401" s="8"/>
     </row>
@@ -20589,13 +20591,13 @@
         <v>-79.252998352050781</v>
       </c>
       <c r="M402" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N402" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O402" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P402" s="8"/>
     </row>
@@ -20637,13 +20639,13 @@
         <v>-79.400001525878906</v>
       </c>
       <c r="M403" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N403" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O403" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P403" s="8"/>
     </row>
@@ -20685,13 +20687,13 @@
         <v>-79.417999267578125</v>
       </c>
       <c r="M404" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N404" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O404" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P404" s="8"/>
     </row>
@@ -20733,13 +20735,13 @@
         <v>-79.382003784179688</v>
       </c>
       <c r="M405" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N405" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O405" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P405" s="8"/>
     </row>
@@ -20781,13 +20783,13 @@
         <v>-79.510597229003906</v>
       </c>
       <c r="M406" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N406" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O406" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P406" s="8"/>
     </row>
@@ -20829,13 +20831,13 @@
         <v>-79.4927978515625</v>
       </c>
       <c r="M407" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N407" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O407" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P407" s="8"/>
     </row>
@@ -20877,13 +20879,13 @@
         <v>-79.635597229003906</v>
       </c>
       <c r="M408" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N408" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O408" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P408" s="8"/>
     </row>
@@ -20925,13 +20927,13 @@
         <v>-79.607597351074219</v>
       </c>
       <c r="M409" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N409" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O409" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P409" s="8"/>
     </row>
@@ -20973,13 +20975,13 @@
         <v>-79.514198303222656</v>
       </c>
       <c r="M410" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N410" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O410" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P410" s="8"/>
     </row>
@@ -21021,13 +21023,13 @@
         <v>-79.4989013671875</v>
       </c>
       <c r="M411" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N411" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O411" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P411" s="8"/>
     </row>
@@ -21069,13 +21071,13 @@
         <v>-79.478302001953125</v>
       </c>
       <c r="M412" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N412" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O412" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P412" s="8"/>
     </row>
@@ -21117,13 +21119,13 @@
         <v>-79.496200561523438</v>
       </c>
       <c r="M413" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N413" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O413" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P413" s="8"/>
     </row>
@@ -21165,13 +21167,13 @@
         <v>-79.505996704101563</v>
       </c>
       <c r="M414" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N414" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O414" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P414" s="8"/>
     </row>
@@ -21213,13 +21215,13 @@
         <v>-79.482002258300781</v>
       </c>
       <c r="M415" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N415" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O415" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P415" s="8"/>
     </row>
@@ -21261,13 +21263,13 @@
         <v>-79.490699768066406</v>
       </c>
       <c r="M416" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N416" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O416" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P416" s="8"/>
     </row>
@@ -21309,13 +21311,13 @@
         <v>-79.52130126953125</v>
       </c>
       <c r="M417" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N417" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O417" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P417" s="8"/>
     </row>
@@ -21357,13 +21359,13 @@
         <v>-79.457603454589844</v>
       </c>
       <c r="M418" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N418" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O418" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P418" s="8"/>
     </row>
@@ -21405,13 +21407,13 @@
         <v>-79.549201965332031</v>
       </c>
       <c r="M419" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N419" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O419" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P419" s="8"/>
     </row>
@@ -21453,13 +21455,13 @@
         <v>-79.605697631835938</v>
       </c>
       <c r="M420" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N420" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O420" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P420" s="8"/>
     </row>
@@ -21501,13 +21503,13 @@
         <v>-79.594100952148438</v>
       </c>
       <c r="M421" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N421" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O421" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P421" s="8"/>
     </row>
@@ -28901,7 +28903,7 @@
       <c r="M597" s="7"/>
       <c r="N597" s="8"/>
       <c r="O597" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P597" s="8"/>
     </row>
@@ -28945,7 +28947,7 @@
       <c r="M598" s="7"/>
       <c r="N598" s="8"/>
       <c r="O598" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P598" s="8"/>
     </row>
@@ -28989,7 +28991,7 @@
       <c r="M599" s="7"/>
       <c r="N599" s="8"/>
       <c r="O599" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P599" s="8"/>
     </row>
@@ -29033,7 +29035,7 @@
       <c r="M600" s="7"/>
       <c r="N600" s="8"/>
       <c r="O600" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P600" s="8"/>
     </row>
@@ -30083,13 +30085,13 @@
         <v>-79.418296813964844</v>
       </c>
       <c r="M625" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N625" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O625" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P625" s="8"/>
     </row>
@@ -31265,13 +31267,13 @@
         <v>-79.581001281738281</v>
       </c>
       <c r="M653" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N653" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O653" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P653" s="8"/>
     </row>
@@ -31313,13 +31315,13 @@
         <v>-79.625297546386719</v>
       </c>
       <c r="M654" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N654" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O654" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P654" s="8"/>
     </row>
@@ -31361,13 +31363,13 @@
         <v>-79.732101440429688</v>
       </c>
       <c r="M655" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N655" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O655" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P655" s="8"/>
     </row>
@@ -31409,13 +31411,13 @@
         <v>-79.714302062988281</v>
       </c>
       <c r="M656" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N656" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O656" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P656" s="8"/>
     </row>
@@ -31457,13 +31459,13 @@
         <v>-79.712501525878906</v>
       </c>
       <c r="M657" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N657" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O657" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P657" s="8"/>
     </row>
@@ -31505,13 +31507,13 @@
         <v>-79.758499145507813</v>
       </c>
       <c r="M658" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N658" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O658" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P658" s="8"/>
     </row>
@@ -31553,13 +31555,13 @@
         <v>-79.786201477050781</v>
       </c>
       <c r="M659" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N659" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O659" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P659" s="8"/>
     </row>
@@ -31601,13 +31603,13 @@
         <v>-79.603302001953125</v>
       </c>
       <c r="M660" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N660" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O660" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P660" s="8"/>
     </row>
@@ -31649,13 +31651,13 @@
         <v>-79.691200256347656</v>
       </c>
       <c r="M661" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N661" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O661" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P661" s="8"/>
     </row>
@@ -31697,13 +31699,13 @@
         <v>-79.627899169921875</v>
       </c>
       <c r="M662" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N662" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O662" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P662" s="8"/>
     </row>
@@ -31745,13 +31747,13 @@
         <v>-79.665397644042969</v>
       </c>
       <c r="M663" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N663" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O663" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P663" s="8"/>
     </row>
@@ -31793,13 +31795,13 @@
         <v>-79.680496215820313</v>
       </c>
       <c r="M664" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N664" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O664" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P664" s="8"/>
     </row>
@@ -31841,13 +31843,13 @@
         <v>-79.843696594238281</v>
       </c>
       <c r="M665" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N665" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O665" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P665" s="8"/>
     </row>
@@ -31889,13 +31891,13 @@
         <v>-79.963798522949219</v>
       </c>
       <c r="M666" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N666" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O666" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P666" s="8"/>
     </row>
@@ -31937,13 +31939,13 @@
         <v>-79.871101379394531</v>
       </c>
       <c r="M667" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N667" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O667" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P667" s="8"/>
     </row>
@@ -31985,13 +31987,13 @@
         <v>-79.932403564453125</v>
       </c>
       <c r="M668" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N668" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O668" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P668" s="8"/>
     </row>
@@ -32033,13 +32035,13 @@
         <v>-80.102798461914063</v>
       </c>
       <c r="M669" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N669" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O669" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P669" s="8"/>
     </row>
@@ -32081,13 +32083,13 @@
         <v>-80.090301513671875</v>
       </c>
       <c r="M670" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N670" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O670" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P670" s="8"/>
     </row>
@@ -32129,13 +32131,13 @@
         <v>-80.025596618652344</v>
       </c>
       <c r="M671" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N671" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O671" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P671" s="8"/>
     </row>
@@ -32177,13 +32179,13 @@
         <v>-80.013496398925781</v>
       </c>
       <c r="M672" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N672" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O672" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P672" s="8"/>
     </row>
@@ -32225,13 +32227,13 @@
         <v>-79.905601501464844</v>
       </c>
       <c r="M673" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N673" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O673" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P673" s="8"/>
     </row>
@@ -32273,13 +32275,13 @@
         <v>-79.868896484375</v>
       </c>
       <c r="M674" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N674" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O674" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P674" s="8"/>
     </row>
@@ -32321,13 +32323,13 @@
         <v>-79.862998962402344</v>
       </c>
       <c r="M675" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N675" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O675" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P675" s="8"/>
     </row>
@@ -32369,13 +32371,13 @@
         <v>-80.111801147460938</v>
       </c>
       <c r="M676" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N676" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O676" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P676" s="8"/>
     </row>
@@ -32417,13 +32419,13 @@
         <v>-79.797798156738281</v>
       </c>
       <c r="M677" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N677" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O677" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P677" s="8"/>
     </row>
@@ -32465,13 +32467,13 @@
         <v>-79.849998474121094</v>
       </c>
       <c r="M678" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N678" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O678" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P678" s="8"/>
     </row>
@@ -32513,13 +32515,13 @@
         <v>-79.888397216796875</v>
       </c>
       <c r="M679" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N679" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O679" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P679" s="8"/>
     </row>
@@ -32561,13 +32563,13 @@
         <v>-79.950599670410156</v>
       </c>
       <c r="M680" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N680" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O680" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P680" s="8"/>
     </row>
@@ -32609,13 +32611,13 @@
         <v>-79.955902099609375</v>
       </c>
       <c r="M681" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N681" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O681" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P681" s="8"/>
     </row>
@@ -32657,13 +32659,13 @@
         <v>-79.942596435546875</v>
       </c>
       <c r="M682" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N682" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O682" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P682" s="8"/>
     </row>
@@ -32705,13 +32707,13 @@
         <v>-79.809700012207031</v>
       </c>
       <c r="M683" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N683" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O683" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P683" s="8"/>
     </row>
@@ -32753,13 +32755,13 @@
         <v>-79.91290283203125</v>
       </c>
       <c r="M684" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N684" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O684" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P684" s="8"/>
     </row>
@@ -32801,13 +32803,13 @@
         <v>-79.87860107421875</v>
       </c>
       <c r="M685" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N685" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O685" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P685" s="8"/>
     </row>
@@ -32849,13 +32851,13 @@
         <v>-79.758903503417969</v>
       </c>
       <c r="M686" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N686" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O686" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P686" s="8"/>
     </row>
@@ -32897,13 +32899,13 @@
         <v>-79.875900268554688</v>
       </c>
       <c r="M687" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N687" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O687" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P687" s="8"/>
     </row>
@@ -32945,13 +32947,13 @@
         <v>-80.010101318359375</v>
       </c>
       <c r="M688" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N688" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O688" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P688" s="8"/>
     </row>
@@ -32993,13 +32995,13 @@
         <v>-79.790901184082031</v>
       </c>
       <c r="M689" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N689" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O689" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P689" s="8"/>
     </row>
@@ -33041,13 +33043,13 @@
         <v>-79.765098571777344</v>
       </c>
       <c r="M690" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N690" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O690" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P690" s="8"/>
     </row>
@@ -33089,13 +33091,13 @@
         <v>-79.888198852539063</v>
       </c>
       <c r="M691" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N691" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O691" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P691" s="8"/>
     </row>
@@ -33137,13 +33139,13 @@
         <v>-79.895301818847656</v>
       </c>
       <c r="M692" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N692" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O692" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P692" s="8"/>
     </row>
@@ -33185,13 +33187,13 @@
         <v>-79.957099914550781</v>
       </c>
       <c r="M693" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N693" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O693" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P693" s="8"/>
     </row>
@@ -33233,13 +33235,13 @@
         <v>-79.964401245117188</v>
       </c>
       <c r="M694" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N694" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O694" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P694" s="8"/>
     </row>
@@ -33281,13 +33283,13 @@
         <v>-79.781501770019531</v>
       </c>
       <c r="M695" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N695" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O695" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P695" s="8"/>
     </row>
@@ -33329,13 +33331,13 @@
         <v>-79.804801940917969</v>
       </c>
       <c r="M696" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N696" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O696" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P696" s="8"/>
     </row>
@@ -33377,13 +33379,13 @@
         <v>-79.823799133300781</v>
       </c>
       <c r="M697" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N697" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O697" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P697" s="8"/>
     </row>
@@ -33425,13 +33427,13 @@
         <v>-79.869003295898438</v>
       </c>
       <c r="M698" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N698" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O698" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P698" s="8"/>
     </row>
@@ -33473,13 +33475,13 @@
         <v>-79.827598571777344</v>
       </c>
       <c r="M699" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N699" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O699" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P699" s="8"/>
     </row>
@@ -33521,13 +33523,13 @@
         <v>-79.840896606445313</v>
       </c>
       <c r="M700" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N700" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O700" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P700" s="8"/>
     </row>
@@ -33569,13 +33571,13 @@
         <v>-79.891098022460938</v>
       </c>
       <c r="M701" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N701" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O701" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P701" s="8"/>
     </row>
@@ -33617,13 +33619,13 @@
         <v>-79.9302978515625</v>
       </c>
       <c r="M702" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N702" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O702" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P702" s="8"/>
     </row>
@@ -33665,13 +33667,13 @@
         <v>-79.958396911621094</v>
       </c>
       <c r="M703" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N703" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O703" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P703" s="8"/>
     </row>
@@ -33713,13 +33715,13 @@
         <v>-79.815399169921875</v>
       </c>
       <c r="M704" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N704" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O704" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P704" s="8"/>
     </row>
@@ -33761,13 +33763,13 @@
         <v>-79.830596923828125</v>
       </c>
       <c r="M705" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N705" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O705" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P705" s="8"/>
     </row>
@@ -33809,13 +33811,13 @@
         <v>-79.922599792480469</v>
       </c>
       <c r="M706" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N706" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O706" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P706" s="8"/>
     </row>
@@ -33857,13 +33859,13 @@
         <v>-79.8551025390625</v>
       </c>
       <c r="M707" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N707" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O707" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P707" s="8"/>
     </row>
@@ -33905,13 +33907,13 @@
         <v>-79.839500427246094</v>
       </c>
       <c r="M708" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N708" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O708" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P708" s="8"/>
     </row>
@@ -33953,13 +33955,13 @@
         <v>-79.961097717285156</v>
       </c>
       <c r="M709" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N709" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O709" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P709" s="8"/>
     </row>
@@ -34001,13 +34003,13 @@
         <v>-79.789299011230469</v>
       </c>
       <c r="M710" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N710" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O710" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P710" s="8"/>
     </row>
@@ -34049,13 +34051,13 @@
         <v>-79.737701416015625</v>
       </c>
       <c r="M711" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N711" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O711" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P711" s="8"/>
     </row>
@@ -34097,13 +34099,13 @@
         <v>-79.902099609375</v>
       </c>
       <c r="M712" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N712" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O712" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P712" s="8"/>
     </row>
@@ -34145,13 +34147,13 @@
         <v>-79.962799072265625</v>
       </c>
       <c r="M713" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N713" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O713" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P713" s="8"/>
     </row>
@@ -34193,13 +34195,13 @@
         <v>-80.023902893066406</v>
       </c>
       <c r="M714" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N714" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O714" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P714" s="8"/>
     </row>
@@ -34241,13 +34243,13 @@
         <v>-80.040000915527344</v>
       </c>
       <c r="M715" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N715" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O715" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P715" s="8"/>
     </row>
@@ -34289,13 +34291,13 @@
         <v>-80.000198364257813</v>
       </c>
       <c r="M716" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N716" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O716" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P716" s="8"/>
     </row>
@@ -34337,13 +34339,13 @@
         <v>-80.071998596191406</v>
       </c>
       <c r="M717" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N717" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O717" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P717" s="8"/>
     </row>
@@ -34385,13 +34387,13 @@
         <v>-80.043403625488281</v>
       </c>
       <c r="M718" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N718" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O718" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P718" s="8"/>
     </row>
@@ -34433,13 +34435,13 @@
         <v>-79.994499206542969</v>
       </c>
       <c r="M719" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N719" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O719" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P719" s="8"/>
     </row>
@@ -34481,13 +34483,13 @@
         <v>-80.0791015625</v>
       </c>
       <c r="M720" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N720" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O720" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P720" s="8"/>
     </row>
@@ -34529,13 +34531,13 @@
         <v>-79.942497253417969</v>
       </c>
       <c r="M721" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N721" s="8" t="s">
         <v>379</v>
       </c>
       <c r="O721" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P721" s="8"/>
     </row>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23014"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0F427CA-26DC-49B4-8F9F-5502D9C6C9C6}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EDDC2D40-76DF-404E-9840-BA0B65611C14}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="773">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -2501,7 +2501,7 @@
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2860,6 +2860,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3719,8 +3729,8 @@
   <dimension ref="A10:P721"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="F17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O722" sqref="O722"/>
+      <pane ySplit="10" topLeftCell="H228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N725" sqref="N725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -13038,7 +13048,9 @@
       </c>
       <c r="M228" s="7"/>
       <c r="N228" s="8"/>
-      <c r="O228" s="7"/>
+      <c r="O228" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="P228" s="8"/>
     </row>
     <row r="229" spans="1:16" ht="15.75">
@@ -13164,7 +13176,9 @@
       </c>
       <c r="M231" s="7"/>
       <c r="N231" s="8"/>
-      <c r="O231" s="7"/>
+      <c r="O231" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="P231" s="8"/>
     </row>
     <row r="232" spans="1:16" ht="15.75">
@@ -29498,7 +29512,9 @@
       </c>
       <c r="M611" s="7"/>
       <c r="N611" s="8"/>
-      <c r="O611" s="7"/>
+      <c r="O611" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="P611" s="8"/>
     </row>
     <row r="612" spans="1:16" ht="15.75">
@@ -34544,26 +34560,31 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="O143:O351 M11:M721 O12:O141">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O597:O600">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O653:O721">
     <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O653:O721">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+  <conditionalFormatting sqref="O625 O361:O421">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O625 O361:O421">
+  <conditionalFormatting sqref="O611">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"SI"</formula>
     </cfRule>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23129"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="454" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EDDC2D40-76DF-404E-9840-BA0B65611C14}"/>
+  <xr:revisionPtr revIDLastSave="496" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D6BB875-C54F-4620-8D05-A08D62458335}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCALIZACION" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="SegmentaciónDeDatos_Distrito">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Provincia">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="782">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -2231,9 +2231,6 @@
     <t>http://www.minsa.gob.pa/noticia/comunicado-no-95</t>
   </si>
   <si>
-    <t>25/05/2020</t>
-  </si>
-  <si>
     <t>Entrega información general sobre COVID-19 y cuarentena.</t>
   </si>
   <si>
@@ -2255,9 +2252,6 @@
     <t>https://www.prensa.com/impresa/economia/plan-de-reapertura-genera-inquietud/</t>
   </si>
   <si>
-    <t>13/05/2020</t>
-  </si>
-  <si>
     <t>Entrega esquema de reapertura gradual por bloques económicos.</t>
   </si>
   <si>
@@ -2270,9 +2264,6 @@
     <t>https://www.laestrella.com.pa/nacional/200527/panama-entrara-segunda-fase-reapertura</t>
   </si>
   <si>
-    <t>27/05/2020</t>
-  </si>
-  <si>
     <t>Entrega información actualizada sobre reapertura gradual por bloques económicos.</t>
   </si>
   <si>
@@ -2285,9 +2276,6 @@
     <t>https://mici.gob.pa/noticias/gobierno-continua-con-el-plan-de-reactivacion-de-empleos-y-actividades-comerciales-con-apertura-de-bloque-2</t>
   </si>
   <si>
-    <t>30/05/2020</t>
-  </si>
-  <si>
     <t>Entrega información sobre reapertura gradual del comercio.</t>
   </si>
   <si>
@@ -2330,9 +2318,6 @@
     <t>https://www.laestrella.com.pa/nacional/200320/cerco-sanitario-encierra-tres-provincias</t>
   </si>
   <si>
-    <t>20/3/2020</t>
-  </si>
-  <si>
     <t>Se decreta cerco sanitario para las provincias de Panamá, Panamá Oeste y Colón.</t>
   </si>
   <si>
@@ -2373,12 +2358,57 @@
   </si>
   <si>
     <t xml:space="preserve">Distritos de Panamá y Panamá oeste retoman cuarentena el lunes 08/06/2020. </t>
+  </si>
+  <si>
+    <t>Panamá somete a 2.2 millones de personas a cuarentena absoluta por 58 horas</t>
+  </si>
+  <si>
+    <t>https://www.laestrella.com.pa/nacional/200717/panama-somete-2-2-millones-personas-cuarentena-absoluta-58-horas</t>
+  </si>
+  <si>
+    <t>El 71% de los casos de covid-19, el 78% de los pacientes en sala y el 72% de los pacientes en cuidados intensivos están en las provincias de Panamá y Panamá Oeste.</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>Panamá vuelve a imponer cuarentena total en fines de semana en las provincias más afectadas por el covid-19</t>
+  </si>
+  <si>
+    <t>https://cnnespanol.cnn.com/video/panama-coronavirus-retorno-cuarentena-fines-semana-pkg-elizabeth-gonzalez/</t>
+  </si>
+  <si>
+    <t>Panamá superó los 48.000 casos de covid-19 y registra 960 fallecimientos.</t>
+  </si>
+  <si>
+    <t>BBC</t>
+  </si>
+  <si>
+    <t>Coronavirus en Panamá: cómo se convirtió en el país de América Latina con más casos nuevos de covid-19 por número de habitantes</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/mundo/noticias-america-latina-53313897</t>
+  </si>
+  <si>
+    <t>Panamá es uno de los países que mayor número de casos de coronavirus ha reportado por millón de habitantes en la última semana y el primero, por mucho, de América Latina.</t>
+  </si>
+  <si>
+    <t>Panamá se mantiene como el segundo país con más casos covid-19 de la región</t>
+  </si>
+  <si>
+    <t>https://www.laestrella.com.pa/nacional/200731/panama-mantiene-segundo-pais-casos-covid-19-america-central-caribe</t>
+  </si>
+  <si>
+    <t>Con la nueva actualización, el país acumula 1,421 muertes —con una letalidad de 2.2%— y un total de 65,256 afectados.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -2467,7 +2497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2496,6 +2526,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2507,6 +2543,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3415,8 +3452,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F15" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F19" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EA6FFEBC-DF5B-4039-8DBA-5ADF7C795E14}" name="Fuente" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{B604F324-ACB1-4871-8569-DD6561328939}" name="Tipo Fuente" dataDxfId="4"/>
@@ -3728,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE435327-D82B-436B-B387-4B676AA50241}">
   <dimension ref="A10:P721"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="H228" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="N725" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N725" sqref="N725"/>
     </sheetView>
   </sheetViews>
@@ -34606,10 +34643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789927B8-B4AE-4E15-AA25-E1A61CBEA5D5}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -34655,8 +34692,8 @@
       <c r="D2" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="E2" s="11">
-        <v>43836</v>
+      <c r="E2" s="12">
+        <v>43983</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>720</v>
@@ -34675,11 +34712,11 @@
       <c r="D3" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12">
+        <v>43976</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>725</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75">
@@ -34690,236 +34727,316 @@
         <v>722</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="12">
+        <v>43983</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>728</v>
-      </c>
-      <c r="E4" s="11">
-        <v>43836</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
       <c r="A5" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>717</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="12">
+        <v>43964</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>732</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60">
       <c r="A6" s="9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>717</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="E6" s="12">
+        <v>43978</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>736</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>738</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75">
       <c r="A7" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>722</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>743</v>
+        <v>739</v>
+      </c>
+      <c r="E7" s="12">
+        <v>43981</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75">
       <c r="A8" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>722</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="E8" s="11">
-        <v>43836</v>
+        <v>742</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43983</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60">
       <c r="A9" s="9" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>717</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>738</v>
+        <v>746</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43978</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60">
       <c r="A10" s="9" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>717</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="E10" s="11">
-        <v>43896</v>
+        <v>750</v>
+      </c>
+      <c r="E10" s="12">
+        <v>43985</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60">
       <c r="A11" s="9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>717</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>758</v>
+        <v>753</v>
+      </c>
+      <c r="E11" s="12">
+        <v>43910</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="75">
       <c r="A12" s="9" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>717</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="E12" s="11">
-        <v>43866</v>
+        <v>756</v>
+      </c>
+      <c r="E12" s="12">
+        <v>43980</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="90">
       <c r="A13" s="9" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>717</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="E13" s="11">
-        <v>43867</v>
+        <v>759</v>
+      </c>
+      <c r="E13" s="12">
+        <v>43984</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="90">
       <c r="A14" s="9" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>717</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="E14" s="11">
-        <v>43927</v>
+        <v>762</v>
+      </c>
+      <c r="E14" s="12">
+        <v>43986</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60">
       <c r="A15" s="9" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>717</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="E15" s="12">
+        <v>43989</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="105">
+      <c r="A16" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="E16" s="13">
+        <v>44029</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="D15" s="10" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="E15" s="11">
-        <v>44018</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="B17" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>772</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="E17" s="13">
+        <v>44028</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="105">
+      <c r="A18" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="E18" s="13">
+        <v>44021</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75">
+      <c r="A19" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="E19" s="13">
+        <v>44043</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -34938,10 +35055,14 @@
     <hyperlink ref="D13" r:id="rId12" xr:uid="{4671A97F-6D25-4B73-953E-2BD6FE2DCC8E}"/>
     <hyperlink ref="D14" r:id="rId13" xr:uid="{E8061825-31EC-40E5-99F4-0F8C3C814951}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{F962DC84-71CF-4446-A314-42E434F71A22}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{59EEB8E4-E381-4452-8CBF-63C1B6A88A84}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{5759720B-948F-4DF8-A652-8E4C56F96F67}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{38A45CD3-66D2-41A0-8023-6BA880192DB2}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{AB837732-94C1-4291-AD68-5CCB24881638}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23211"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D6BB875-C54F-4620-8D05-A08D62458335}"/>
+  <xr:revisionPtr revIDLastSave="503" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD6418D2-4508-497F-B915-2DE1446D7AB6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCALIZACION" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="785">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -2400,6 +2400,15 @@
   </si>
   <si>
     <t>Con la nueva actualización, el país acumula 1,421 muertes —con una letalidad de 2.2%— y un total de 65,256 afectados.</t>
+  </si>
+  <si>
+    <t>Panamá y Centroamérica asolada tras cinco meses de cuarentena, la pandemia no cede</t>
+  </si>
+  <si>
+    <t>https://www.laestrella.com.pa/nacional/200813/panama-centroamerica-asolada-cinco-meses-cuarentena-pandemia-cede</t>
+  </si>
+  <si>
+    <t>Pese a las medidas de movilidad y sanitarias tomadas por los Gobiernos el covid-19 no frena su avance, siendo Panamá el peor de todos los escenarios en la región</t>
   </si>
 </sst>
 </file>
@@ -3452,8 +3461,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F19" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F20" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EA6FFEBC-DF5B-4039-8DBA-5ADF7C795E14}" name="Fuente" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{B604F324-ACB1-4871-8569-DD6561328939}" name="Tipo Fuente" dataDxfId="4"/>
@@ -34643,10 +34652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789927B8-B4AE-4E15-AA25-E1A61CBEA5D5}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -35037,6 +35046,26 @@
       </c>
       <c r="F19" s="11" t="s">
         <v>781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="105">
+      <c r="A20" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="E20" s="13">
+        <v>44056</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -35059,10 +35088,11 @@
     <hyperlink ref="D17" r:id="rId16" xr:uid="{5759720B-948F-4DF8-A652-8E4C56F96F67}"/>
     <hyperlink ref="D18" r:id="rId17" xr:uid="{38A45CD3-66D2-41A0-8023-6BA880192DB2}"/>
     <hyperlink ref="D19" r:id="rId18" xr:uid="{AB837732-94C1-4291-AD68-5CCB24881638}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{D21A9D35-5C99-4E0A-97F5-7E5471B3B7CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23216"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="503" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD6418D2-4508-497F-B915-2DE1446D7AB6}"/>
+  <xr:revisionPtr revIDLastSave="523" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{904B16F0-5B48-4C9A-B5B2-FE0EF201B4A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="791">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -2409,6 +2409,28 @@
   </si>
   <si>
     <t>Pese a las medidas de movilidad y sanitarias tomadas por los Gobiernos el covid-19 no frena su avance, siendo Panamá el peor de todos los escenarios en la región</t>
+  </si>
+  <si>
+    <t>A partir del 24 de agosto movilidad sin restricción de cédula en Panamá y Panamá Oeste.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MINSAPma/status/1295907125177323520</t>
+  </si>
+  <si>
+    <t>Desde el lunes 24 de agosto para Panamá y Panamá Oeste se autoriza salida según género de 5:00 a.m. a 7:00 p.m.
+Mujeres: lunes, miércoles y viernes.
+Hombres: martes, jueves y sábado.
+Toque de queda de 7:00 p.m. a 5:00 a.m.
+Domingos: cuarentena total hasta el lunes a las 5:00 a.m.</t>
+  </si>
+  <si>
+    <t>Gobierno de Panamá vuelve a flexibilizar las medidas de movilidad</t>
+  </si>
+  <si>
+    <t>https://www.laestrella.com.pa/nacional/200818/gobierno-panama-vuelve-flexibilizar-medidas-movilidad</t>
+  </si>
+  <si>
+    <t>A partir del lunes 24 de agosto se dará la apertura de las empresas de bienes y raíces a nivel nacional, así como las ventas y comercio al por mayor.</t>
   </si>
 </sst>
 </file>
@@ -2506,7 +2528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2541,6 +2563,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -3461,8 +3484,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F20" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F22" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EA6FFEBC-DF5B-4039-8DBA-5ADF7C795E14}" name="Fuente" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{B604F324-ACB1-4871-8569-DD6561328939}" name="Tipo Fuente" dataDxfId="4"/>
@@ -3775,8 +3798,8 @@
   <dimension ref="A10:P721"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="N725" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N725" sqref="N725"/>
+      <pane ySplit="10" topLeftCell="K688" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L689" sqref="L689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -34652,10 +34675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789927B8-B4AE-4E15-AA25-E1A61CBEA5D5}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -35066,6 +35089,46 @@
       </c>
       <c r="F20" s="11" t="s">
         <v>784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="195">
+      <c r="A21" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="E21" s="13">
+        <v>44061</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="90">
+      <c r="A22" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="E22" s="13">
+        <v>44061</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -35089,10 +35152,12 @@
     <hyperlink ref="D18" r:id="rId17" xr:uid="{38A45CD3-66D2-41A0-8023-6BA880192DB2}"/>
     <hyperlink ref="D19" r:id="rId18" xr:uid="{AB837732-94C1-4291-AD68-5CCB24881638}"/>
     <hyperlink ref="D20" r:id="rId19" xr:uid="{D21A9D35-5C99-4E0A-97F5-7E5471B3B7CB}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{9A12720B-251E-4C78-B497-CAC093DB4754}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{06B4A1FA-F4C6-4EBB-B7D8-939F7E17F75A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23219"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23223"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2CA4FBA9-7EC7-4C29-9788-AC2E9E57EA69}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78745A3F-93DC-493B-A98D-5C0E85DDFE7A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCALIZACION" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="798">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -2436,6 +2436,24 @@
   </si>
   <si>
     <t>A partir del lunes 24 de agosto se dará la apertura de las empresas de bienes y raíces a nivel nacional, así como las ventas y comercio al por mayor.</t>
+  </si>
+  <si>
+    <t>Nuevo plan de reapertura: en 3 semanas termina la movilidad por género; en un mes abren los restaurantes y en octubre, los hoteles.</t>
+  </si>
+  <si>
+    <t>https://www.prensa.com/sociedad/gabinete-aprueba-el-plan-de-reapertura-nacional-y-provincial/</t>
+  </si>
+  <si>
+    <t>Se establece que desde el 14 de septiembre, el toque de queda será de 11:00 p.m. a 5:00 a.m. de lunes a sábado.</t>
+  </si>
+  <si>
+    <t>Minsa entrega nuevo plan de reapertura (Hilo)</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MINSAPma/status/1298409139463479296</t>
+  </si>
+  <si>
+    <t>Detalla nuevo plan de reapertura y da información con respecto al levantamiento de la restricción de movilidad por género y toques de queda.</t>
   </si>
 </sst>
 </file>
@@ -3559,8 +3577,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F22" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F24" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EA6FFEBC-DF5B-4039-8DBA-5ADF7C795E14}" name="Fuente" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{B604F324-ACB1-4871-8569-DD6561328939}" name="Tipo Fuente" dataDxfId="4"/>
@@ -3872,8 +3890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE435327-D82B-436B-B387-4B676AA50241}">
   <dimension ref="A10:P721"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="E191" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N73" sqref="N73:N214"/>
     </sheetView>
   </sheetViews>
@@ -35095,10 +35113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789927B8-B4AE-4E15-AA25-E1A61CBEA5D5}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -35549,6 +35567,46 @@
       </c>
       <c r="F22" s="11" t="s">
         <v>791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75">
+      <c r="A23" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="E23" s="13">
+        <v>44068</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="90">
+      <c r="A24" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="E24" s="13">
+        <v>44068</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -35574,10 +35632,12 @@
     <hyperlink ref="D20" r:id="rId19" xr:uid="{D21A9D35-5C99-4E0A-97F5-7E5471B3B7CB}"/>
     <hyperlink ref="D21" r:id="rId20" xr:uid="{9A12720B-251E-4C78-B497-CAC093DB4754}"/>
     <hyperlink ref="D22" r:id="rId21" xr:uid="{06B4A1FA-F4C6-4EBB-B7D8-939F7E17F75A}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{C336E5FE-C63F-4912-9211-4B3D0E9ADABA}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{3767A7B8-7E58-4001-ABDE-7843AD67B5DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="569" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78745A3F-93DC-493B-A98D-5C0E85DDFE7A}"/>
+  <xr:revisionPtr revIDLastSave="573" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{355753BC-D8E9-4E44-968C-C5909EEAEA94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2429,7 +2429,7 @@
 Domingos: cuarentena total hasta el lunes a las 5:00 a.m.</t>
   </si>
   <si>
-    <t>Gobierno de Panamá vuelve a flexibilizar las medidas de movilidad</t>
+    <t>Gobierno de Panamá vuelve a flexibilizar las medidas de movilidad.</t>
   </si>
   <si>
     <t>https://www.laestrella.com.pa/nacional/200818/gobierno-panama-vuelve-flexibilizar-medidas-movilidad</t>
@@ -2447,7 +2447,7 @@
     <t>Se establece que desde el 14 de septiembre, el toque de queda será de 11:00 p.m. a 5:00 a.m. de lunes a sábado.</t>
   </si>
   <si>
-    <t>Minsa entrega nuevo plan de reapertura (Hilo)</t>
+    <t>MINSA entrega nuevo plan de reapertura (Hilo)</t>
   </si>
   <si>
     <t>https://twitter.com/MINSAPma/status/1298409139463479296</t>
@@ -35115,8 +35115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789927B8-B4AE-4E15-AA25-E1A61CBEA5D5}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -35549,7 +35549,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="90">
+    <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>734</v>
       </c>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8D57D0E9-5C4C-4BF7-BEEE-BFF19EEF5F08}"/>
+  <xr:revisionPtr revIDLastSave="597" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2157E29C-1E2A-4DEA-BA0C-DECB70173A28}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3583,7 +3583,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{440357D0-DB3D-4363-9078-4A4152144C7C}" name="CUARENTENA" displayName="CUARENTENA" ref="A10:P721" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="A10:P721" xr:uid="{7D8986B2-82D7-4C79-8B4E-BA728CF7C5D1}"/>
+  <autoFilter ref="A10:P721" xr:uid="{7D8986B2-82D7-4C79-8B4E-BA728CF7C5D1}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Chiriquí"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="16">
     <tableColumn id="2" xr3:uid="{A81063DF-699C-46F0-B07C-9502344C1751}" name="Id_Prov" dataDxfId="23"/>
     <tableColumn id="12" xr3:uid="{2F34804F-78E7-4962-9446-D721299DDD67}" name="Provincia" dataDxfId="22"/>
@@ -3921,8 +3927,8 @@
   <dimension ref="A10:P721"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N600" sqref="N600"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3993,7 +3999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75">
+    <row r="11" spans="1:16" ht="15.75" hidden="1">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -4037,7 +4043,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="50.25" customHeight="1">
+    <row r="12" spans="1:16" ht="50.25" hidden="1" customHeight="1">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -4081,7 +4087,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75">
+    <row r="13" spans="1:16" ht="15.75" hidden="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -4125,7 +4131,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75">
+    <row r="14" spans="1:16" ht="15.75" hidden="1">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -4169,7 +4175,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75">
+    <row r="15" spans="1:16" ht="15.75" hidden="1">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -4213,7 +4219,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75">
+    <row r="16" spans="1:16" ht="15.75" hidden="1">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -4257,7 +4263,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75">
+    <row r="17" spans="1:16" ht="15.75" hidden="1">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -4303,7 +4309,7 @@
       </c>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75">
+    <row r="18" spans="1:16" ht="15.75" hidden="1">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -4347,7 +4353,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75">
+    <row r="19" spans="1:16" ht="15.75" hidden="1">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -4391,7 +4397,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75">
+    <row r="20" spans="1:16" ht="15.75" hidden="1">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -4435,7 +4441,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75">
+    <row r="21" spans="1:16" ht="15.75" hidden="1">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -4479,7 +4485,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75">
+    <row r="22" spans="1:16" ht="15.75" hidden="1">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -4523,7 +4529,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75">
+    <row r="23" spans="1:16" ht="15.75" hidden="1">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -4567,7 +4573,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75">
+    <row r="24" spans="1:16" ht="15.75" hidden="1">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -4611,7 +4617,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75">
+    <row r="25" spans="1:16" ht="15.75" hidden="1">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -4657,7 +4663,7 @@
       </c>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75">
+    <row r="26" spans="1:16" ht="15.75" hidden="1">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -4703,7 +4709,7 @@
       </c>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75">
+    <row r="27" spans="1:16" ht="15.75" hidden="1">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -4749,7 +4755,7 @@
       </c>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75">
+    <row r="28" spans="1:16" ht="15.75" hidden="1">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -4795,7 +4801,7 @@
       </c>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75">
+    <row r="29" spans="1:16" ht="15.75" hidden="1">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -4841,7 +4847,7 @@
       </c>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75">
+    <row r="30" spans="1:16" ht="15.75" hidden="1">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -4887,7 +4893,7 @@
       </c>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75">
+    <row r="31" spans="1:16" ht="15.75" hidden="1">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -4929,7 +4935,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75">
+    <row r="32" spans="1:16" ht="15.75" hidden="1">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -4971,7 +4977,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75">
+    <row r="33" spans="1:16" ht="15.75" hidden="1">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -5013,7 +5019,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75">
+    <row r="34" spans="1:16" ht="15.75" hidden="1">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -5055,7 +5061,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75">
+    <row r="35" spans="1:16" ht="15.75" hidden="1">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -5097,7 +5103,7 @@
       <c r="O35" s="7"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75">
+    <row r="36" spans="1:16" ht="15.75" hidden="1">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -5139,7 +5145,7 @@
       <c r="O36" s="7"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:16" ht="15.75">
+    <row r="37" spans="1:16" ht="15.75" hidden="1">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -5181,7 +5187,7 @@
       <c r="O37" s="7"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75">
+    <row r="38" spans="1:16" ht="15.75" hidden="1">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -5223,7 +5229,7 @@
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75">
+    <row r="39" spans="1:16" ht="15.75" hidden="1">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -5265,7 +5271,7 @@
       <c r="O39" s="7"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:16" ht="15.75">
+    <row r="40" spans="1:16" ht="15.75" hidden="1">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -5307,7 +5313,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:16" ht="15.75">
+    <row r="41" spans="1:16" ht="15.75" hidden="1">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -5349,7 +5355,7 @@
       <c r="O41" s="7"/>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="1:16" ht="15.75">
+    <row r="42" spans="1:16" ht="15.75" hidden="1">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -5391,7 +5397,7 @@
       <c r="O42" s="7"/>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="1:16" ht="15.75">
+    <row r="43" spans="1:16" ht="15.75" hidden="1">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -5433,7 +5439,7 @@
       <c r="O43" s="7"/>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="1:16" ht="15.75">
+    <row r="44" spans="1:16" ht="15.75" hidden="1">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -5475,7 +5481,7 @@
       <c r="O44" s="7"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75">
+    <row r="45" spans="1:16" ht="15.75" hidden="1">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -5517,7 +5523,7 @@
       <c r="O45" s="7"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75">
+    <row r="46" spans="1:16" ht="15.75" hidden="1">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -5559,7 +5565,7 @@
       <c r="O46" s="7"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75">
+    <row r="47" spans="1:16" ht="15.75" hidden="1">
       <c r="A47" s="2">
         <v>2</v>
       </c>
@@ -5601,7 +5607,7 @@
       <c r="O47" s="7"/>
       <c r="P47" s="8"/>
     </row>
-    <row r="48" spans="1:16" ht="15.75">
+    <row r="48" spans="1:16" ht="15.75" hidden="1">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -5643,7 +5649,7 @@
       <c r="O48" s="7"/>
       <c r="P48" s="8"/>
     </row>
-    <row r="49" spans="1:16" ht="15.75">
+    <row r="49" spans="1:16" ht="15.75" hidden="1">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -5685,7 +5691,7 @@
       <c r="O49" s="7"/>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="1:16" ht="15.75">
+    <row r="50" spans="1:16" ht="15.75" hidden="1">
       <c r="A50" s="2">
         <v>2</v>
       </c>
@@ -5727,7 +5733,7 @@
       <c r="O50" s="7"/>
       <c r="P50" s="8"/>
     </row>
-    <row r="51" spans="1:16" ht="15.75">
+    <row r="51" spans="1:16" ht="15.75" hidden="1">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -5769,7 +5775,7 @@
       <c r="O51" s="7"/>
       <c r="P51" s="8"/>
     </row>
-    <row r="52" spans="1:16" ht="15.75">
+    <row r="52" spans="1:16" ht="15.75" hidden="1">
       <c r="A52" s="2">
         <v>2</v>
       </c>
@@ -5811,7 +5817,7 @@
       <c r="O52" s="7"/>
       <c r="P52" s="8"/>
     </row>
-    <row r="53" spans="1:16" ht="15.75">
+    <row r="53" spans="1:16" ht="15.75" hidden="1">
       <c r="A53" s="2">
         <v>2</v>
       </c>
@@ -5853,7 +5859,7 @@
       <c r="O53" s="7"/>
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="1:16" ht="15.75">
+    <row r="54" spans="1:16" ht="15.75" hidden="1">
       <c r="A54" s="2">
         <v>2</v>
       </c>
@@ -5895,7 +5901,7 @@
       <c r="O54" s="7"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16" ht="15.75">
+    <row r="55" spans="1:16" ht="15.75" hidden="1">
       <c r="A55" s="2">
         <v>2</v>
       </c>
@@ -5937,7 +5943,7 @@
       <c r="O55" s="7"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:16" ht="15.75">
+    <row r="56" spans="1:16" ht="15.75" hidden="1">
       <c r="A56" s="2">
         <v>2</v>
       </c>
@@ -5979,7 +5985,7 @@
       <c r="O56" s="7"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75">
+    <row r="57" spans="1:16" ht="15.75" hidden="1">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -6021,7 +6027,7 @@
       <c r="O57" s="7"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" ht="15.75">
+    <row r="58" spans="1:16" ht="15.75" hidden="1">
       <c r="A58" s="2">
         <v>2</v>
       </c>
@@ -6063,7 +6069,7 @@
       <c r="O58" s="7"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="15.75">
+    <row r="59" spans="1:16" ht="15.75" hidden="1">
       <c r="A59" s="2">
         <v>2</v>
       </c>
@@ -6105,7 +6111,7 @@
       <c r="O59" s="7"/>
       <c r="P59" s="8"/>
     </row>
-    <row r="60" spans="1:16" ht="15.75">
+    <row r="60" spans="1:16" ht="15.75" hidden="1">
       <c r="A60" s="2">
         <v>2</v>
       </c>
@@ -6147,7 +6153,7 @@
       <c r="O60" s="7"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16" ht="15.75">
+    <row r="61" spans="1:16" ht="15.75" hidden="1">
       <c r="A61" s="2">
         <v>2</v>
       </c>
@@ -6189,7 +6195,7 @@
       <c r="O61" s="7"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16" ht="15.75">
+    <row r="62" spans="1:16" ht="15.75" hidden="1">
       <c r="A62" s="2">
         <v>2</v>
       </c>
@@ -6231,7 +6237,7 @@
       <c r="O62" s="7"/>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="15.75">
+    <row r="63" spans="1:16" ht="15.75" hidden="1">
       <c r="A63" s="2">
         <v>2</v>
       </c>
@@ -6273,7 +6279,7 @@
       <c r="O63" s="7"/>
       <c r="P63" s="8"/>
     </row>
-    <row r="64" spans="1:16" ht="15.75">
+    <row r="64" spans="1:16" ht="15.75" hidden="1">
       <c r="A64" s="2">
         <v>2</v>
       </c>
@@ -6315,7 +6321,7 @@
       <c r="O64" s="7"/>
       <c r="P64" s="8"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75">
+    <row r="65" spans="1:16" ht="15.75" hidden="1">
       <c r="A65" s="2">
         <v>2</v>
       </c>
@@ -6357,7 +6363,7 @@
       <c r="O65" s="7"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16" ht="15.75">
+    <row r="66" spans="1:16" ht="15.75" hidden="1">
       <c r="A66" s="2">
         <v>2</v>
       </c>
@@ -6399,7 +6405,7 @@
       <c r="O66" s="7"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75">
+    <row r="67" spans="1:16" ht="15.75" hidden="1">
       <c r="A67" s="2">
         <v>2</v>
       </c>
@@ -6441,7 +6447,7 @@
       <c r="O67" s="7"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16" ht="15.75">
+    <row r="68" spans="1:16" ht="15.75" hidden="1">
       <c r="A68" s="2">
         <v>2</v>
       </c>
@@ -6483,7 +6489,7 @@
       <c r="O68" s="7"/>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16" ht="15.75">
+    <row r="69" spans="1:16" ht="15.75" hidden="1">
       <c r="A69" s="2">
         <v>2</v>
       </c>
@@ -6525,7 +6531,7 @@
       <c r="O69" s="7"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16" ht="15.75">
+    <row r="70" spans="1:16" ht="15.75" hidden="1">
       <c r="A70" s="2">
         <v>2</v>
       </c>
@@ -6567,7 +6573,7 @@
       <c r="O70" s="7"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16" ht="15.75">
+    <row r="71" spans="1:16" ht="15.75" hidden="1">
       <c r="A71" s="2">
         <v>2</v>
       </c>
@@ -6609,7 +6615,7 @@
       <c r="O71" s="7"/>
       <c r="P71" s="8"/>
     </row>
-    <row r="72" spans="1:16" ht="15.75">
+    <row r="72" spans="1:16" ht="15.75" hidden="1">
       <c r="A72" s="2">
         <v>2</v>
       </c>
@@ -6651,7 +6657,7 @@
       <c r="O72" s="7"/>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="1:16" ht="15.75">
+    <row r="73" spans="1:16" ht="15.75" hidden="1">
       <c r="A73" s="2">
         <v>3</v>
       </c>
@@ -6697,7 +6703,7 @@
       </c>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16" ht="15.75">
+    <row r="74" spans="1:16" ht="15.75" hidden="1">
       <c r="A74" s="2">
         <v>3</v>
       </c>
@@ -6743,7 +6749,7 @@
       </c>
       <c r="P74" s="8"/>
     </row>
-    <row r="75" spans="1:16" ht="15.75">
+    <row r="75" spans="1:16" ht="15.75" hidden="1">
       <c r="A75" s="2">
         <v>3</v>
       </c>
@@ -6789,7 +6795,7 @@
       </c>
       <c r="P75" s="8"/>
     </row>
-    <row r="76" spans="1:16" ht="15.75">
+    <row r="76" spans="1:16" ht="15.75" hidden="1">
       <c r="A76" s="2">
         <v>3</v>
       </c>
@@ -6835,7 +6841,7 @@
       </c>
       <c r="P76" s="8"/>
     </row>
-    <row r="77" spans="1:16" ht="15.75">
+    <row r="77" spans="1:16" ht="15.75" hidden="1">
       <c r="A77" s="2">
         <v>3</v>
       </c>
@@ -6881,7 +6887,7 @@
       </c>
       <c r="P77" s="8"/>
     </row>
-    <row r="78" spans="1:16" ht="15.75">
+    <row r="78" spans="1:16" ht="15.75" hidden="1">
       <c r="A78" s="2">
         <v>3</v>
       </c>
@@ -6927,7 +6933,7 @@
       </c>
       <c r="P78" s="8"/>
     </row>
-    <row r="79" spans="1:16" ht="15.75">
+    <row r="79" spans="1:16" ht="15.75" hidden="1">
       <c r="A79" s="2">
         <v>3</v>
       </c>
@@ -6973,7 +6979,7 @@
       </c>
       <c r="P79" s="8"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75">
+    <row r="80" spans="1:16" ht="15.75" hidden="1">
       <c r="A80" s="2">
         <v>3</v>
       </c>
@@ -7019,7 +7025,7 @@
       </c>
       <c r="P80" s="8"/>
     </row>
-    <row r="81" spans="1:16" ht="15.75">
+    <row r="81" spans="1:16" ht="15.75" hidden="1">
       <c r="A81" s="2">
         <v>3</v>
       </c>
@@ -7065,7 +7071,7 @@
       </c>
       <c r="P81" s="8"/>
     </row>
-    <row r="82" spans="1:16" ht="15.75">
+    <row r="82" spans="1:16" ht="15.75" hidden="1">
       <c r="A82" s="2">
         <v>3</v>
       </c>
@@ -7111,7 +7117,7 @@
       </c>
       <c r="P82" s="8"/>
     </row>
-    <row r="83" spans="1:16" ht="15.75">
+    <row r="83" spans="1:16" ht="15.75" hidden="1">
       <c r="A83" s="2">
         <v>3</v>
       </c>
@@ -7157,7 +7163,7 @@
       </c>
       <c r="P83" s="8"/>
     </row>
-    <row r="84" spans="1:16" ht="15.75">
+    <row r="84" spans="1:16" ht="15.75" hidden="1">
       <c r="A84" s="2">
         <v>3</v>
       </c>
@@ -7203,7 +7209,7 @@
       </c>
       <c r="P84" s="8"/>
     </row>
-    <row r="85" spans="1:16" ht="15.75">
+    <row r="85" spans="1:16" ht="15.75" hidden="1">
       <c r="A85" s="2">
         <v>3</v>
       </c>
@@ -7249,7 +7255,7 @@
       </c>
       <c r="P85" s="8"/>
     </row>
-    <row r="86" spans="1:16" ht="15.75">
+    <row r="86" spans="1:16" ht="15.75" hidden="1">
       <c r="A86" s="2">
         <v>3</v>
       </c>
@@ -7295,7 +7301,7 @@
       </c>
       <c r="P86" s="8"/>
     </row>
-    <row r="87" spans="1:16" ht="15.75">
+    <row r="87" spans="1:16" ht="15.75" hidden="1">
       <c r="A87" s="2">
         <v>3</v>
       </c>
@@ -7341,7 +7347,7 @@
       </c>
       <c r="P87" s="8"/>
     </row>
-    <row r="88" spans="1:16" ht="15.75">
+    <row r="88" spans="1:16" ht="15.75" hidden="1">
       <c r="A88" s="2">
         <v>3</v>
       </c>
@@ -7387,7 +7393,7 @@
       </c>
       <c r="P88" s="8"/>
     </row>
-    <row r="89" spans="1:16" ht="15.75">
+    <row r="89" spans="1:16" ht="15.75" hidden="1">
       <c r="A89" s="2">
         <v>3</v>
       </c>
@@ -7433,7 +7439,7 @@
       </c>
       <c r="P89" s="8"/>
     </row>
-    <row r="90" spans="1:16" ht="15.75">
+    <row r="90" spans="1:16" ht="15.75" hidden="1">
       <c r="A90" s="2">
         <v>3</v>
       </c>
@@ -7479,7 +7485,7 @@
       </c>
       <c r="P90" s="8"/>
     </row>
-    <row r="91" spans="1:16" ht="15.75">
+    <row r="91" spans="1:16" ht="15.75" hidden="1">
       <c r="A91" s="2">
         <v>3</v>
       </c>
@@ -7525,7 +7531,7 @@
       </c>
       <c r="P91" s="8"/>
     </row>
-    <row r="92" spans="1:16" ht="15.75">
+    <row r="92" spans="1:16" ht="15.75" hidden="1">
       <c r="A92" s="2">
         <v>3</v>
       </c>
@@ -7571,7 +7577,7 @@
       </c>
       <c r="P92" s="8"/>
     </row>
-    <row r="93" spans="1:16" ht="15.75">
+    <row r="93" spans="1:16" ht="15.75" hidden="1">
       <c r="A93" s="2">
         <v>3</v>
       </c>
@@ -7617,7 +7623,7 @@
       </c>
       <c r="P93" s="8"/>
     </row>
-    <row r="94" spans="1:16" ht="15.75">
+    <row r="94" spans="1:16" ht="15.75" hidden="1">
       <c r="A94" s="2">
         <v>3</v>
       </c>
@@ -7663,7 +7669,7 @@
       </c>
       <c r="P94" s="8"/>
     </row>
-    <row r="95" spans="1:16" ht="15.75">
+    <row r="95" spans="1:16" ht="15.75" hidden="1">
       <c r="A95" s="2">
         <v>3</v>
       </c>
@@ -7709,7 +7715,7 @@
       </c>
       <c r="P95" s="8"/>
     </row>
-    <row r="96" spans="1:16" ht="15.75">
+    <row r="96" spans="1:16" ht="15.75" hidden="1">
       <c r="A96" s="2">
         <v>3</v>
       </c>
@@ -7755,7 +7761,7 @@
       </c>
       <c r="P96" s="8"/>
     </row>
-    <row r="97" spans="1:16" ht="15.75">
+    <row r="97" spans="1:16" ht="15.75" hidden="1">
       <c r="A97" s="2">
         <v>3</v>
       </c>
@@ -7801,7 +7807,7 @@
       </c>
       <c r="P97" s="8"/>
     </row>
-    <row r="98" spans="1:16" ht="15.75">
+    <row r="98" spans="1:16" ht="15.75" hidden="1">
       <c r="A98" s="2">
         <v>3</v>
       </c>
@@ -7847,7 +7853,7 @@
       </c>
       <c r="P98" s="8"/>
     </row>
-    <row r="99" spans="1:16" ht="15.75">
+    <row r="99" spans="1:16" ht="15.75" hidden="1">
       <c r="A99" s="2">
         <v>3</v>
       </c>
@@ -7893,7 +7899,7 @@
       </c>
       <c r="P99" s="8"/>
     </row>
-    <row r="100" spans="1:16" ht="15.75">
+    <row r="100" spans="1:16" ht="15.75" hidden="1">
       <c r="A100" s="2">
         <v>3</v>
       </c>
@@ -7939,7 +7945,7 @@
       </c>
       <c r="P100" s="8"/>
     </row>
-    <row r="101" spans="1:16" ht="15.75">
+    <row r="101" spans="1:16" ht="15.75" hidden="1">
       <c r="A101" s="2">
         <v>3</v>
       </c>
@@ -7985,7 +7991,7 @@
       </c>
       <c r="P101" s="8"/>
     </row>
-    <row r="102" spans="1:16" ht="15.75">
+    <row r="102" spans="1:16" ht="15.75" hidden="1">
       <c r="A102" s="2">
         <v>3</v>
       </c>
@@ -8031,7 +8037,7 @@
       </c>
       <c r="P102" s="8"/>
     </row>
-    <row r="103" spans="1:16" ht="15.75">
+    <row r="103" spans="1:16" ht="15.75" hidden="1">
       <c r="A103" s="2">
         <v>3</v>
       </c>
@@ -8077,7 +8083,7 @@
       </c>
       <c r="P103" s="8"/>
     </row>
-    <row r="104" spans="1:16" ht="15.75">
+    <row r="104" spans="1:16" ht="15.75" hidden="1">
       <c r="A104" s="2">
         <v>3</v>
       </c>
@@ -8123,7 +8129,7 @@
       </c>
       <c r="P104" s="8"/>
     </row>
-    <row r="105" spans="1:16" ht="15.75">
+    <row r="105" spans="1:16" ht="15.75" hidden="1">
       <c r="A105" s="2">
         <v>3</v>
       </c>
@@ -8169,7 +8175,7 @@
       </c>
       <c r="P105" s="8"/>
     </row>
-    <row r="106" spans="1:16" ht="15.75">
+    <row r="106" spans="1:16" ht="15.75" hidden="1">
       <c r="A106" s="2">
         <v>3</v>
       </c>
@@ -8215,7 +8221,7 @@
       </c>
       <c r="P106" s="8"/>
     </row>
-    <row r="107" spans="1:16" ht="15.75">
+    <row r="107" spans="1:16" ht="15.75" hidden="1">
       <c r="A107" s="2">
         <v>3</v>
       </c>
@@ -8261,7 +8267,7 @@
       </c>
       <c r="P107" s="8"/>
     </row>
-    <row r="108" spans="1:16" ht="15.75">
+    <row r="108" spans="1:16" ht="15.75" hidden="1">
       <c r="A108" s="2">
         <v>3</v>
       </c>
@@ -8307,7 +8313,7 @@
       </c>
       <c r="P108" s="8"/>
     </row>
-    <row r="109" spans="1:16" ht="15.75">
+    <row r="109" spans="1:16" ht="15.75" hidden="1">
       <c r="A109" s="2">
         <v>3</v>
       </c>
@@ -8353,7 +8359,7 @@
       </c>
       <c r="P109" s="8"/>
     </row>
-    <row r="110" spans="1:16" ht="15.75">
+    <row r="110" spans="1:16" ht="15.75" hidden="1">
       <c r="A110" s="2">
         <v>3</v>
       </c>
@@ -8399,7 +8405,7 @@
       </c>
       <c r="P110" s="8"/>
     </row>
-    <row r="111" spans="1:16" ht="15.75">
+    <row r="111" spans="1:16" ht="15.75" hidden="1">
       <c r="A111" s="2">
         <v>3</v>
       </c>
@@ -8445,7 +8451,7 @@
       </c>
       <c r="P111" s="8"/>
     </row>
-    <row r="112" spans="1:16" ht="15.75">
+    <row r="112" spans="1:16" ht="15.75" hidden="1">
       <c r="A112" s="2">
         <v>3</v>
       </c>
@@ -12671,7 +12677,7 @@
       <c r="O207" s="7"/>
       <c r="P207" s="8"/>
     </row>
-    <row r="208" spans="1:16" ht="15.75">
+    <row r="208" spans="1:16" ht="15.75" hidden="1">
       <c r="A208" s="2">
         <v>5</v>
       </c>
@@ -12713,7 +12719,7 @@
       <c r="O208" s="7"/>
       <c r="P208" s="8"/>
     </row>
-    <row r="209" spans="1:16" ht="15.75">
+    <row r="209" spans="1:16" ht="15.75" hidden="1">
       <c r="A209" s="2">
         <v>5</v>
       </c>
@@ -12755,7 +12761,7 @@
       <c r="O209" s="7"/>
       <c r="P209" s="8"/>
     </row>
-    <row r="210" spans="1:16" ht="15.75">
+    <row r="210" spans="1:16" ht="15.75" hidden="1">
       <c r="A210" s="2">
         <v>5</v>
       </c>
@@ -12797,7 +12803,7 @@
       <c r="O210" s="7"/>
       <c r="P210" s="8"/>
     </row>
-    <row r="211" spans="1:16" ht="15.75">
+    <row r="211" spans="1:16" ht="15.75" hidden="1">
       <c r="A211" s="2">
         <v>5</v>
       </c>
@@ -12839,7 +12845,7 @@
       <c r="O211" s="7"/>
       <c r="P211" s="8"/>
     </row>
-    <row r="212" spans="1:16" ht="15.75">
+    <row r="212" spans="1:16" ht="15.75" hidden="1">
       <c r="A212" s="2">
         <v>5</v>
       </c>
@@ -12881,7 +12887,7 @@
       <c r="O212" s="7"/>
       <c r="P212" s="8"/>
     </row>
-    <row r="213" spans="1:16" ht="15.75">
+    <row r="213" spans="1:16" ht="15.75" hidden="1">
       <c r="A213" s="2">
         <v>5</v>
       </c>
@@ -12923,7 +12929,7 @@
       <c r="O213" s="7"/>
       <c r="P213" s="8"/>
     </row>
-    <row r="214" spans="1:16" ht="15.75">
+    <row r="214" spans="1:16" ht="15.75" hidden="1">
       <c r="A214" s="2">
         <v>5</v>
       </c>
@@ -12965,7 +12971,7 @@
       <c r="O214" s="7"/>
       <c r="P214" s="8"/>
     </row>
-    <row r="215" spans="1:16" ht="15.75">
+    <row r="215" spans="1:16" ht="15.75" hidden="1">
       <c r="A215" s="2">
         <v>5</v>
       </c>
@@ -13007,7 +13013,7 @@
       <c r="O215" s="7"/>
       <c r="P215" s="8"/>
     </row>
-    <row r="216" spans="1:16" ht="15.75">
+    <row r="216" spans="1:16" ht="15.75" hidden="1">
       <c r="A216" s="2">
         <v>5</v>
       </c>
@@ -13049,7 +13055,7 @@
       <c r="O216" s="7"/>
       <c r="P216" s="8"/>
     </row>
-    <row r="217" spans="1:16" ht="15.75">
+    <row r="217" spans="1:16" ht="15.75" hidden="1">
       <c r="A217" s="2">
         <v>5</v>
       </c>
@@ -13091,7 +13097,7 @@
       <c r="O217" s="7"/>
       <c r="P217" s="8"/>
     </row>
-    <row r="218" spans="1:16" ht="15.75">
+    <row r="218" spans="1:16" ht="15.75" hidden="1">
       <c r="A218" s="2">
         <v>5</v>
       </c>
@@ -13133,7 +13139,7 @@
       <c r="O218" s="7"/>
       <c r="P218" s="8"/>
     </row>
-    <row r="219" spans="1:16" ht="15.75">
+    <row r="219" spans="1:16" ht="15.75" hidden="1">
       <c r="A219" s="2">
         <v>5</v>
       </c>
@@ -13175,7 +13181,7 @@
       <c r="O219" s="7"/>
       <c r="P219" s="8"/>
     </row>
-    <row r="220" spans="1:16" ht="15.75">
+    <row r="220" spans="1:16" ht="15.75" hidden="1">
       <c r="A220" s="2">
         <v>5</v>
       </c>
@@ -13217,7 +13223,7 @@
       <c r="O220" s="7"/>
       <c r="P220" s="8"/>
     </row>
-    <row r="221" spans="1:16" ht="15.75">
+    <row r="221" spans="1:16" ht="15.75" hidden="1">
       <c r="A221" s="2">
         <v>5</v>
       </c>
@@ -13259,7 +13265,7 @@
       <c r="O221" s="7"/>
       <c r="P221" s="8"/>
     </row>
-    <row r="222" spans="1:16" ht="15.75">
+    <row r="222" spans="1:16" ht="15.75" hidden="1">
       <c r="A222" s="2">
         <v>5</v>
       </c>
@@ -13301,7 +13307,7 @@
       <c r="O222" s="7"/>
       <c r="P222" s="8"/>
     </row>
-    <row r="223" spans="1:16" ht="15.75">
+    <row r="223" spans="1:16" ht="15.75" hidden="1">
       <c r="A223" s="2">
         <v>5</v>
       </c>
@@ -13343,7 +13349,7 @@
       <c r="O223" s="7"/>
       <c r="P223" s="8"/>
     </row>
-    <row r="224" spans="1:16" ht="15.75">
+    <row r="224" spans="1:16" ht="15.75" hidden="1">
       <c r="A224" s="2">
         <v>5</v>
       </c>
@@ -13385,7 +13391,7 @@
       <c r="O224" s="7"/>
       <c r="P224" s="8"/>
     </row>
-    <row r="225" spans="1:16" ht="15.75">
+    <row r="225" spans="1:16" ht="15.75" hidden="1">
       <c r="A225" s="2">
         <v>5</v>
       </c>
@@ -13427,7 +13433,7 @@
       <c r="O225" s="7"/>
       <c r="P225" s="8"/>
     </row>
-    <row r="226" spans="1:16" ht="15.75">
+    <row r="226" spans="1:16" ht="15.75" hidden="1">
       <c r="A226" s="2">
         <v>5</v>
       </c>
@@ -13469,7 +13475,7 @@
       <c r="O226" s="7"/>
       <c r="P226" s="8"/>
     </row>
-    <row r="227" spans="1:16" ht="15.75">
+    <row r="227" spans="1:16" ht="15.75" hidden="1">
       <c r="A227" s="2">
         <v>5</v>
       </c>
@@ -13511,7 +13517,7 @@
       <c r="O227" s="7"/>
       <c r="P227" s="8"/>
     </row>
-    <row r="228" spans="1:16" ht="15.75">
+    <row r="228" spans="1:16" ht="15.75" hidden="1">
       <c r="A228" s="2">
         <v>5</v>
       </c>
@@ -13555,7 +13561,7 @@
       </c>
       <c r="P228" s="8"/>
     </row>
-    <row r="229" spans="1:16" ht="15.75">
+    <row r="229" spans="1:16" ht="15.75" hidden="1">
       <c r="A229" s="2">
         <v>5</v>
       </c>
@@ -13597,7 +13603,7 @@
       <c r="O229" s="7"/>
       <c r="P229" s="8"/>
     </row>
-    <row r="230" spans="1:16" ht="15.75">
+    <row r="230" spans="1:16" ht="15.75" hidden="1">
       <c r="A230" s="2">
         <v>5</v>
       </c>
@@ -13639,7 +13645,7 @@
       <c r="O230" s="7"/>
       <c r="P230" s="8"/>
     </row>
-    <row r="231" spans="1:16" ht="15.75">
+    <row r="231" spans="1:16" ht="15.75" hidden="1">
       <c r="A231" s="2">
         <v>5</v>
       </c>
@@ -13683,7 +13689,7 @@
       </c>
       <c r="P231" s="8"/>
     </row>
-    <row r="232" spans="1:16" ht="15.75">
+    <row r="232" spans="1:16" ht="15.75" hidden="1">
       <c r="A232" s="2">
         <v>5</v>
       </c>
@@ -13725,7 +13731,7 @@
       <c r="O232" s="7"/>
       <c r="P232" s="8"/>
     </row>
-    <row r="233" spans="1:16" ht="15.75">
+    <row r="233" spans="1:16" ht="15.75" hidden="1">
       <c r="A233" s="2">
         <v>6</v>
       </c>
@@ -13767,7 +13773,7 @@
       <c r="O233" s="7"/>
       <c r="P233" s="8"/>
     </row>
-    <row r="234" spans="1:16" ht="15.75">
+    <row r="234" spans="1:16" ht="15.75" hidden="1">
       <c r="A234" s="2">
         <v>6</v>
       </c>
@@ -13809,7 +13815,7 @@
       <c r="O234" s="7"/>
       <c r="P234" s="8"/>
     </row>
-    <row r="235" spans="1:16" ht="15.75">
+    <row r="235" spans="1:16" ht="15.75" hidden="1">
       <c r="A235" s="2">
         <v>6</v>
       </c>
@@ -13851,7 +13857,7 @@
       <c r="O235" s="7"/>
       <c r="P235" s="8"/>
     </row>
-    <row r="236" spans="1:16" ht="15.75">
+    <row r="236" spans="1:16" ht="15.75" hidden="1">
       <c r="A236" s="2">
         <v>6</v>
       </c>
@@ -13893,7 +13899,7 @@
       <c r="O236" s="7"/>
       <c r="P236" s="8"/>
     </row>
-    <row r="237" spans="1:16" ht="15.75">
+    <row r="237" spans="1:16" ht="15.75" hidden="1">
       <c r="A237" s="2">
         <v>6</v>
       </c>
@@ -13935,7 +13941,7 @@
       <c r="O237" s="7"/>
       <c r="P237" s="8"/>
     </row>
-    <row r="238" spans="1:16" ht="15.75">
+    <row r="238" spans="1:16" ht="15.75" hidden="1">
       <c r="A238" s="2">
         <v>6</v>
       </c>
@@ -13977,7 +13983,7 @@
       <c r="O238" s="7"/>
       <c r="P238" s="8"/>
     </row>
-    <row r="239" spans="1:16" ht="15.75">
+    <row r="239" spans="1:16" ht="15.75" hidden="1">
       <c r="A239" s="2">
         <v>6</v>
       </c>
@@ -14019,7 +14025,7 @@
       <c r="O239" s="7"/>
       <c r="P239" s="8"/>
     </row>
-    <row r="240" spans="1:16" ht="15.75">
+    <row r="240" spans="1:16" ht="15.75" hidden="1">
       <c r="A240" s="2">
         <v>6</v>
       </c>
@@ -14061,7 +14067,7 @@
       <c r="O240" s="7"/>
       <c r="P240" s="8"/>
     </row>
-    <row r="241" spans="1:16" ht="15.75">
+    <row r="241" spans="1:16" ht="15.75" hidden="1">
       <c r="A241" s="2">
         <v>6</v>
       </c>
@@ -14103,7 +14109,7 @@
       <c r="O241" s="7"/>
       <c r="P241" s="8"/>
     </row>
-    <row r="242" spans="1:16" ht="15.75">
+    <row r="242" spans="1:16" ht="15.75" hidden="1">
       <c r="A242" s="2">
         <v>6</v>
       </c>
@@ -14145,7 +14151,7 @@
       <c r="O242" s="7"/>
       <c r="P242" s="8"/>
     </row>
-    <row r="243" spans="1:16" ht="15.75">
+    <row r="243" spans="1:16" ht="15.75" hidden="1">
       <c r="A243" s="2">
         <v>6</v>
       </c>
@@ -14187,7 +14193,7 @@
       <c r="O243" s="7"/>
       <c r="P243" s="8"/>
     </row>
-    <row r="244" spans="1:16" ht="15.75">
+    <row r="244" spans="1:16" ht="15.75" hidden="1">
       <c r="A244" s="2">
         <v>6</v>
       </c>
@@ -14229,7 +14235,7 @@
       <c r="O244" s="7"/>
       <c r="P244" s="8"/>
     </row>
-    <row r="245" spans="1:16" ht="15.75">
+    <row r="245" spans="1:16" ht="15.75" hidden="1">
       <c r="A245" s="2">
         <v>6</v>
       </c>
@@ -14271,7 +14277,7 @@
       <c r="O245" s="7"/>
       <c r="P245" s="8"/>
     </row>
-    <row r="246" spans="1:16" ht="15.75">
+    <row r="246" spans="1:16" ht="15.75" hidden="1">
       <c r="A246" s="2">
         <v>6</v>
       </c>
@@ -14313,7 +14319,7 @@
       <c r="O246" s="7"/>
       <c r="P246" s="8"/>
     </row>
-    <row r="247" spans="1:16" ht="15.75">
+    <row r="247" spans="1:16" ht="15.75" hidden="1">
       <c r="A247" s="2">
         <v>6</v>
       </c>
@@ -14355,7 +14361,7 @@
       <c r="O247" s="7"/>
       <c r="P247" s="8"/>
     </row>
-    <row r="248" spans="1:16" ht="15.75">
+    <row r="248" spans="1:16" ht="15.75" hidden="1">
       <c r="A248" s="2">
         <v>6</v>
       </c>
@@ -14397,7 +14403,7 @@
       <c r="O248" s="7"/>
       <c r="P248" s="8"/>
     </row>
-    <row r="249" spans="1:16" ht="15.75">
+    <row r="249" spans="1:16" ht="15.75" hidden="1">
       <c r="A249" s="2">
         <v>6</v>
       </c>
@@ -14439,7 +14445,7 @@
       <c r="O249" s="7"/>
       <c r="P249" s="8"/>
     </row>
-    <row r="250" spans="1:16" ht="15.75">
+    <row r="250" spans="1:16" ht="15.75" hidden="1">
       <c r="A250" s="2">
         <v>6</v>
       </c>
@@ -14481,7 +14487,7 @@
       <c r="O250" s="7"/>
       <c r="P250" s="8"/>
     </row>
-    <row r="251" spans="1:16" ht="15.75">
+    <row r="251" spans="1:16" ht="15.75" hidden="1">
       <c r="A251" s="2">
         <v>6</v>
       </c>
@@ -14523,7 +14529,7 @@
       <c r="O251" s="7"/>
       <c r="P251" s="8"/>
     </row>
-    <row r="252" spans="1:16" ht="15.75">
+    <row r="252" spans="1:16" ht="15.75" hidden="1">
       <c r="A252" s="2">
         <v>6</v>
       </c>
@@ -14565,7 +14571,7 @@
       <c r="O252" s="7"/>
       <c r="P252" s="8"/>
     </row>
-    <row r="253" spans="1:16" ht="15.75">
+    <row r="253" spans="1:16" ht="15.75" hidden="1">
       <c r="A253" s="2">
         <v>6</v>
       </c>
@@ -14607,7 +14613,7 @@
       <c r="O253" s="7"/>
       <c r="P253" s="8"/>
     </row>
-    <row r="254" spans="1:16" ht="15.75">
+    <row r="254" spans="1:16" ht="15.75" hidden="1">
       <c r="A254" s="2">
         <v>6</v>
       </c>
@@ -14649,7 +14655,7 @@
       <c r="O254" s="7"/>
       <c r="P254" s="8"/>
     </row>
-    <row r="255" spans="1:16" ht="15.75">
+    <row r="255" spans="1:16" ht="15.75" hidden="1">
       <c r="A255" s="2">
         <v>6</v>
       </c>
@@ -14691,7 +14697,7 @@
       <c r="O255" s="7"/>
       <c r="P255" s="8"/>
     </row>
-    <row r="256" spans="1:16" ht="15.75">
+    <row r="256" spans="1:16" ht="15.75" hidden="1">
       <c r="A256" s="2">
         <v>6</v>
       </c>
@@ -14733,7 +14739,7 @@
       <c r="O256" s="7"/>
       <c r="P256" s="8"/>
     </row>
-    <row r="257" spans="1:16" ht="15.75">
+    <row r="257" spans="1:16" ht="15.75" hidden="1">
       <c r="A257" s="2">
         <v>6</v>
       </c>
@@ -14775,7 +14781,7 @@
       <c r="O257" s="7"/>
       <c r="P257" s="8"/>
     </row>
-    <row r="258" spans="1:16" ht="15.75">
+    <row r="258" spans="1:16" ht="15.75" hidden="1">
       <c r="A258" s="2">
         <v>6</v>
       </c>
@@ -14817,7 +14823,7 @@
       <c r="O258" s="7"/>
       <c r="P258" s="8"/>
     </row>
-    <row r="259" spans="1:16" ht="15.75">
+    <row r="259" spans="1:16" ht="15.75" hidden="1">
       <c r="A259" s="2">
         <v>6</v>
       </c>
@@ -14859,7 +14865,7 @@
       <c r="O259" s="7"/>
       <c r="P259" s="8"/>
     </row>
-    <row r="260" spans="1:16" ht="15.75">
+    <row r="260" spans="1:16" ht="15.75" hidden="1">
       <c r="A260" s="2">
         <v>6</v>
       </c>
@@ -14901,7 +14907,7 @@
       <c r="O260" s="7"/>
       <c r="P260" s="8"/>
     </row>
-    <row r="261" spans="1:16" ht="15.75">
+    <row r="261" spans="1:16" ht="15.75" hidden="1">
       <c r="A261" s="2">
         <v>6</v>
       </c>
@@ -14943,7 +14949,7 @@
       <c r="O261" s="7"/>
       <c r="P261" s="8"/>
     </row>
-    <row r="262" spans="1:16" ht="15.75">
+    <row r="262" spans="1:16" ht="15.75" hidden="1">
       <c r="A262" s="2">
         <v>6</v>
       </c>
@@ -14985,7 +14991,7 @@
       <c r="O262" s="7"/>
       <c r="P262" s="8"/>
     </row>
-    <row r="263" spans="1:16" ht="15.75">
+    <row r="263" spans="1:16" ht="15.75" hidden="1">
       <c r="A263" s="2">
         <v>6</v>
       </c>
@@ -15027,7 +15033,7 @@
       <c r="O263" s="7"/>
       <c r="P263" s="8"/>
     </row>
-    <row r="264" spans="1:16" ht="15.75">
+    <row r="264" spans="1:16" ht="15.75" hidden="1">
       <c r="A264" s="2">
         <v>6</v>
       </c>
@@ -15069,7 +15075,7 @@
       <c r="O264" s="7"/>
       <c r="P264" s="8"/>
     </row>
-    <row r="265" spans="1:16" ht="15.75">
+    <row r="265" spans="1:16" ht="15.75" hidden="1">
       <c r="A265" s="2">
         <v>6</v>
       </c>
@@ -15111,7 +15117,7 @@
       <c r="O265" s="7"/>
       <c r="P265" s="8"/>
     </row>
-    <row r="266" spans="1:16" ht="15.75">
+    <row r="266" spans="1:16" ht="15.75" hidden="1">
       <c r="A266" s="2">
         <v>6</v>
       </c>
@@ -15153,7 +15159,7 @@
       <c r="O266" s="7"/>
       <c r="P266" s="8"/>
     </row>
-    <row r="267" spans="1:16" ht="15.75">
+    <row r="267" spans="1:16" ht="15.75" hidden="1">
       <c r="A267" s="2">
         <v>6</v>
       </c>
@@ -15195,7 +15201,7 @@
       <c r="O267" s="7"/>
       <c r="P267" s="8"/>
     </row>
-    <row r="268" spans="1:16" ht="15.75">
+    <row r="268" spans="1:16" ht="15.75" hidden="1">
       <c r="A268" s="2">
         <v>6</v>
       </c>
@@ -15237,7 +15243,7 @@
       <c r="O268" s="7"/>
       <c r="P268" s="8"/>
     </row>
-    <row r="269" spans="1:16" ht="15.75">
+    <row r="269" spans="1:16" ht="15.75" hidden="1">
       <c r="A269" s="2">
         <v>6</v>
       </c>
@@ -15279,7 +15285,7 @@
       <c r="O269" s="7"/>
       <c r="P269" s="8"/>
     </row>
-    <row r="270" spans="1:16" ht="15.75">
+    <row r="270" spans="1:16" ht="15.75" hidden="1">
       <c r="A270" s="2">
         <v>6</v>
       </c>
@@ -15321,7 +15327,7 @@
       <c r="O270" s="7"/>
       <c r="P270" s="8"/>
     </row>
-    <row r="271" spans="1:16" ht="15.75">
+    <row r="271" spans="1:16" ht="15.75" hidden="1">
       <c r="A271" s="2">
         <v>6</v>
       </c>
@@ -15363,7 +15369,7 @@
       <c r="O271" s="7"/>
       <c r="P271" s="8"/>
     </row>
-    <row r="272" spans="1:16" ht="15.75">
+    <row r="272" spans="1:16" ht="15.75" hidden="1">
       <c r="A272" s="2">
         <v>6</v>
       </c>
@@ -15405,7 +15411,7 @@
       <c r="O272" s="7"/>
       <c r="P272" s="8"/>
     </row>
-    <row r="273" spans="1:16" ht="15.75">
+    <row r="273" spans="1:16" ht="15.75" hidden="1">
       <c r="A273" s="2">
         <v>6</v>
       </c>
@@ -15447,7 +15453,7 @@
       <c r="O273" s="7"/>
       <c r="P273" s="8"/>
     </row>
-    <row r="274" spans="1:16" ht="15.75">
+    <row r="274" spans="1:16" ht="15.75" hidden="1">
       <c r="A274" s="2">
         <v>6</v>
       </c>
@@ -15489,7 +15495,7 @@
       <c r="O274" s="7"/>
       <c r="P274" s="8"/>
     </row>
-    <row r="275" spans="1:16" ht="15.75">
+    <row r="275" spans="1:16" ht="15.75" hidden="1">
       <c r="A275" s="2">
         <v>6</v>
       </c>
@@ -15531,7 +15537,7 @@
       <c r="O275" s="7"/>
       <c r="P275" s="8"/>
     </row>
-    <row r="276" spans="1:16" ht="15.75">
+    <row r="276" spans="1:16" ht="15.75" hidden="1">
       <c r="A276" s="2">
         <v>6</v>
       </c>
@@ -15573,7 +15579,7 @@
       <c r="O276" s="7"/>
       <c r="P276" s="8"/>
     </row>
-    <row r="277" spans="1:16" ht="15.75">
+    <row r="277" spans="1:16" ht="15.75" hidden="1">
       <c r="A277" s="2">
         <v>6</v>
       </c>
@@ -15615,7 +15621,7 @@
       <c r="O277" s="7"/>
       <c r="P277" s="8"/>
     </row>
-    <row r="278" spans="1:16" ht="15.75">
+    <row r="278" spans="1:16" ht="15.75" hidden="1">
       <c r="A278" s="2">
         <v>6</v>
       </c>
@@ -15657,7 +15663,7 @@
       <c r="O278" s="7"/>
       <c r="P278" s="8"/>
     </row>
-    <row r="279" spans="1:16" ht="15.75">
+    <row r="279" spans="1:16" ht="15.75" hidden="1">
       <c r="A279" s="2">
         <v>6</v>
       </c>
@@ -15699,7 +15705,7 @@
       <c r="O279" s="7"/>
       <c r="P279" s="8"/>
     </row>
-    <row r="280" spans="1:16" ht="15.75">
+    <row r="280" spans="1:16" ht="15.75" hidden="1">
       <c r="A280" s="2">
         <v>6</v>
       </c>
@@ -15741,7 +15747,7 @@
       <c r="O280" s="7"/>
       <c r="P280" s="8"/>
     </row>
-    <row r="281" spans="1:16" ht="15.75">
+    <row r="281" spans="1:16" ht="15.75" hidden="1">
       <c r="A281" s="2">
         <v>7</v>
       </c>
@@ -15783,7 +15789,7 @@
       <c r="O281" s="7"/>
       <c r="P281" s="8"/>
     </row>
-    <row r="282" spans="1:16" ht="15.75">
+    <row r="282" spans="1:16" ht="15.75" hidden="1">
       <c r="A282" s="2">
         <v>7</v>
       </c>
@@ -15825,7 +15831,7 @@
       <c r="O282" s="7"/>
       <c r="P282" s="8"/>
     </row>
-    <row r="283" spans="1:16" ht="15.75">
+    <row r="283" spans="1:16" ht="15.75" hidden="1">
       <c r="A283" s="2">
         <v>7</v>
       </c>
@@ -15867,7 +15873,7 @@
       <c r="O283" s="7"/>
       <c r="P283" s="8"/>
     </row>
-    <row r="284" spans="1:16" ht="15.75">
+    <row r="284" spans="1:16" ht="15.75" hidden="1">
       <c r="A284" s="2">
         <v>7</v>
       </c>
@@ -15909,7 +15915,7 @@
       <c r="O284" s="7"/>
       <c r="P284" s="8"/>
     </row>
-    <row r="285" spans="1:16" ht="15.75">
+    <row r="285" spans="1:16" ht="15.75" hidden="1">
       <c r="A285" s="2">
         <v>7</v>
       </c>
@@ -15951,7 +15957,7 @@
       <c r="O285" s="7"/>
       <c r="P285" s="8"/>
     </row>
-    <row r="286" spans="1:16" ht="15.75">
+    <row r="286" spans="1:16" ht="15.75" hidden="1">
       <c r="A286" s="2">
         <v>7</v>
       </c>
@@ -15993,7 +15999,7 @@
       <c r="O286" s="7"/>
       <c r="P286" s="8"/>
     </row>
-    <row r="287" spans="1:16" ht="15.75">
+    <row r="287" spans="1:16" ht="15.75" hidden="1">
       <c r="A287" s="2">
         <v>7</v>
       </c>
@@ -16035,7 +16041,7 @@
       <c r="O287" s="7"/>
       <c r="P287" s="8"/>
     </row>
-    <row r="288" spans="1:16" ht="15.75">
+    <row r="288" spans="1:16" ht="15.75" hidden="1">
       <c r="A288" s="2">
         <v>7</v>
       </c>
@@ -16077,7 +16083,7 @@
       <c r="O288" s="7"/>
       <c r="P288" s="8"/>
     </row>
-    <row r="289" spans="1:16" ht="15.75">
+    <row r="289" spans="1:16" ht="15.75" hidden="1">
       <c r="A289" s="2">
         <v>7</v>
       </c>
@@ -16119,7 +16125,7 @@
       <c r="O289" s="7"/>
       <c r="P289" s="8"/>
     </row>
-    <row r="290" spans="1:16" ht="15.75">
+    <row r="290" spans="1:16" ht="15.75" hidden="1">
       <c r="A290" s="2">
         <v>7</v>
       </c>
@@ -16161,7 +16167,7 @@
       <c r="O290" s="7"/>
       <c r="P290" s="8"/>
     </row>
-    <row r="291" spans="1:16" ht="15.75">
+    <row r="291" spans="1:16" ht="15.75" hidden="1">
       <c r="A291" s="2">
         <v>7</v>
       </c>
@@ -16203,7 +16209,7 @@
       <c r="O291" s="7"/>
       <c r="P291" s="8"/>
     </row>
-    <row r="292" spans="1:16" ht="15.75">
+    <row r="292" spans="1:16" ht="15.75" hidden="1">
       <c r="A292" s="2">
         <v>7</v>
       </c>
@@ -16245,7 +16251,7 @@
       <c r="O292" s="7"/>
       <c r="P292" s="8"/>
     </row>
-    <row r="293" spans="1:16" ht="15.75">
+    <row r="293" spans="1:16" ht="15.75" hidden="1">
       <c r="A293" s="2">
         <v>7</v>
       </c>
@@ -16287,7 +16293,7 @@
       <c r="O293" s="7"/>
       <c r="P293" s="8"/>
     </row>
-    <row r="294" spans="1:16" ht="15.75">
+    <row r="294" spans="1:16" ht="15.75" hidden="1">
       <c r="A294" s="2">
         <v>7</v>
       </c>
@@ -16329,7 +16335,7 @@
       <c r="O294" s="7"/>
       <c r="P294" s="8"/>
     </row>
-    <row r="295" spans="1:16" ht="15.75">
+    <row r="295" spans="1:16" ht="15.75" hidden="1">
       <c r="A295" s="2">
         <v>7</v>
       </c>
@@ -16371,7 +16377,7 @@
       <c r="O295" s="7"/>
       <c r="P295" s="8"/>
     </row>
-    <row r="296" spans="1:16" ht="15.75">
+    <row r="296" spans="1:16" ht="15.75" hidden="1">
       <c r="A296" s="2">
         <v>7</v>
       </c>
@@ -16413,7 +16419,7 @@
       <c r="O296" s="7"/>
       <c r="P296" s="8"/>
     </row>
-    <row r="297" spans="1:16" ht="15.75">
+    <row r="297" spans="1:16" ht="15.75" hidden="1">
       <c r="A297" s="2">
         <v>7</v>
       </c>
@@ -16455,7 +16461,7 @@
       <c r="O297" s="7"/>
       <c r="P297" s="8"/>
     </row>
-    <row r="298" spans="1:16" ht="15.75">
+    <row r="298" spans="1:16" ht="15.75" hidden="1">
       <c r="A298" s="2">
         <v>7</v>
       </c>
@@ -16497,7 +16503,7 @@
       <c r="O298" s="7"/>
       <c r="P298" s="8"/>
     </row>
-    <row r="299" spans="1:16" ht="15.75">
+    <row r="299" spans="1:16" ht="15.75" hidden="1">
       <c r="A299" s="2">
         <v>7</v>
       </c>
@@ -16539,7 +16545,7 @@
       <c r="O299" s="7"/>
       <c r="P299" s="8"/>
     </row>
-    <row r="300" spans="1:16" ht="15.75">
+    <row r="300" spans="1:16" ht="15.75" hidden="1">
       <c r="A300" s="2">
         <v>7</v>
       </c>
@@ -16581,7 +16587,7 @@
       <c r="O300" s="7"/>
       <c r="P300" s="8"/>
     </row>
-    <row r="301" spans="1:16" ht="15.75">
+    <row r="301" spans="1:16" ht="15.75" hidden="1">
       <c r="A301" s="2">
         <v>7</v>
       </c>
@@ -16623,7 +16629,7 @@
       <c r="O301" s="7"/>
       <c r="P301" s="8"/>
     </row>
-    <row r="302" spans="1:16" ht="15.75">
+    <row r="302" spans="1:16" ht="15.75" hidden="1">
       <c r="A302" s="2">
         <v>7</v>
       </c>
@@ -16665,7 +16671,7 @@
       <c r="O302" s="7"/>
       <c r="P302" s="8"/>
     </row>
-    <row r="303" spans="1:16" ht="15.75">
+    <row r="303" spans="1:16" ht="15.75" hidden="1">
       <c r="A303" s="2">
         <v>7</v>
       </c>
@@ -16707,7 +16713,7 @@
       <c r="O303" s="7"/>
       <c r="P303" s="8"/>
     </row>
-    <row r="304" spans="1:16" ht="15.75">
+    <row r="304" spans="1:16" ht="15.75" hidden="1">
       <c r="A304" s="2">
         <v>7</v>
       </c>
@@ -16749,7 +16755,7 @@
       <c r="O304" s="7"/>
       <c r="P304" s="8"/>
     </row>
-    <row r="305" spans="1:16" ht="15.75">
+    <row r="305" spans="1:16" ht="15.75" hidden="1">
       <c r="A305" s="2">
         <v>7</v>
       </c>
@@ -16791,7 +16797,7 @@
       <c r="O305" s="7"/>
       <c r="P305" s="8"/>
     </row>
-    <row r="306" spans="1:16" ht="15.75">
+    <row r="306" spans="1:16" ht="15.75" hidden="1">
       <c r="A306" s="2">
         <v>7</v>
       </c>
@@ -16833,7 +16839,7 @@
       <c r="O306" s="7"/>
       <c r="P306" s="8"/>
     </row>
-    <row r="307" spans="1:16" ht="15.75">
+    <row r="307" spans="1:16" ht="15.75" hidden="1">
       <c r="A307" s="2">
         <v>7</v>
       </c>
@@ -16875,7 +16881,7 @@
       <c r="O307" s="7"/>
       <c r="P307" s="8"/>
     </row>
-    <row r="308" spans="1:16" ht="15.75">
+    <row r="308" spans="1:16" ht="15.75" hidden="1">
       <c r="A308" s="2">
         <v>7</v>
       </c>
@@ -16917,7 +16923,7 @@
       <c r="O308" s="7"/>
       <c r="P308" s="8"/>
     </row>
-    <row r="309" spans="1:16" ht="15.75">
+    <row r="309" spans="1:16" ht="15.75" hidden="1">
       <c r="A309" s="2">
         <v>7</v>
       </c>
@@ -16959,7 +16965,7 @@
       <c r="O309" s="7"/>
       <c r="P309" s="8"/>
     </row>
-    <row r="310" spans="1:16" ht="15.75">
+    <row r="310" spans="1:16" ht="15.75" hidden="1">
       <c r="A310" s="2">
         <v>7</v>
       </c>
@@ -17001,7 +17007,7 @@
       <c r="O310" s="7"/>
       <c r="P310" s="8"/>
     </row>
-    <row r="311" spans="1:16" ht="15.75">
+    <row r="311" spans="1:16" ht="15.75" hidden="1">
       <c r="A311" s="2">
         <v>7</v>
       </c>
@@ -17043,7 +17049,7 @@
       <c r="O311" s="7"/>
       <c r="P311" s="8"/>
     </row>
-    <row r="312" spans="1:16" ht="15.75">
+    <row r="312" spans="1:16" ht="15.75" hidden="1">
       <c r="A312" s="2">
         <v>7</v>
       </c>
@@ -17085,7 +17091,7 @@
       <c r="O312" s="7"/>
       <c r="P312" s="8"/>
     </row>
-    <row r="313" spans="1:16" ht="15.75">
+    <row r="313" spans="1:16" ht="15.75" hidden="1">
       <c r="A313" s="2">
         <v>7</v>
       </c>
@@ -17127,7 +17133,7 @@
       <c r="O313" s="7"/>
       <c r="P313" s="8"/>
     </row>
-    <row r="314" spans="1:16" ht="15.75">
+    <row r="314" spans="1:16" ht="15.75" hidden="1">
       <c r="A314" s="2">
         <v>7</v>
       </c>
@@ -17169,7 +17175,7 @@
       <c r="O314" s="7"/>
       <c r="P314" s="8"/>
     </row>
-    <row r="315" spans="1:16" ht="15.75">
+    <row r="315" spans="1:16" ht="15.75" hidden="1">
       <c r="A315" s="2">
         <v>7</v>
       </c>
@@ -17211,7 +17217,7 @@
       <c r="O315" s="7"/>
       <c r="P315" s="8"/>
     </row>
-    <row r="316" spans="1:16" ht="15.75">
+    <row r="316" spans="1:16" ht="15.75" hidden="1">
       <c r="A316" s="2">
         <v>7</v>
       </c>
@@ -17253,7 +17259,7 @@
       <c r="O316" s="7"/>
       <c r="P316" s="8"/>
     </row>
-    <row r="317" spans="1:16" ht="15.75">
+    <row r="317" spans="1:16" ht="15.75" hidden="1">
       <c r="A317" s="2">
         <v>7</v>
       </c>
@@ -17295,7 +17301,7 @@
       <c r="O317" s="7"/>
       <c r="P317" s="8"/>
     </row>
-    <row r="318" spans="1:16" ht="15.75">
+    <row r="318" spans="1:16" ht="15.75" hidden="1">
       <c r="A318" s="2">
         <v>7</v>
       </c>
@@ -17337,7 +17343,7 @@
       <c r="O318" s="7"/>
       <c r="P318" s="8"/>
     </row>
-    <row r="319" spans="1:16" ht="15.75">
+    <row r="319" spans="1:16" ht="15.75" hidden="1">
       <c r="A319" s="2">
         <v>7</v>
       </c>
@@ -17379,7 +17385,7 @@
       <c r="O319" s="7"/>
       <c r="P319" s="8"/>
     </row>
-    <row r="320" spans="1:16" ht="15.75">
+    <row r="320" spans="1:16" ht="15.75" hidden="1">
       <c r="A320" s="2">
         <v>7</v>
       </c>
@@ -17421,7 +17427,7 @@
       <c r="O320" s="7"/>
       <c r="P320" s="8"/>
     </row>
-    <row r="321" spans="1:16" ht="15.75">
+    <row r="321" spans="1:16" ht="15.75" hidden="1">
       <c r="A321" s="2">
         <v>7</v>
       </c>
@@ -17463,7 +17469,7 @@
       <c r="O321" s="7"/>
       <c r="P321" s="8"/>
     </row>
-    <row r="322" spans="1:16" ht="15.75">
+    <row r="322" spans="1:16" ht="15.75" hidden="1">
       <c r="A322" s="2">
         <v>7</v>
       </c>
@@ -17505,7 +17511,7 @@
       <c r="O322" s="7"/>
       <c r="P322" s="8"/>
     </row>
-    <row r="323" spans="1:16" ht="15.75">
+    <row r="323" spans="1:16" ht="15.75" hidden="1">
       <c r="A323" s="2">
         <v>7</v>
       </c>
@@ -17547,7 +17553,7 @@
       <c r="O323" s="7"/>
       <c r="P323" s="8"/>
     </row>
-    <row r="324" spans="1:16" ht="15.75">
+    <row r="324" spans="1:16" ht="15.75" hidden="1">
       <c r="A324" s="2">
         <v>7</v>
       </c>
@@ -17589,7 +17595,7 @@
       <c r="O324" s="7"/>
       <c r="P324" s="8"/>
     </row>
-    <row r="325" spans="1:16" ht="15.75">
+    <row r="325" spans="1:16" ht="15.75" hidden="1">
       <c r="A325" s="2">
         <v>7</v>
       </c>
@@ -17631,7 +17637,7 @@
       <c r="O325" s="7"/>
       <c r="P325" s="8"/>
     </row>
-    <row r="326" spans="1:16" ht="15.75">
+    <row r="326" spans="1:16" ht="15.75" hidden="1">
       <c r="A326" s="2">
         <v>7</v>
       </c>
@@ -17673,7 +17679,7 @@
       <c r="O326" s="7"/>
       <c r="P326" s="8"/>
     </row>
-    <row r="327" spans="1:16" ht="15.75">
+    <row r="327" spans="1:16" ht="15.75" hidden="1">
       <c r="A327" s="2">
         <v>7</v>
       </c>
@@ -17715,7 +17721,7 @@
       <c r="O327" s="7"/>
       <c r="P327" s="8"/>
     </row>
-    <row r="328" spans="1:16" ht="15.75">
+    <row r="328" spans="1:16" ht="15.75" hidden="1">
       <c r="A328" s="2">
         <v>7</v>
       </c>
@@ -17757,7 +17763,7 @@
       <c r="O328" s="7"/>
       <c r="P328" s="8"/>
     </row>
-    <row r="329" spans="1:16" ht="15.75">
+    <row r="329" spans="1:16" ht="15.75" hidden="1">
       <c r="A329" s="2">
         <v>7</v>
       </c>
@@ -17799,7 +17805,7 @@
       <c r="O329" s="7"/>
       <c r="P329" s="8"/>
     </row>
-    <row r="330" spans="1:16" ht="15.75">
+    <row r="330" spans="1:16" ht="15.75" hidden="1">
       <c r="A330" s="2">
         <v>7</v>
       </c>
@@ -17841,7 +17847,7 @@
       <c r="O330" s="7"/>
       <c r="P330" s="8"/>
     </row>
-    <row r="331" spans="1:16" ht="15.75">
+    <row r="331" spans="1:16" ht="15.75" hidden="1">
       <c r="A331" s="2">
         <v>7</v>
       </c>
@@ -17883,7 +17889,7 @@
       <c r="O331" s="7"/>
       <c r="P331" s="8"/>
     </row>
-    <row r="332" spans="1:16" ht="15.75">
+    <row r="332" spans="1:16" ht="15.75" hidden="1">
       <c r="A332" s="2">
         <v>7</v>
       </c>
@@ -17925,7 +17931,7 @@
       <c r="O332" s="7"/>
       <c r="P332" s="8"/>
     </row>
-    <row r="333" spans="1:16" ht="15.75">
+    <row r="333" spans="1:16" ht="15.75" hidden="1">
       <c r="A333" s="2">
         <v>7</v>
       </c>
@@ -17967,7 +17973,7 @@
       <c r="O333" s="7"/>
       <c r="P333" s="8"/>
     </row>
-    <row r="334" spans="1:16" ht="15.75">
+    <row r="334" spans="1:16" ht="15.75" hidden="1">
       <c r="A334" s="2">
         <v>7</v>
       </c>
@@ -18009,7 +18015,7 @@
       <c r="O334" s="7"/>
       <c r="P334" s="8"/>
     </row>
-    <row r="335" spans="1:16" ht="15.75">
+    <row r="335" spans="1:16" ht="15.75" hidden="1">
       <c r="A335" s="2">
         <v>7</v>
       </c>
@@ -18051,7 +18057,7 @@
       <c r="O335" s="7"/>
       <c r="P335" s="8"/>
     </row>
-    <row r="336" spans="1:16" ht="15.75">
+    <row r="336" spans="1:16" ht="15.75" hidden="1">
       <c r="A336" s="2">
         <v>7</v>
       </c>
@@ -18093,7 +18099,7 @@
       <c r="O336" s="7"/>
       <c r="P336" s="8"/>
     </row>
-    <row r="337" spans="1:16" ht="15.75">
+    <row r="337" spans="1:16" ht="15.75" hidden="1">
       <c r="A337" s="2">
         <v>7</v>
       </c>
@@ -18135,7 +18141,7 @@
       <c r="O337" s="7"/>
       <c r="P337" s="8"/>
     </row>
-    <row r="338" spans="1:16" ht="15.75">
+    <row r="338" spans="1:16" ht="15.75" hidden="1">
       <c r="A338" s="2">
         <v>7</v>
       </c>
@@ -18177,7 +18183,7 @@
       <c r="O338" s="7"/>
       <c r="P338" s="8"/>
     </row>
-    <row r="339" spans="1:16" ht="15.75">
+    <row r="339" spans="1:16" ht="15.75" hidden="1">
       <c r="A339" s="2">
         <v>7</v>
       </c>
@@ -18219,7 +18225,7 @@
       <c r="O339" s="7"/>
       <c r="P339" s="8"/>
     </row>
-    <row r="340" spans="1:16" ht="15.75">
+    <row r="340" spans="1:16" ht="15.75" hidden="1">
       <c r="A340" s="2">
         <v>7</v>
       </c>
@@ -18261,7 +18267,7 @@
       <c r="O340" s="7"/>
       <c r="P340" s="8"/>
     </row>
-    <row r="341" spans="1:16" ht="15.75">
+    <row r="341" spans="1:16" ht="15.75" hidden="1">
       <c r="A341" s="2">
         <v>7</v>
       </c>
@@ -18303,7 +18309,7 @@
       <c r="O341" s="7"/>
       <c r="P341" s="8"/>
     </row>
-    <row r="342" spans="1:16" ht="15.75">
+    <row r="342" spans="1:16" ht="15.75" hidden="1">
       <c r="A342" s="2">
         <v>7</v>
       </c>
@@ -18345,7 +18351,7 @@
       <c r="O342" s="7"/>
       <c r="P342" s="8"/>
     </row>
-    <row r="343" spans="1:16" ht="15.75">
+    <row r="343" spans="1:16" ht="15.75" hidden="1">
       <c r="A343" s="2">
         <v>7</v>
       </c>
@@ -18387,7 +18393,7 @@
       <c r="O343" s="7"/>
       <c r="P343" s="8"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75">
+    <row r="344" spans="1:16" ht="15.75" hidden="1">
       <c r="A344" s="2">
         <v>7</v>
       </c>
@@ -18429,7 +18435,7 @@
       <c r="O344" s="7"/>
       <c r="P344" s="8"/>
     </row>
-    <row r="345" spans="1:16" ht="15.75">
+    <row r="345" spans="1:16" ht="15.75" hidden="1">
       <c r="A345" s="2">
         <v>7</v>
       </c>
@@ -18471,7 +18477,7 @@
       <c r="O345" s="7"/>
       <c r="P345" s="8"/>
     </row>
-    <row r="346" spans="1:16" ht="15.75">
+    <row r="346" spans="1:16" ht="15.75" hidden="1">
       <c r="A346" s="2">
         <v>7</v>
       </c>
@@ -18513,7 +18519,7 @@
       <c r="O346" s="7"/>
       <c r="P346" s="8"/>
     </row>
-    <row r="347" spans="1:16" ht="15.75">
+    <row r="347" spans="1:16" ht="15.75" hidden="1">
       <c r="A347" s="2">
         <v>7</v>
       </c>
@@ -18555,7 +18561,7 @@
       <c r="O347" s="7"/>
       <c r="P347" s="8"/>
     </row>
-    <row r="348" spans="1:16" ht="15.75">
+    <row r="348" spans="1:16" ht="15.75" hidden="1">
       <c r="A348" s="2">
         <v>7</v>
       </c>
@@ -18597,7 +18603,7 @@
       <c r="O348" s="7"/>
       <c r="P348" s="8"/>
     </row>
-    <row r="349" spans="1:16" ht="15.75">
+    <row r="349" spans="1:16" ht="15.75" hidden="1">
       <c r="A349" s="2">
         <v>7</v>
       </c>
@@ -18639,7 +18645,7 @@
       <c r="O349" s="7"/>
       <c r="P349" s="8"/>
     </row>
-    <row r="350" spans="1:16" ht="15.75">
+    <row r="350" spans="1:16" ht="15.75" hidden="1">
       <c r="A350" s="2">
         <v>7</v>
       </c>
@@ -18681,7 +18687,7 @@
       <c r="O350" s="7"/>
       <c r="P350" s="8"/>
     </row>
-    <row r="351" spans="1:16" ht="15.75">
+    <row r="351" spans="1:16" ht="15.75" hidden="1">
       <c r="A351" s="2">
         <v>7</v>
       </c>
@@ -18723,7 +18729,7 @@
       <c r="O351" s="7"/>
       <c r="P351" s="8"/>
     </row>
-    <row r="352" spans="1:16" ht="15.75">
+    <row r="352" spans="1:16" ht="15.75" hidden="1">
       <c r="A352" s="2">
         <v>7</v>
       </c>
@@ -18765,7 +18771,7 @@
       <c r="O352" s="7"/>
       <c r="P352" s="8"/>
     </row>
-    <row r="353" spans="1:16" ht="15.75">
+    <row r="353" spans="1:16" ht="15.75" hidden="1">
       <c r="A353" s="2">
         <v>7</v>
       </c>
@@ -18807,7 +18813,7 @@
       <c r="O353" s="7"/>
       <c r="P353" s="8"/>
     </row>
-    <row r="354" spans="1:16" ht="15.75">
+    <row r="354" spans="1:16" ht="15.75" hidden="1">
       <c r="A354" s="2">
         <v>7</v>
       </c>
@@ -18849,7 +18855,7 @@
       <c r="O354" s="7"/>
       <c r="P354" s="8"/>
     </row>
-    <row r="355" spans="1:16" ht="15.75">
+    <row r="355" spans="1:16" ht="15.75" hidden="1">
       <c r="A355" s="2">
         <v>7</v>
       </c>
@@ -18891,7 +18897,7 @@
       <c r="O355" s="7"/>
       <c r="P355" s="8"/>
     </row>
-    <row r="356" spans="1:16" ht="15.75">
+    <row r="356" spans="1:16" ht="15.75" hidden="1">
       <c r="A356" s="2">
         <v>7</v>
       </c>
@@ -18933,7 +18939,7 @@
       <c r="O356" s="7"/>
       <c r="P356" s="8"/>
     </row>
-    <row r="357" spans="1:16" ht="15.75">
+    <row r="357" spans="1:16" ht="15.75" hidden="1">
       <c r="A357" s="2">
         <v>7</v>
       </c>
@@ -18975,7 +18981,7 @@
       <c r="O357" s="7"/>
       <c r="P357" s="8"/>
     </row>
-    <row r="358" spans="1:16" ht="15.75">
+    <row r="358" spans="1:16" ht="15.75" hidden="1">
       <c r="A358" s="2">
         <v>7</v>
       </c>
@@ -19017,7 +19023,7 @@
       <c r="O358" s="7"/>
       <c r="P358" s="8"/>
     </row>
-    <row r="359" spans="1:16" ht="15.75">
+    <row r="359" spans="1:16" ht="15.75" hidden="1">
       <c r="A359" s="2">
         <v>7</v>
       </c>
@@ -19059,7 +19065,7 @@
       <c r="O359" s="7"/>
       <c r="P359" s="8"/>
     </row>
-    <row r="360" spans="1:16" ht="15.75">
+    <row r="360" spans="1:16" ht="15.75" hidden="1">
       <c r="A360" s="2">
         <v>7</v>
       </c>
@@ -19101,7 +19107,7 @@
       <c r="O360" s="7"/>
       <c r="P360" s="8"/>
     </row>
-    <row r="361" spans="1:16" ht="78.75">
+    <row r="361" spans="1:16" ht="78.75" hidden="1">
       <c r="A361" s="2">
         <v>8</v>
       </c>
@@ -19149,7 +19155,7 @@
       </c>
       <c r="P361" s="8"/>
     </row>
-    <row r="362" spans="1:16" ht="78.75">
+    <row r="362" spans="1:16" ht="78.75" hidden="1">
       <c r="A362" s="2">
         <v>8</v>
       </c>
@@ -19197,7 +19203,7 @@
       </c>
       <c r="P362" s="8"/>
     </row>
-    <row r="363" spans="1:16" ht="78.75">
+    <row r="363" spans="1:16" ht="78.75" hidden="1">
       <c r="A363" s="2">
         <v>8</v>
       </c>
@@ -19245,7 +19251,7 @@
       </c>
       <c r="P363" s="8"/>
     </row>
-    <row r="364" spans="1:16" ht="78.75">
+    <row r="364" spans="1:16" ht="78.75" hidden="1">
       <c r="A364" s="2">
         <v>8</v>
       </c>
@@ -19293,7 +19299,7 @@
       </c>
       <c r="P364" s="8"/>
     </row>
-    <row r="365" spans="1:16" ht="78.75">
+    <row r="365" spans="1:16" ht="78.75" hidden="1">
       <c r="A365" s="2">
         <v>8</v>
       </c>
@@ -19341,7 +19347,7 @@
       </c>
       <c r="P365" s="8"/>
     </row>
-    <row r="366" spans="1:16" ht="78.75">
+    <row r="366" spans="1:16" ht="78.75" hidden="1">
       <c r="A366" s="2">
         <v>8</v>
       </c>
@@ -19389,7 +19395,7 @@
       </c>
       <c r="P366" s="8"/>
     </row>
-    <row r="367" spans="1:16" ht="78.75">
+    <row r="367" spans="1:16" ht="78.75" hidden="1">
       <c r="A367" s="2">
         <v>8</v>
       </c>
@@ -19437,7 +19443,7 @@
       </c>
       <c r="P367" s="8"/>
     </row>
-    <row r="368" spans="1:16" ht="78.75">
+    <row r="368" spans="1:16" ht="78.75" hidden="1">
       <c r="A368" s="2">
         <v>8</v>
       </c>
@@ -19485,7 +19491,7 @@
       </c>
       <c r="P368" s="8"/>
     </row>
-    <row r="369" spans="1:16" ht="78.75">
+    <row r="369" spans="1:16" ht="78.75" hidden="1">
       <c r="A369" s="2">
         <v>8</v>
       </c>
@@ -19533,7 +19539,7 @@
       </c>
       <c r="P369" s="8"/>
     </row>
-    <row r="370" spans="1:16" ht="78.75">
+    <row r="370" spans="1:16" ht="78.75" hidden="1">
       <c r="A370" s="2">
         <v>8</v>
       </c>
@@ -19581,7 +19587,7 @@
       </c>
       <c r="P370" s="8"/>
     </row>
-    <row r="371" spans="1:16" ht="78.75">
+    <row r="371" spans="1:16" ht="78.75" hidden="1">
       <c r="A371" s="2">
         <v>8</v>
       </c>
@@ -19629,7 +19635,7 @@
       </c>
       <c r="P371" s="8"/>
     </row>
-    <row r="372" spans="1:16" ht="78.75">
+    <row r="372" spans="1:16" ht="78.75" hidden="1">
       <c r="A372" s="2">
         <v>8</v>
       </c>
@@ -19677,7 +19683,7 @@
       </c>
       <c r="P372" s="8"/>
     </row>
-    <row r="373" spans="1:16" ht="78.75">
+    <row r="373" spans="1:16" ht="78.75" hidden="1">
       <c r="A373" s="2">
         <v>8</v>
       </c>
@@ -19725,7 +19731,7 @@
       </c>
       <c r="P373" s="8"/>
     </row>
-    <row r="374" spans="1:16" ht="78.75">
+    <row r="374" spans="1:16" ht="78.75" hidden="1">
       <c r="A374" s="2">
         <v>8</v>
       </c>
@@ -19773,7 +19779,7 @@
       </c>
       <c r="P374" s="8"/>
     </row>
-    <row r="375" spans="1:16" ht="78.75">
+    <row r="375" spans="1:16" ht="78.75" hidden="1">
       <c r="A375" s="2">
         <v>8</v>
       </c>
@@ -19821,7 +19827,7 @@
       </c>
       <c r="P375" s="8"/>
     </row>
-    <row r="376" spans="1:16" ht="78.75">
+    <row r="376" spans="1:16" ht="78.75" hidden="1">
       <c r="A376" s="2">
         <v>8</v>
       </c>
@@ -19869,7 +19875,7 @@
       </c>
       <c r="P376" s="8"/>
     </row>
-    <row r="377" spans="1:16" ht="78.75">
+    <row r="377" spans="1:16" ht="78.75" hidden="1">
       <c r="A377" s="2">
         <v>8</v>
       </c>
@@ -19917,7 +19923,7 @@
       </c>
       <c r="P377" s="8"/>
     </row>
-    <row r="378" spans="1:16" ht="78.75">
+    <row r="378" spans="1:16" ht="78.75" hidden="1">
       <c r="A378" s="2">
         <v>8</v>
       </c>
@@ -19965,7 +19971,7 @@
       </c>
       <c r="P378" s="8"/>
     </row>
-    <row r="379" spans="1:16" ht="78.75">
+    <row r="379" spans="1:16" ht="78.75" hidden="1">
       <c r="A379" s="2">
         <v>8</v>
       </c>
@@ -20013,7 +20019,7 @@
       </c>
       <c r="P379" s="8"/>
     </row>
-    <row r="380" spans="1:16" ht="78.75">
+    <row r="380" spans="1:16" ht="78.75" hidden="1">
       <c r="A380" s="2">
         <v>8</v>
       </c>
@@ -20061,7 +20067,7 @@
       </c>
       <c r="P380" s="8"/>
     </row>
-    <row r="381" spans="1:16" ht="78.75">
+    <row r="381" spans="1:16" ht="78.75" hidden="1">
       <c r="A381" s="2">
         <v>8</v>
       </c>
@@ -20109,7 +20115,7 @@
       </c>
       <c r="P381" s="8"/>
     </row>
-    <row r="382" spans="1:16" ht="78.75">
+    <row r="382" spans="1:16" ht="78.75" hidden="1">
       <c r="A382" s="2">
         <v>8</v>
       </c>
@@ -20157,7 +20163,7 @@
       </c>
       <c r="P382" s="8"/>
     </row>
-    <row r="383" spans="1:16" ht="78.75">
+    <row r="383" spans="1:16" ht="78.75" hidden="1">
       <c r="A383" s="2">
         <v>8</v>
       </c>
@@ -20205,7 +20211,7 @@
       </c>
       <c r="P383" s="8"/>
     </row>
-    <row r="384" spans="1:16" ht="78.75">
+    <row r="384" spans="1:16" ht="78.75" hidden="1">
       <c r="A384" s="2">
         <v>8</v>
       </c>
@@ -20253,7 +20259,7 @@
       </c>
       <c r="P384" s="8"/>
     </row>
-    <row r="385" spans="1:16" ht="78.75">
+    <row r="385" spans="1:16" ht="78.75" hidden="1">
       <c r="A385" s="2">
         <v>8</v>
       </c>
@@ -20301,7 +20307,7 @@
       </c>
       <c r="P385" s="8"/>
     </row>
-    <row r="386" spans="1:16" ht="78.75">
+    <row r="386" spans="1:16" ht="78.75" hidden="1">
       <c r="A386" s="2">
         <v>8</v>
       </c>
@@ -20349,7 +20355,7 @@
       </c>
       <c r="P386" s="8"/>
     </row>
-    <row r="387" spans="1:16" ht="78.75">
+    <row r="387" spans="1:16" ht="78.75" hidden="1">
       <c r="A387" s="2">
         <v>8</v>
       </c>
@@ -20397,7 +20403,7 @@
       </c>
       <c r="P387" s="8"/>
     </row>
-    <row r="388" spans="1:16" ht="78.75">
+    <row r="388" spans="1:16" ht="78.75" hidden="1">
       <c r="A388" s="2">
         <v>8</v>
       </c>
@@ -20445,7 +20451,7 @@
       </c>
       <c r="P388" s="8"/>
     </row>
-    <row r="389" spans="1:16" ht="78.75">
+    <row r="389" spans="1:16" ht="78.75" hidden="1">
       <c r="A389" s="2">
         <v>8</v>
       </c>
@@ -20493,7 +20499,7 @@
       </c>
       <c r="P389" s="8"/>
     </row>
-    <row r="390" spans="1:16" ht="78.75">
+    <row r="390" spans="1:16" ht="78.75" hidden="1">
       <c r="A390" s="2">
         <v>8</v>
       </c>
@@ -20541,7 +20547,7 @@
       </c>
       <c r="P390" s="8"/>
     </row>
-    <row r="391" spans="1:16" ht="78.75">
+    <row r="391" spans="1:16" ht="78.75" hidden="1">
       <c r="A391" s="2">
         <v>8</v>
       </c>
@@ -20589,7 +20595,7 @@
       </c>
       <c r="P391" s="8"/>
     </row>
-    <row r="392" spans="1:16" ht="78.75">
+    <row r="392" spans="1:16" ht="78.75" hidden="1">
       <c r="A392" s="2">
         <v>8</v>
       </c>
@@ -20637,7 +20643,7 @@
       </c>
       <c r="P392" s="8"/>
     </row>
-    <row r="393" spans="1:16" ht="78.75">
+    <row r="393" spans="1:16" ht="78.75" hidden="1">
       <c r="A393" s="2">
         <v>8</v>
       </c>
@@ -20685,7 +20691,7 @@
       </c>
       <c r="P393" s="8"/>
     </row>
-    <row r="394" spans="1:16" ht="78.75">
+    <row r="394" spans="1:16" ht="78.75" hidden="1">
       <c r="A394" s="2">
         <v>8</v>
       </c>
@@ -20733,7 +20739,7 @@
       </c>
       <c r="P394" s="8"/>
     </row>
-    <row r="395" spans="1:16" ht="78.75">
+    <row r="395" spans="1:16" ht="78.75" hidden="1">
       <c r="A395" s="2">
         <v>8</v>
       </c>
@@ -20781,7 +20787,7 @@
       </c>
       <c r="P395" s="8"/>
     </row>
-    <row r="396" spans="1:16" ht="78.75">
+    <row r="396" spans="1:16" ht="78.75" hidden="1">
       <c r="A396" s="2">
         <v>8</v>
       </c>
@@ -20829,7 +20835,7 @@
       </c>
       <c r="P396" s="8"/>
     </row>
-    <row r="397" spans="1:16" ht="78.75">
+    <row r="397" spans="1:16" ht="78.75" hidden="1">
       <c r="A397" s="2">
         <v>8</v>
       </c>
@@ -20877,7 +20883,7 @@
       </c>
       <c r="P397" s="8"/>
     </row>
-    <row r="398" spans="1:16" ht="78.75">
+    <row r="398" spans="1:16" ht="78.75" hidden="1">
       <c r="A398" s="2">
         <v>8</v>
       </c>
@@ -20925,7 +20931,7 @@
       </c>
       <c r="P398" s="8"/>
     </row>
-    <row r="399" spans="1:16" ht="78.75">
+    <row r="399" spans="1:16" ht="78.75" hidden="1">
       <c r="A399" s="2">
         <v>8</v>
       </c>
@@ -20973,7 +20979,7 @@
       </c>
       <c r="P399" s="8"/>
     </row>
-    <row r="400" spans="1:16" ht="78.75">
+    <row r="400" spans="1:16" ht="78.75" hidden="1">
       <c r="A400" s="2">
         <v>8</v>
       </c>
@@ -21021,7 +21027,7 @@
       </c>
       <c r="P400" s="8"/>
     </row>
-    <row r="401" spans="1:16" ht="78.75">
+    <row r="401" spans="1:16" ht="78.75" hidden="1">
       <c r="A401" s="2">
         <v>8</v>
       </c>
@@ -21069,7 +21075,7 @@
       </c>
       <c r="P401" s="8"/>
     </row>
-    <row r="402" spans="1:16" ht="78.75">
+    <row r="402" spans="1:16" ht="78.75" hidden="1">
       <c r="A402" s="2">
         <v>8</v>
       </c>
@@ -21117,7 +21123,7 @@
       </c>
       <c r="P402" s="8"/>
     </row>
-    <row r="403" spans="1:16" ht="78.75">
+    <row r="403" spans="1:16" ht="78.75" hidden="1">
       <c r="A403" s="2">
         <v>8</v>
       </c>
@@ -21165,7 +21171,7 @@
       </c>
       <c r="P403" s="8"/>
     </row>
-    <row r="404" spans="1:16" ht="78.75">
+    <row r="404" spans="1:16" ht="78.75" hidden="1">
       <c r="A404" s="2">
         <v>8</v>
       </c>
@@ -21213,7 +21219,7 @@
       </c>
       <c r="P404" s="8"/>
     </row>
-    <row r="405" spans="1:16" ht="78.75">
+    <row r="405" spans="1:16" ht="78.75" hidden="1">
       <c r="A405" s="2">
         <v>8</v>
       </c>
@@ -21261,7 +21267,7 @@
       </c>
       <c r="P405" s="8"/>
     </row>
-    <row r="406" spans="1:16" ht="78.75">
+    <row r="406" spans="1:16" ht="78.75" hidden="1">
       <c r="A406" s="2">
         <v>8</v>
       </c>
@@ -21309,7 +21315,7 @@
       </c>
       <c r="P406" s="8"/>
     </row>
-    <row r="407" spans="1:16" ht="78.75">
+    <row r="407" spans="1:16" ht="78.75" hidden="1">
       <c r="A407" s="2">
         <v>8</v>
       </c>
@@ -21357,7 +21363,7 @@
       </c>
       <c r="P407" s="8"/>
     </row>
-    <row r="408" spans="1:16" ht="78.75">
+    <row r="408" spans="1:16" ht="78.75" hidden="1">
       <c r="A408" s="2">
         <v>8</v>
       </c>
@@ -21405,7 +21411,7 @@
       </c>
       <c r="P408" s="8"/>
     </row>
-    <row r="409" spans="1:16" ht="78.75">
+    <row r="409" spans="1:16" ht="78.75" hidden="1">
       <c r="A409" s="2">
         <v>8</v>
       </c>
@@ -21453,7 +21459,7 @@
       </c>
       <c r="P409" s="8"/>
     </row>
-    <row r="410" spans="1:16" ht="78.75">
+    <row r="410" spans="1:16" ht="78.75" hidden="1">
       <c r="A410" s="2">
         <v>8</v>
       </c>
@@ -21501,7 +21507,7 @@
       </c>
       <c r="P410" s="8"/>
     </row>
-    <row r="411" spans="1:16" ht="78.75">
+    <row r="411" spans="1:16" ht="78.75" hidden="1">
       <c r="A411" s="2">
         <v>8</v>
       </c>
@@ -21549,7 +21555,7 @@
       </c>
       <c r="P411" s="8"/>
     </row>
-    <row r="412" spans="1:16" ht="78.75">
+    <row r="412" spans="1:16" ht="78.75" hidden="1">
       <c r="A412" s="2">
         <v>8</v>
       </c>
@@ -21597,7 +21603,7 @@
       </c>
       <c r="P412" s="8"/>
     </row>
-    <row r="413" spans="1:16" ht="78.75">
+    <row r="413" spans="1:16" ht="78.75" hidden="1">
       <c r="A413" s="2">
         <v>8</v>
       </c>
@@ -21645,7 +21651,7 @@
       </c>
       <c r="P413" s="8"/>
     </row>
-    <row r="414" spans="1:16" ht="78.75">
+    <row r="414" spans="1:16" ht="78.75" hidden="1">
       <c r="A414" s="2">
         <v>8</v>
       </c>
@@ -21693,7 +21699,7 @@
       </c>
       <c r="P414" s="8"/>
     </row>
-    <row r="415" spans="1:16" ht="78.75">
+    <row r="415" spans="1:16" ht="78.75" hidden="1">
       <c r="A415" s="2">
         <v>8</v>
       </c>
@@ -21741,7 +21747,7 @@
       </c>
       <c r="P415" s="8"/>
     </row>
-    <row r="416" spans="1:16" ht="78.75">
+    <row r="416" spans="1:16" ht="78.75" hidden="1">
       <c r="A416" s="2">
         <v>8</v>
       </c>
@@ -21789,7 +21795,7 @@
       </c>
       <c r="P416" s="8"/>
     </row>
-    <row r="417" spans="1:16" ht="78.75">
+    <row r="417" spans="1:16" ht="78.75" hidden="1">
       <c r="A417" s="2">
         <v>8</v>
       </c>
@@ -21837,7 +21843,7 @@
       </c>
       <c r="P417" s="8"/>
     </row>
-    <row r="418" spans="1:16" ht="78.75">
+    <row r="418" spans="1:16" ht="78.75" hidden="1">
       <c r="A418" s="2">
         <v>8</v>
       </c>
@@ -21885,7 +21891,7 @@
       </c>
       <c r="P418" s="8"/>
     </row>
-    <row r="419" spans="1:16" ht="78.75">
+    <row r="419" spans="1:16" ht="78.75" hidden="1">
       <c r="A419" s="2">
         <v>8</v>
       </c>
@@ -21933,7 +21939,7 @@
       </c>
       <c r="P419" s="8"/>
     </row>
-    <row r="420" spans="1:16" ht="78.75">
+    <row r="420" spans="1:16" ht="78.75" hidden="1">
       <c r="A420" s="2">
         <v>8</v>
       </c>
@@ -21981,7 +21987,7 @@
       </c>
       <c r="P420" s="8"/>
     </row>
-    <row r="421" spans="1:16" ht="78.75">
+    <row r="421" spans="1:16" ht="78.75" hidden="1">
       <c r="A421" s="2">
         <v>8</v>
       </c>
@@ -22029,7 +22035,7 @@
       </c>
       <c r="P421" s="8"/>
     </row>
-    <row r="422" spans="1:16" ht="15.75">
+    <row r="422" spans="1:16" ht="15.75" hidden="1">
       <c r="A422" s="2">
         <v>9</v>
       </c>
@@ -22071,7 +22077,7 @@
       <c r="O422" s="7"/>
       <c r="P422" s="8"/>
     </row>
-    <row r="423" spans="1:16" ht="15.75">
+    <row r="423" spans="1:16" ht="15.75" hidden="1">
       <c r="A423" s="2">
         <v>9</v>
       </c>
@@ -22113,7 +22119,7 @@
       <c r="O423" s="7"/>
       <c r="P423" s="8"/>
     </row>
-    <row r="424" spans="1:16" ht="15.75">
+    <row r="424" spans="1:16" ht="15.75" hidden="1">
       <c r="A424" s="2">
         <v>9</v>
       </c>
@@ -22155,7 +22161,7 @@
       <c r="O424" s="7"/>
       <c r="P424" s="8"/>
     </row>
-    <row r="425" spans="1:16" ht="15.75">
+    <row r="425" spans="1:16" ht="15.75" hidden="1">
       <c r="A425" s="2">
         <v>9</v>
       </c>
@@ -22197,7 +22203,7 @@
       <c r="O425" s="7"/>
       <c r="P425" s="8"/>
     </row>
-    <row r="426" spans="1:16" ht="15.75">
+    <row r="426" spans="1:16" ht="15.75" hidden="1">
       <c r="A426" s="2">
         <v>9</v>
       </c>
@@ -22239,7 +22245,7 @@
       <c r="O426" s="7"/>
       <c r="P426" s="8"/>
     </row>
-    <row r="427" spans="1:16" ht="15.75">
+    <row r="427" spans="1:16" ht="15.75" hidden="1">
       <c r="A427" s="2">
         <v>9</v>
       </c>
@@ -22281,7 +22287,7 @@
       <c r="O427" s="7"/>
       <c r="P427" s="8"/>
     </row>
-    <row r="428" spans="1:16" ht="15.75">
+    <row r="428" spans="1:16" ht="15.75" hidden="1">
       <c r="A428" s="2">
         <v>9</v>
       </c>
@@ -22323,7 +22329,7 @@
       <c r="O428" s="7"/>
       <c r="P428" s="8"/>
     </row>
-    <row r="429" spans="1:16" ht="15.75">
+    <row r="429" spans="1:16" ht="15.75" hidden="1">
       <c r="A429" s="2">
         <v>9</v>
       </c>
@@ -22365,7 +22371,7 @@
       <c r="O429" s="7"/>
       <c r="P429" s="8"/>
     </row>
-    <row r="430" spans="1:16" ht="15.75">
+    <row r="430" spans="1:16" ht="15.75" hidden="1">
       <c r="A430" s="2">
         <v>9</v>
       </c>
@@ -22407,7 +22413,7 @@
       <c r="O430" s="7"/>
       <c r="P430" s="8"/>
     </row>
-    <row r="431" spans="1:16" ht="15.75">
+    <row r="431" spans="1:16" ht="15.75" hidden="1">
       <c r="A431" s="2">
         <v>9</v>
       </c>
@@ -22449,7 +22455,7 @@
       <c r="O431" s="7"/>
       <c r="P431" s="8"/>
     </row>
-    <row r="432" spans="1:16" ht="15.75">
+    <row r="432" spans="1:16" ht="15.75" hidden="1">
       <c r="A432" s="2">
         <v>9</v>
       </c>
@@ -22491,7 +22497,7 @@
       <c r="O432" s="7"/>
       <c r="P432" s="8"/>
     </row>
-    <row r="433" spans="1:16" ht="15.75">
+    <row r="433" spans="1:16" ht="15.75" hidden="1">
       <c r="A433" s="2">
         <v>9</v>
       </c>
@@ -22533,7 +22539,7 @@
       <c r="O433" s="7"/>
       <c r="P433" s="8"/>
     </row>
-    <row r="434" spans="1:16" ht="15.75">
+    <row r="434" spans="1:16" ht="15.75" hidden="1">
       <c r="A434" s="2">
         <v>9</v>
       </c>
@@ -22575,7 +22581,7 @@
       <c r="O434" s="7"/>
       <c r="P434" s="8"/>
     </row>
-    <row r="435" spans="1:16" ht="15.75">
+    <row r="435" spans="1:16" ht="15.75" hidden="1">
       <c r="A435" s="2">
         <v>9</v>
       </c>
@@ -22617,7 +22623,7 @@
       <c r="O435" s="7"/>
       <c r="P435" s="8"/>
     </row>
-    <row r="436" spans="1:16" ht="15.75">
+    <row r="436" spans="1:16" ht="15.75" hidden="1">
       <c r="A436" s="2">
         <v>9</v>
       </c>
@@ -22659,7 +22665,7 @@
       <c r="O436" s="7"/>
       <c r="P436" s="8"/>
     </row>
-    <row r="437" spans="1:16" ht="15.75">
+    <row r="437" spans="1:16" ht="15.75" hidden="1">
       <c r="A437" s="2">
         <v>9</v>
       </c>
@@ -22701,7 +22707,7 @@
       <c r="O437" s="7"/>
       <c r="P437" s="8"/>
     </row>
-    <row r="438" spans="1:16" ht="15.75">
+    <row r="438" spans="1:16" ht="15.75" hidden="1">
       <c r="A438" s="2">
         <v>9</v>
       </c>
@@ -22743,7 +22749,7 @@
       <c r="O438" s="7"/>
       <c r="P438" s="8"/>
     </row>
-    <row r="439" spans="1:16" ht="15.75">
+    <row r="439" spans="1:16" ht="15.75" hidden="1">
       <c r="A439" s="2">
         <v>9</v>
       </c>
@@ -22785,7 +22791,7 @@
       <c r="O439" s="7"/>
       <c r="P439" s="8"/>
     </row>
-    <row r="440" spans="1:16" ht="15.75">
+    <row r="440" spans="1:16" ht="15.75" hidden="1">
       <c r="A440" s="2">
         <v>9</v>
       </c>
@@ -22827,7 +22833,7 @@
       <c r="O440" s="7"/>
       <c r="P440" s="8"/>
     </row>
-    <row r="441" spans="1:16" ht="15.75">
+    <row r="441" spans="1:16" ht="15.75" hidden="1">
       <c r="A441" s="2">
         <v>9</v>
       </c>
@@ -22869,7 +22875,7 @@
       <c r="O441" s="7"/>
       <c r="P441" s="8"/>
     </row>
-    <row r="442" spans="1:16" ht="15.75">
+    <row r="442" spans="1:16" ht="15.75" hidden="1">
       <c r="A442" s="2">
         <v>9</v>
       </c>
@@ -22911,7 +22917,7 @@
       <c r="O442" s="7"/>
       <c r="P442" s="8"/>
     </row>
-    <row r="443" spans="1:16" ht="15.75">
+    <row r="443" spans="1:16" ht="15.75" hidden="1">
       <c r="A443" s="2">
         <v>9</v>
       </c>
@@ -22953,7 +22959,7 @@
       <c r="O443" s="7"/>
       <c r="P443" s="8"/>
     </row>
-    <row r="444" spans="1:16" ht="15.75">
+    <row r="444" spans="1:16" ht="15.75" hidden="1">
       <c r="A444" s="2">
         <v>9</v>
       </c>
@@ -22995,7 +23001,7 @@
       <c r="O444" s="7"/>
       <c r="P444" s="8"/>
     </row>
-    <row r="445" spans="1:16" ht="15.75">
+    <row r="445" spans="1:16" ht="15.75" hidden="1">
       <c r="A445" s="2">
         <v>9</v>
       </c>
@@ -23037,7 +23043,7 @@
       <c r="O445" s="7"/>
       <c r="P445" s="8"/>
     </row>
-    <row r="446" spans="1:16" ht="15.75">
+    <row r="446" spans="1:16" ht="15.75" hidden="1">
       <c r="A446" s="2">
         <v>9</v>
       </c>
@@ -23079,7 +23085,7 @@
       <c r="O446" s="7"/>
       <c r="P446" s="8"/>
     </row>
-    <row r="447" spans="1:16" ht="15.75">
+    <row r="447" spans="1:16" ht="15.75" hidden="1">
       <c r="A447" s="2">
         <v>9</v>
       </c>
@@ -23121,7 +23127,7 @@
       <c r="O447" s="7"/>
       <c r="P447" s="8"/>
     </row>
-    <row r="448" spans="1:16" ht="15.75">
+    <row r="448" spans="1:16" ht="15.75" hidden="1">
       <c r="A448" s="2">
         <v>9</v>
       </c>
@@ -23163,7 +23169,7 @@
       <c r="O448" s="7"/>
       <c r="P448" s="8"/>
     </row>
-    <row r="449" spans="1:16" ht="15.75">
+    <row r="449" spans="1:16" ht="15.75" hidden="1">
       <c r="A449" s="2">
         <v>9</v>
       </c>
@@ -23205,7 +23211,7 @@
       <c r="O449" s="7"/>
       <c r="P449" s="8"/>
     </row>
-    <row r="450" spans="1:16" ht="15.75">
+    <row r="450" spans="1:16" ht="15.75" hidden="1">
       <c r="A450" s="2">
         <v>9</v>
       </c>
@@ -23247,7 +23253,7 @@
       <c r="O450" s="7"/>
       <c r="P450" s="8"/>
     </row>
-    <row r="451" spans="1:16" ht="15.75">
+    <row r="451" spans="1:16" ht="15.75" hidden="1">
       <c r="A451" s="2">
         <v>9</v>
       </c>
@@ -23289,7 +23295,7 @@
       <c r="O451" s="7"/>
       <c r="P451" s="8"/>
     </row>
-    <row r="452" spans="1:16" ht="15.75">
+    <row r="452" spans="1:16" ht="15.75" hidden="1">
       <c r="A452" s="2">
         <v>9</v>
       </c>
@@ -23331,7 +23337,7 @@
       <c r="O452" s="7"/>
       <c r="P452" s="8"/>
     </row>
-    <row r="453" spans="1:16" ht="15.75">
+    <row r="453" spans="1:16" ht="15.75" hidden="1">
       <c r="A453" s="2">
         <v>9</v>
       </c>
@@ -23373,7 +23379,7 @@
       <c r="O453" s="7"/>
       <c r="P453" s="8"/>
     </row>
-    <row r="454" spans="1:16" ht="15.75">
+    <row r="454" spans="1:16" ht="15.75" hidden="1">
       <c r="A454" s="2">
         <v>9</v>
       </c>
@@ -23415,7 +23421,7 @@
       <c r="O454" s="7"/>
       <c r="P454" s="8"/>
     </row>
-    <row r="455" spans="1:16" ht="15.75">
+    <row r="455" spans="1:16" ht="15.75" hidden="1">
       <c r="A455" s="2">
         <v>9</v>
       </c>
@@ -23457,7 +23463,7 @@
       <c r="O455" s="7"/>
       <c r="P455" s="8"/>
     </row>
-    <row r="456" spans="1:16" ht="15.75">
+    <row r="456" spans="1:16" ht="15.75" hidden="1">
       <c r="A456" s="2">
         <v>9</v>
       </c>
@@ -23499,7 +23505,7 @@
       <c r="O456" s="7"/>
       <c r="P456" s="8"/>
     </row>
-    <row r="457" spans="1:16" ht="15.75">
+    <row r="457" spans="1:16" ht="15.75" hidden="1">
       <c r="A457" s="2">
         <v>9</v>
       </c>
@@ -23541,7 +23547,7 @@
       <c r="O457" s="7"/>
       <c r="P457" s="8"/>
     </row>
-    <row r="458" spans="1:16" ht="15.75">
+    <row r="458" spans="1:16" ht="15.75" hidden="1">
       <c r="A458" s="2">
         <v>9</v>
       </c>
@@ -23583,7 +23589,7 @@
       <c r="O458" s="7"/>
       <c r="P458" s="8"/>
     </row>
-    <row r="459" spans="1:16" ht="15.75">
+    <row r="459" spans="1:16" ht="15.75" hidden="1">
       <c r="A459" s="2">
         <v>9</v>
       </c>
@@ -23625,7 +23631,7 @@
       <c r="O459" s="7"/>
       <c r="P459" s="8"/>
     </row>
-    <row r="460" spans="1:16" ht="15.75">
+    <row r="460" spans="1:16" ht="15.75" hidden="1">
       <c r="A460" s="2">
         <v>9</v>
       </c>
@@ -23667,7 +23673,7 @@
       <c r="O460" s="7"/>
       <c r="P460" s="8"/>
     </row>
-    <row r="461" spans="1:16" ht="15.75">
+    <row r="461" spans="1:16" ht="15.75" hidden="1">
       <c r="A461" s="2">
         <v>9</v>
       </c>
@@ -23709,7 +23715,7 @@
       <c r="O461" s="7"/>
       <c r="P461" s="8"/>
     </row>
-    <row r="462" spans="1:16" ht="15.75">
+    <row r="462" spans="1:16" ht="15.75" hidden="1">
       <c r="A462" s="2">
         <v>9</v>
       </c>
@@ -23751,7 +23757,7 @@
       <c r="O462" s="7"/>
       <c r="P462" s="8"/>
     </row>
-    <row r="463" spans="1:16" ht="15.75">
+    <row r="463" spans="1:16" ht="15.75" hidden="1">
       <c r="A463" s="2">
         <v>9</v>
       </c>
@@ -23793,7 +23799,7 @@
       <c r="O463" s="7"/>
       <c r="P463" s="8"/>
     </row>
-    <row r="464" spans="1:16" ht="15.75">
+    <row r="464" spans="1:16" ht="15.75" hidden="1">
       <c r="A464" s="2">
         <v>9</v>
       </c>
@@ -23835,7 +23841,7 @@
       <c r="O464" s="7"/>
       <c r="P464" s="8"/>
     </row>
-    <row r="465" spans="1:16" ht="15.75">
+    <row r="465" spans="1:16" ht="15.75" hidden="1">
       <c r="A465" s="2">
         <v>9</v>
       </c>
@@ -23877,7 +23883,7 @@
       <c r="O465" s="7"/>
       <c r="P465" s="8"/>
     </row>
-    <row r="466" spans="1:16" ht="15.75">
+    <row r="466" spans="1:16" ht="15.75" hidden="1">
       <c r="A466" s="2">
         <v>9</v>
       </c>
@@ -23919,7 +23925,7 @@
       <c r="O466" s="7"/>
       <c r="P466" s="8"/>
     </row>
-    <row r="467" spans="1:16" ht="15.75">
+    <row r="467" spans="1:16" ht="15.75" hidden="1">
       <c r="A467" s="2">
         <v>9</v>
       </c>
@@ -23961,7 +23967,7 @@
       <c r="O467" s="7"/>
       <c r="P467" s="8"/>
     </row>
-    <row r="468" spans="1:16" ht="15.75">
+    <row r="468" spans="1:16" ht="15.75" hidden="1">
       <c r="A468" s="2">
         <v>9</v>
       </c>
@@ -24003,7 +24009,7 @@
       <c r="O468" s="7"/>
       <c r="P468" s="8"/>
     </row>
-    <row r="469" spans="1:16" ht="15.75">
+    <row r="469" spans="1:16" ht="15.75" hidden="1">
       <c r="A469" s="2">
         <v>9</v>
       </c>
@@ -24045,7 +24051,7 @@
       <c r="O469" s="7"/>
       <c r="P469" s="8"/>
     </row>
-    <row r="470" spans="1:16" ht="15.75">
+    <row r="470" spans="1:16" ht="15.75" hidden="1">
       <c r="A470" s="2">
         <v>9</v>
       </c>
@@ -24087,7 +24093,7 @@
       <c r="O470" s="7"/>
       <c r="P470" s="8"/>
     </row>
-    <row r="471" spans="1:16" ht="15.75">
+    <row r="471" spans="1:16" ht="15.75" hidden="1">
       <c r="A471" s="2">
         <v>9</v>
       </c>
@@ -24129,7 +24135,7 @@
       <c r="O471" s="7"/>
       <c r="P471" s="8"/>
     </row>
-    <row r="472" spans="1:16" ht="15.75">
+    <row r="472" spans="1:16" ht="15.75" hidden="1">
       <c r="A472" s="2">
         <v>9</v>
       </c>
@@ -24171,7 +24177,7 @@
       <c r="O472" s="7"/>
       <c r="P472" s="8"/>
     </row>
-    <row r="473" spans="1:16" ht="15.75">
+    <row r="473" spans="1:16" ht="15.75" hidden="1">
       <c r="A473" s="2">
         <v>9</v>
       </c>
@@ -24213,7 +24219,7 @@
       <c r="O473" s="7"/>
       <c r="P473" s="8"/>
     </row>
-    <row r="474" spans="1:16" ht="15.75">
+    <row r="474" spans="1:16" ht="15.75" hidden="1">
       <c r="A474" s="2">
         <v>9</v>
       </c>
@@ -24255,7 +24261,7 @@
       <c r="O474" s="7"/>
       <c r="P474" s="8"/>
     </row>
-    <row r="475" spans="1:16" ht="15.75">
+    <row r="475" spans="1:16" ht="15.75" hidden="1">
       <c r="A475" s="2">
         <v>9</v>
       </c>
@@ -24297,7 +24303,7 @@
       <c r="O475" s="7"/>
       <c r="P475" s="8"/>
     </row>
-    <row r="476" spans="1:16" ht="15.75">
+    <row r="476" spans="1:16" ht="15.75" hidden="1">
       <c r="A476" s="2">
         <v>9</v>
       </c>
@@ -24339,7 +24345,7 @@
       <c r="O476" s="7"/>
       <c r="P476" s="8"/>
     </row>
-    <row r="477" spans="1:16" ht="15.75">
+    <row r="477" spans="1:16" ht="15.75" hidden="1">
       <c r="A477" s="2">
         <v>9</v>
       </c>
@@ -24381,7 +24387,7 @@
       <c r="O477" s="7"/>
       <c r="P477" s="8"/>
     </row>
-    <row r="478" spans="1:16" ht="15.75">
+    <row r="478" spans="1:16" ht="15.75" hidden="1">
       <c r="A478" s="2">
         <v>9</v>
       </c>
@@ -24423,7 +24429,7 @@
       <c r="O478" s="7"/>
       <c r="P478" s="8"/>
     </row>
-    <row r="479" spans="1:16" ht="15.75">
+    <row r="479" spans="1:16" ht="15.75" hidden="1">
       <c r="A479" s="2">
         <v>9</v>
       </c>
@@ -24465,7 +24471,7 @@
       <c r="O479" s="7"/>
       <c r="P479" s="8"/>
     </row>
-    <row r="480" spans="1:16" ht="15.75">
+    <row r="480" spans="1:16" ht="15.75" hidden="1">
       <c r="A480" s="2">
         <v>9</v>
       </c>
@@ -24507,7 +24513,7 @@
       <c r="O480" s="7"/>
       <c r="P480" s="8"/>
     </row>
-    <row r="481" spans="1:16" ht="15.75">
+    <row r="481" spans="1:16" ht="15.75" hidden="1">
       <c r="A481" s="2">
         <v>9</v>
       </c>
@@ -24549,7 +24555,7 @@
       <c r="O481" s="7"/>
       <c r="P481" s="8"/>
     </row>
-    <row r="482" spans="1:16" ht="15.75">
+    <row r="482" spans="1:16" ht="15.75" hidden="1">
       <c r="A482" s="2">
         <v>9</v>
       </c>
@@ -24591,7 +24597,7 @@
       <c r="O482" s="7"/>
       <c r="P482" s="8"/>
     </row>
-    <row r="483" spans="1:16" ht="15.75">
+    <row r="483" spans="1:16" ht="15.75" hidden="1">
       <c r="A483" s="2">
         <v>9</v>
       </c>
@@ -24633,7 +24639,7 @@
       <c r="O483" s="7"/>
       <c r="P483" s="8"/>
     </row>
-    <row r="484" spans="1:16" ht="15.75">
+    <row r="484" spans="1:16" ht="15.75" hidden="1">
       <c r="A484" s="2">
         <v>9</v>
       </c>
@@ -24675,7 +24681,7 @@
       <c r="O484" s="7"/>
       <c r="P484" s="8"/>
     </row>
-    <row r="485" spans="1:16" ht="15.75">
+    <row r="485" spans="1:16" ht="15.75" hidden="1">
       <c r="A485" s="2">
         <v>9</v>
       </c>
@@ -24717,7 +24723,7 @@
       <c r="O485" s="7"/>
       <c r="P485" s="8"/>
     </row>
-    <row r="486" spans="1:16" ht="15.75">
+    <row r="486" spans="1:16" ht="15.75" hidden="1">
       <c r="A486" s="2">
         <v>9</v>
       </c>
@@ -24759,7 +24765,7 @@
       <c r="O486" s="7"/>
       <c r="P486" s="8"/>
     </row>
-    <row r="487" spans="1:16" ht="15.75">
+    <row r="487" spans="1:16" ht="15.75" hidden="1">
       <c r="A487" s="2">
         <v>9</v>
       </c>
@@ -24801,7 +24807,7 @@
       <c r="O487" s="7"/>
       <c r="P487" s="8"/>
     </row>
-    <row r="488" spans="1:16" ht="15.75">
+    <row r="488" spans="1:16" ht="15.75" hidden="1">
       <c r="A488" s="2">
         <v>9</v>
       </c>
@@ -24843,7 +24849,7 @@
       <c r="O488" s="7"/>
       <c r="P488" s="8"/>
     </row>
-    <row r="489" spans="1:16" ht="15.75">
+    <row r="489" spans="1:16" ht="15.75" hidden="1">
       <c r="A489" s="2">
         <v>9</v>
       </c>
@@ -24885,7 +24891,7 @@
       <c r="O489" s="7"/>
       <c r="P489" s="8"/>
     </row>
-    <row r="490" spans="1:16" ht="15.75">
+    <row r="490" spans="1:16" ht="15.75" hidden="1">
       <c r="A490" s="2">
         <v>9</v>
       </c>
@@ -24927,7 +24933,7 @@
       <c r="O490" s="7"/>
       <c r="P490" s="8"/>
     </row>
-    <row r="491" spans="1:16" ht="15.75">
+    <row r="491" spans="1:16" ht="15.75" hidden="1">
       <c r="A491" s="2">
         <v>9</v>
       </c>
@@ -24969,7 +24975,7 @@
       <c r="O491" s="7"/>
       <c r="P491" s="8"/>
     </row>
-    <row r="492" spans="1:16" ht="15.75">
+    <row r="492" spans="1:16" ht="15.75" hidden="1">
       <c r="A492" s="2">
         <v>9</v>
       </c>
@@ -25011,7 +25017,7 @@
       <c r="O492" s="7"/>
       <c r="P492" s="8"/>
     </row>
-    <row r="493" spans="1:16" ht="15.75">
+    <row r="493" spans="1:16" ht="15.75" hidden="1">
       <c r="A493" s="2">
         <v>9</v>
       </c>
@@ -25053,7 +25059,7 @@
       <c r="O493" s="7"/>
       <c r="P493" s="8"/>
     </row>
-    <row r="494" spans="1:16" ht="15.75">
+    <row r="494" spans="1:16" ht="15.75" hidden="1">
       <c r="A494" s="2">
         <v>9</v>
       </c>
@@ -25095,7 +25101,7 @@
       <c r="O494" s="7"/>
       <c r="P494" s="8"/>
     </row>
-    <row r="495" spans="1:16" ht="15.75">
+    <row r="495" spans="1:16" ht="15.75" hidden="1">
       <c r="A495" s="2">
         <v>9</v>
       </c>
@@ -25137,7 +25143,7 @@
       <c r="O495" s="7"/>
       <c r="P495" s="8"/>
     </row>
-    <row r="496" spans="1:16" ht="15.75">
+    <row r="496" spans="1:16" ht="15.75" hidden="1">
       <c r="A496" s="2">
         <v>9</v>
       </c>
@@ -25179,7 +25185,7 @@
       <c r="O496" s="7"/>
       <c r="P496" s="8"/>
     </row>
-    <row r="497" spans="1:16" ht="15.75">
+    <row r="497" spans="1:16" ht="15.75" hidden="1">
       <c r="A497" s="2">
         <v>9</v>
       </c>
@@ -25221,7 +25227,7 @@
       <c r="O497" s="7"/>
       <c r="P497" s="8"/>
     </row>
-    <row r="498" spans="1:16" ht="15.75">
+    <row r="498" spans="1:16" ht="15.75" hidden="1">
       <c r="A498" s="2">
         <v>9</v>
       </c>
@@ -25263,7 +25269,7 @@
       <c r="O498" s="7"/>
       <c r="P498" s="8"/>
     </row>
-    <row r="499" spans="1:16" ht="15.75">
+    <row r="499" spans="1:16" ht="15.75" hidden="1">
       <c r="A499" s="2">
         <v>9</v>
       </c>
@@ -25305,7 +25311,7 @@
       <c r="O499" s="7"/>
       <c r="P499" s="8"/>
     </row>
-    <row r="500" spans="1:16" ht="15.75">
+    <row r="500" spans="1:16" ht="15.75" hidden="1">
       <c r="A500" s="2">
         <v>9</v>
       </c>
@@ -25347,7 +25353,7 @@
       <c r="O500" s="7"/>
       <c r="P500" s="8"/>
     </row>
-    <row r="501" spans="1:16" ht="15.75">
+    <row r="501" spans="1:16" ht="15.75" hidden="1">
       <c r="A501" s="2">
         <v>9</v>
       </c>
@@ -25389,7 +25395,7 @@
       <c r="O501" s="7"/>
       <c r="P501" s="8"/>
     </row>
-    <row r="502" spans="1:16" ht="15.75">
+    <row r="502" spans="1:16" ht="15.75" hidden="1">
       <c r="A502" s="2">
         <v>9</v>
       </c>
@@ -25431,7 +25437,7 @@
       <c r="O502" s="7"/>
       <c r="P502" s="8"/>
     </row>
-    <row r="503" spans="1:16" ht="15.75">
+    <row r="503" spans="1:16" ht="15.75" hidden="1">
       <c r="A503" s="2">
         <v>9</v>
       </c>
@@ -25473,7 +25479,7 @@
       <c r="O503" s="7"/>
       <c r="P503" s="8"/>
     </row>
-    <row r="504" spans="1:16" ht="15.75">
+    <row r="504" spans="1:16" ht="15.75" hidden="1">
       <c r="A504" s="2">
         <v>9</v>
       </c>
@@ -25515,7 +25521,7 @@
       <c r="O504" s="7"/>
       <c r="P504" s="8"/>
     </row>
-    <row r="505" spans="1:16" ht="15.75">
+    <row r="505" spans="1:16" ht="15.75" hidden="1">
       <c r="A505" s="2">
         <v>9</v>
       </c>
@@ -25557,7 +25563,7 @@
       <c r="O505" s="7"/>
       <c r="P505" s="8"/>
     </row>
-    <row r="506" spans="1:16" ht="15.75">
+    <row r="506" spans="1:16" ht="15.75" hidden="1">
       <c r="A506" s="2">
         <v>9</v>
       </c>
@@ -25599,7 +25605,7 @@
       <c r="O506" s="7"/>
       <c r="P506" s="8"/>
     </row>
-    <row r="507" spans="1:16" ht="15.75">
+    <row r="507" spans="1:16" ht="15.75" hidden="1">
       <c r="A507" s="2">
         <v>9</v>
       </c>
@@ -25641,7 +25647,7 @@
       <c r="O507" s="7"/>
       <c r="P507" s="8"/>
     </row>
-    <row r="508" spans="1:16" ht="15.75">
+    <row r="508" spans="1:16" ht="15.75" hidden="1">
       <c r="A508" s="2">
         <v>9</v>
       </c>
@@ -25683,7 +25689,7 @@
       <c r="O508" s="7"/>
       <c r="P508" s="8"/>
     </row>
-    <row r="509" spans="1:16" ht="15.75">
+    <row r="509" spans="1:16" ht="15.75" hidden="1">
       <c r="A509" s="2">
         <v>9</v>
       </c>
@@ -25725,7 +25731,7 @@
       <c r="O509" s="7"/>
       <c r="P509" s="8"/>
     </row>
-    <row r="510" spans="1:16" ht="15.75">
+    <row r="510" spans="1:16" ht="15.75" hidden="1">
       <c r="A510" s="2">
         <v>9</v>
       </c>
@@ -25767,7 +25773,7 @@
       <c r="O510" s="7"/>
       <c r="P510" s="8"/>
     </row>
-    <row r="511" spans="1:16" ht="15.75">
+    <row r="511" spans="1:16" ht="15.75" hidden="1">
       <c r="A511" s="2">
         <v>9</v>
       </c>
@@ -25809,7 +25815,7 @@
       <c r="O511" s="7"/>
       <c r="P511" s="8"/>
     </row>
-    <row r="512" spans="1:16" ht="15.75">
+    <row r="512" spans="1:16" ht="15.75" hidden="1">
       <c r="A512" s="2">
         <v>9</v>
       </c>
@@ -25851,7 +25857,7 @@
       <c r="O512" s="7"/>
       <c r="P512" s="8"/>
     </row>
-    <row r="513" spans="1:16" ht="15.75">
+    <row r="513" spans="1:16" ht="15.75" hidden="1">
       <c r="A513" s="2">
         <v>9</v>
       </c>
@@ -25893,7 +25899,7 @@
       <c r="O513" s="7"/>
       <c r="P513" s="8"/>
     </row>
-    <row r="514" spans="1:16" ht="15.75">
+    <row r="514" spans="1:16" ht="15.75" hidden="1">
       <c r="A514" s="2">
         <v>9</v>
       </c>
@@ -25935,7 +25941,7 @@
       <c r="O514" s="7"/>
       <c r="P514" s="8"/>
     </row>
-    <row r="515" spans="1:16" ht="15.75">
+    <row r="515" spans="1:16" ht="15.75" hidden="1">
       <c r="A515" s="2">
         <v>9</v>
       </c>
@@ -25977,7 +25983,7 @@
       <c r="O515" s="7"/>
       <c r="P515" s="8"/>
     </row>
-    <row r="516" spans="1:16" ht="15.75">
+    <row r="516" spans="1:16" ht="15.75" hidden="1">
       <c r="A516" s="2">
         <v>9</v>
       </c>
@@ -26019,7 +26025,7 @@
       <c r="O516" s="7"/>
       <c r="P516" s="8"/>
     </row>
-    <row r="517" spans="1:16" ht="15.75">
+    <row r="517" spans="1:16" ht="15.75" hidden="1">
       <c r="A517" s="2">
         <v>9</v>
       </c>
@@ -26061,7 +26067,7 @@
       <c r="O517" s="7"/>
       <c r="P517" s="8"/>
     </row>
-    <row r="518" spans="1:16" ht="15.75">
+    <row r="518" spans="1:16" ht="15.75" hidden="1">
       <c r="A518" s="2">
         <v>9</v>
       </c>
@@ -26103,7 +26109,7 @@
       <c r="O518" s="7"/>
       <c r="P518" s="8"/>
     </row>
-    <row r="519" spans="1:16" ht="15.75">
+    <row r="519" spans="1:16" ht="15.75" hidden="1">
       <c r="A519" s="2">
         <v>9</v>
       </c>
@@ -26145,7 +26151,7 @@
       <c r="O519" s="7"/>
       <c r="P519" s="8"/>
     </row>
-    <row r="520" spans="1:16" ht="15.75">
+    <row r="520" spans="1:16" ht="15.75" hidden="1">
       <c r="A520" s="2">
         <v>10</v>
       </c>
@@ -26187,7 +26193,7 @@
       <c r="O520" s="7"/>
       <c r="P520" s="8"/>
     </row>
-    <row r="521" spans="1:16" ht="15.75">
+    <row r="521" spans="1:16" ht="15.75" hidden="1">
       <c r="A521" s="2">
         <v>10</v>
       </c>
@@ -26229,7 +26235,7 @@
       <c r="O521" s="7"/>
       <c r="P521" s="8"/>
     </row>
-    <row r="522" spans="1:16" ht="15.75">
+    <row r="522" spans="1:16" ht="15.75" hidden="1">
       <c r="A522" s="2">
         <v>10</v>
       </c>
@@ -26271,7 +26277,7 @@
       <c r="O522" s="7"/>
       <c r="P522" s="8"/>
     </row>
-    <row r="523" spans="1:16" ht="15.75">
+    <row r="523" spans="1:16" ht="15.75" hidden="1">
       <c r="A523" s="2">
         <v>10</v>
       </c>
@@ -26313,7 +26319,7 @@
       <c r="O523" s="7"/>
       <c r="P523" s="8"/>
     </row>
-    <row r="524" spans="1:16" ht="15.75">
+    <row r="524" spans="1:16" ht="15.75" hidden="1">
       <c r="A524" s="2">
         <v>11</v>
       </c>
@@ -26355,7 +26361,7 @@
       <c r="O524" s="7"/>
       <c r="P524" s="8"/>
     </row>
-    <row r="525" spans="1:16" ht="15.75">
+    <row r="525" spans="1:16" ht="15.75" hidden="1">
       <c r="A525" s="2">
         <v>11</v>
       </c>
@@ -26397,7 +26403,7 @@
       <c r="O525" s="7"/>
       <c r="P525" s="8"/>
     </row>
-    <row r="526" spans="1:16" ht="15.75">
+    <row r="526" spans="1:16" ht="15.75" hidden="1">
       <c r="A526" s="2">
         <v>11</v>
       </c>
@@ -26439,7 +26445,7 @@
       <c r="O526" s="7"/>
       <c r="P526" s="8"/>
     </row>
-    <row r="527" spans="1:16" ht="15.75">
+    <row r="527" spans="1:16" ht="15.75" hidden="1">
       <c r="A527" s="2">
         <v>11</v>
       </c>
@@ -26481,7 +26487,7 @@
       <c r="O527" s="7"/>
       <c r="P527" s="8"/>
     </row>
-    <row r="528" spans="1:16" ht="15.75">
+    <row r="528" spans="1:16" ht="15.75" hidden="1">
       <c r="A528" s="2">
         <v>11</v>
       </c>
@@ -26523,7 +26529,7 @@
       <c r="O528" s="7"/>
       <c r="P528" s="8"/>
     </row>
-    <row r="529" spans="1:16" ht="15.75">
+    <row r="529" spans="1:16" ht="15.75" hidden="1">
       <c r="A529" s="2">
         <v>12</v>
       </c>
@@ -26565,7 +26571,7 @@
       <c r="O529" s="7"/>
       <c r="P529" s="8"/>
     </row>
-    <row r="530" spans="1:16" ht="15.75">
+    <row r="530" spans="1:16" ht="15.75" hidden="1">
       <c r="A530" s="2">
         <v>12</v>
       </c>
@@ -26607,7 +26613,7 @@
       <c r="O530" s="7"/>
       <c r="P530" s="8"/>
     </row>
-    <row r="531" spans="1:16" ht="15.75">
+    <row r="531" spans="1:16" ht="15.75" hidden="1">
       <c r="A531" s="2">
         <v>12</v>
       </c>
@@ -26649,7 +26655,7 @@
       <c r="O531" s="7"/>
       <c r="P531" s="8"/>
     </row>
-    <row r="532" spans="1:16" ht="15.75">
+    <row r="532" spans="1:16" ht="15.75" hidden="1">
       <c r="A532" s="2">
         <v>12</v>
       </c>
@@ -26691,7 +26697,7 @@
       <c r="O532" s="7"/>
       <c r="P532" s="8"/>
     </row>
-    <row r="533" spans="1:16" ht="15.75">
+    <row r="533" spans="1:16" ht="15.75" hidden="1">
       <c r="A533" s="2">
         <v>12</v>
       </c>
@@ -26733,7 +26739,7 @@
       <c r="O533" s="7"/>
       <c r="P533" s="8"/>
     </row>
-    <row r="534" spans="1:16" ht="15.75">
+    <row r="534" spans="1:16" ht="15.75" hidden="1">
       <c r="A534" s="2">
         <v>12</v>
       </c>
@@ -26775,7 +26781,7 @@
       <c r="O534" s="7"/>
       <c r="P534" s="8"/>
     </row>
-    <row r="535" spans="1:16" ht="15.75">
+    <row r="535" spans="1:16" ht="15.75" hidden="1">
       <c r="A535" s="2">
         <v>12</v>
       </c>
@@ -26817,7 +26823,7 @@
       <c r="O535" s="7"/>
       <c r="P535" s="8"/>
     </row>
-    <row r="536" spans="1:16" ht="15.75">
+    <row r="536" spans="1:16" ht="15.75" hidden="1">
       <c r="A536" s="2">
         <v>12</v>
       </c>
@@ -26859,7 +26865,7 @@
       <c r="O536" s="7"/>
       <c r="P536" s="8"/>
     </row>
-    <row r="537" spans="1:16" ht="15.75">
+    <row r="537" spans="1:16" ht="15.75" hidden="1">
       <c r="A537" s="2">
         <v>12</v>
       </c>
@@ -26901,7 +26907,7 @@
       <c r="O537" s="7"/>
       <c r="P537" s="8"/>
     </row>
-    <row r="538" spans="1:16" ht="15.75">
+    <row r="538" spans="1:16" ht="15.75" hidden="1">
       <c r="A538" s="2">
         <v>12</v>
       </c>
@@ -26943,7 +26949,7 @@
       <c r="O538" s="7"/>
       <c r="P538" s="8"/>
     </row>
-    <row r="539" spans="1:16" ht="15.75">
+    <row r="539" spans="1:16" ht="15.75" hidden="1">
       <c r="A539" s="2">
         <v>12</v>
       </c>
@@ -26985,7 +26991,7 @@
       <c r="O539" s="7"/>
       <c r="P539" s="8"/>
     </row>
-    <row r="540" spans="1:16" ht="15.75">
+    <row r="540" spans="1:16" ht="15.75" hidden="1">
       <c r="A540" s="2">
         <v>12</v>
       </c>
@@ -27027,7 +27033,7 @@
       <c r="O540" s="7"/>
       <c r="P540" s="8"/>
     </row>
-    <row r="541" spans="1:16" ht="15.75">
+    <row r="541" spans="1:16" ht="15.75" hidden="1">
       <c r="A541" s="2">
         <v>12</v>
       </c>
@@ -27069,7 +27075,7 @@
       <c r="O541" s="7"/>
       <c r="P541" s="8"/>
     </row>
-    <row r="542" spans="1:16" ht="15.75">
+    <row r="542" spans="1:16" ht="15.75" hidden="1">
       <c r="A542" s="2">
         <v>12</v>
       </c>
@@ -27111,7 +27117,7 @@
       <c r="O542" s="7"/>
       <c r="P542" s="8"/>
     </row>
-    <row r="543" spans="1:16" ht="15.75">
+    <row r="543" spans="1:16" ht="15.75" hidden="1">
       <c r="A543" s="2">
         <v>12</v>
       </c>
@@ -27153,7 +27159,7 @@
       <c r="O543" s="7"/>
       <c r="P543" s="8"/>
     </row>
-    <row r="544" spans="1:16" ht="15.75">
+    <row r="544" spans="1:16" ht="15.75" hidden="1">
       <c r="A544" s="2">
         <v>12</v>
       </c>
@@ -27195,7 +27201,7 @@
       <c r="O544" s="7"/>
       <c r="P544" s="8"/>
     </row>
-    <row r="545" spans="1:16" ht="15.75">
+    <row r="545" spans="1:16" ht="15.75" hidden="1">
       <c r="A545" s="2">
         <v>12</v>
       </c>
@@ -27237,7 +27243,7 @@
       <c r="O545" s="7"/>
       <c r="P545" s="8"/>
     </row>
-    <row r="546" spans="1:16" ht="15.75">
+    <row r="546" spans="1:16" ht="15.75" hidden="1">
       <c r="A546" s="2">
         <v>12</v>
       </c>
@@ -27279,7 +27285,7 @@
       <c r="O546" s="7"/>
       <c r="P546" s="8"/>
     </row>
-    <row r="547" spans="1:16" ht="15.75">
+    <row r="547" spans="1:16" ht="15.75" hidden="1">
       <c r="A547" s="2">
         <v>12</v>
       </c>
@@ -27321,7 +27327,7 @@
       <c r="O547" s="7"/>
       <c r="P547" s="8"/>
     </row>
-    <row r="548" spans="1:16" ht="15.75">
+    <row r="548" spans="1:16" ht="15.75" hidden="1">
       <c r="A548" s="2">
         <v>12</v>
       </c>
@@ -27363,7 +27369,7 @@
       <c r="O548" s="7"/>
       <c r="P548" s="8"/>
     </row>
-    <row r="549" spans="1:16" ht="15.75">
+    <row r="549" spans="1:16" ht="15.75" hidden="1">
       <c r="A549" s="2">
         <v>12</v>
       </c>
@@ -27405,7 +27411,7 @@
       <c r="O549" s="7"/>
       <c r="P549" s="8"/>
     </row>
-    <row r="550" spans="1:16" ht="15.75">
+    <row r="550" spans="1:16" ht="15.75" hidden="1">
       <c r="A550" s="2">
         <v>12</v>
       </c>
@@ -27447,7 +27453,7 @@
       <c r="O550" s="7"/>
       <c r="P550" s="8"/>
     </row>
-    <row r="551" spans="1:16" ht="15.75">
+    <row r="551" spans="1:16" ht="15.75" hidden="1">
       <c r="A551" s="2">
         <v>12</v>
       </c>
@@ -27489,7 +27495,7 @@
       <c r="O551" s="7"/>
       <c r="P551" s="8"/>
     </row>
-    <row r="552" spans="1:16" ht="15.75">
+    <row r="552" spans="1:16" ht="15.75" hidden="1">
       <c r="A552" s="2">
         <v>12</v>
       </c>
@@ -27531,7 +27537,7 @@
       <c r="O552" s="7"/>
       <c r="P552" s="8"/>
     </row>
-    <row r="553" spans="1:16" ht="15.75">
+    <row r="553" spans="1:16" ht="15.75" hidden="1">
       <c r="A553" s="2">
         <v>12</v>
       </c>
@@ -27573,7 +27579,7 @@
       <c r="O553" s="7"/>
       <c r="P553" s="8"/>
     </row>
-    <row r="554" spans="1:16" ht="15.75">
+    <row r="554" spans="1:16" ht="15.75" hidden="1">
       <c r="A554" s="2">
         <v>12</v>
       </c>
@@ -27615,7 +27621,7 @@
       <c r="O554" s="7"/>
       <c r="P554" s="8"/>
     </row>
-    <row r="555" spans="1:16" ht="15.75">
+    <row r="555" spans="1:16" ht="15.75" hidden="1">
       <c r="A555" s="2">
         <v>12</v>
       </c>
@@ -27657,7 +27663,7 @@
       <c r="O555" s="7"/>
       <c r="P555" s="8"/>
     </row>
-    <row r="556" spans="1:16" ht="15.75">
+    <row r="556" spans="1:16" ht="15.75" hidden="1">
       <c r="A556" s="2">
         <v>12</v>
       </c>
@@ -27699,7 +27705,7 @@
       <c r="O556" s="7"/>
       <c r="P556" s="8"/>
     </row>
-    <row r="557" spans="1:16" ht="15.75">
+    <row r="557" spans="1:16" ht="15.75" hidden="1">
       <c r="A557" s="2">
         <v>12</v>
       </c>
@@ -27741,7 +27747,7 @@
       <c r="O557" s="7"/>
       <c r="P557" s="8"/>
     </row>
-    <row r="558" spans="1:16" ht="15.75">
+    <row r="558" spans="1:16" ht="15.75" hidden="1">
       <c r="A558" s="2">
         <v>12</v>
       </c>
@@ -27783,7 +27789,7 @@
       <c r="O558" s="7"/>
       <c r="P558" s="8"/>
     </row>
-    <row r="559" spans="1:16" ht="15.75">
+    <row r="559" spans="1:16" ht="15.75" hidden="1">
       <c r="A559" s="2">
         <v>12</v>
       </c>
@@ -27825,7 +27831,7 @@
       <c r="O559" s="7"/>
       <c r="P559" s="8"/>
     </row>
-    <row r="560" spans="1:16" ht="15.75">
+    <row r="560" spans="1:16" ht="15.75" hidden="1">
       <c r="A560" s="2">
         <v>12</v>
       </c>
@@ -27867,7 +27873,7 @@
       <c r="O560" s="7"/>
       <c r="P560" s="8"/>
     </row>
-    <row r="561" spans="1:16" ht="15.75">
+    <row r="561" spans="1:16" ht="15.75" hidden="1">
       <c r="A561" s="2">
         <v>12</v>
       </c>
@@ -27909,7 +27915,7 @@
       <c r="O561" s="7"/>
       <c r="P561" s="8"/>
     </row>
-    <row r="562" spans="1:16" ht="15.75">
+    <row r="562" spans="1:16" ht="15.75" hidden="1">
       <c r="A562" s="2">
         <v>12</v>
       </c>
@@ -27951,7 +27957,7 @@
       <c r="O562" s="7"/>
       <c r="P562" s="8"/>
     </row>
-    <row r="563" spans="1:16" ht="15.75">
+    <row r="563" spans="1:16" ht="15.75" hidden="1">
       <c r="A563" s="2">
         <v>12</v>
       </c>
@@ -27993,7 +27999,7 @@
       <c r="O563" s="7"/>
       <c r="P563" s="8"/>
     </row>
-    <row r="564" spans="1:16" ht="15.75">
+    <row r="564" spans="1:16" ht="15.75" hidden="1">
       <c r="A564" s="2">
         <v>12</v>
       </c>
@@ -28035,7 +28041,7 @@
       <c r="O564" s="7"/>
       <c r="P564" s="8"/>
     </row>
-    <row r="565" spans="1:16" ht="15.75">
+    <row r="565" spans="1:16" ht="15.75" hidden="1">
       <c r="A565" s="2">
         <v>12</v>
       </c>
@@ -28077,7 +28083,7 @@
       <c r="O565" s="7"/>
       <c r="P565" s="8"/>
     </row>
-    <row r="566" spans="1:16" ht="15.75">
+    <row r="566" spans="1:16" ht="15.75" hidden="1">
       <c r="A566" s="2">
         <v>12</v>
       </c>
@@ -28119,7 +28125,7 @@
       <c r="O566" s="7"/>
       <c r="P566" s="8"/>
     </row>
-    <row r="567" spans="1:16" ht="15.75">
+    <row r="567" spans="1:16" ht="15.75" hidden="1">
       <c r="A567" s="2">
         <v>12</v>
       </c>
@@ -28161,7 +28167,7 @@
       <c r="O567" s="7"/>
       <c r="P567" s="8"/>
     </row>
-    <row r="568" spans="1:16" ht="15.75">
+    <row r="568" spans="1:16" ht="15.75" hidden="1">
       <c r="A568" s="2">
         <v>12</v>
       </c>
@@ -28203,7 +28209,7 @@
       <c r="O568" s="7"/>
       <c r="P568" s="8"/>
     </row>
-    <row r="569" spans="1:16" ht="15.75">
+    <row r="569" spans="1:16" ht="15.75" hidden="1">
       <c r="A569" s="2">
         <v>12</v>
       </c>
@@ -28245,7 +28251,7 @@
       <c r="O569" s="7"/>
       <c r="P569" s="8"/>
     </row>
-    <row r="570" spans="1:16" ht="15.75">
+    <row r="570" spans="1:16" ht="15.75" hidden="1">
       <c r="A570" s="2">
         <v>12</v>
       </c>
@@ -28287,7 +28293,7 @@
       <c r="O570" s="7"/>
       <c r="P570" s="8"/>
     </row>
-    <row r="571" spans="1:16" ht="15.75">
+    <row r="571" spans="1:16" ht="15.75" hidden="1">
       <c r="A571" s="2">
         <v>12</v>
       </c>
@@ -28329,7 +28335,7 @@
       <c r="O571" s="7"/>
       <c r="P571" s="8"/>
     </row>
-    <row r="572" spans="1:16" ht="15.75">
+    <row r="572" spans="1:16" ht="15.75" hidden="1">
       <c r="A572" s="2">
         <v>12</v>
       </c>
@@ -28371,7 +28377,7 @@
       <c r="O572" s="7"/>
       <c r="P572" s="8"/>
     </row>
-    <row r="573" spans="1:16" ht="15.75">
+    <row r="573" spans="1:16" ht="15.75" hidden="1">
       <c r="A573" s="2">
         <v>12</v>
       </c>
@@ -28413,7 +28419,7 @@
       <c r="O573" s="7"/>
       <c r="P573" s="8"/>
     </row>
-    <row r="574" spans="1:16" ht="15.75">
+    <row r="574" spans="1:16" ht="15.75" hidden="1">
       <c r="A574" s="2">
         <v>12</v>
       </c>
@@ -28455,7 +28461,7 @@
       <c r="O574" s="7"/>
       <c r="P574" s="8"/>
     </row>
-    <row r="575" spans="1:16" ht="15.75">
+    <row r="575" spans="1:16" ht="15.75" hidden="1">
       <c r="A575" s="2">
         <v>12</v>
       </c>
@@ -28497,7 +28503,7 @@
       <c r="O575" s="7"/>
       <c r="P575" s="8"/>
     </row>
-    <row r="576" spans="1:16" ht="15.75">
+    <row r="576" spans="1:16" ht="15.75" hidden="1">
       <c r="A576" s="2">
         <v>12</v>
       </c>
@@ -28539,7 +28545,7 @@
       <c r="O576" s="7"/>
       <c r="P576" s="8"/>
     </row>
-    <row r="577" spans="1:16" ht="15.75">
+    <row r="577" spans="1:16" ht="15.75" hidden="1">
       <c r="A577" s="2">
         <v>12</v>
       </c>
@@ -28581,7 +28587,7 @@
       <c r="O577" s="7"/>
       <c r="P577" s="8"/>
     </row>
-    <row r="578" spans="1:16" ht="15.75">
+    <row r="578" spans="1:16" ht="15.75" hidden="1">
       <c r="A578" s="2">
         <v>12</v>
       </c>
@@ -28623,7 +28629,7 @@
       <c r="O578" s="7"/>
       <c r="P578" s="8"/>
     </row>
-    <row r="579" spans="1:16" ht="15.75">
+    <row r="579" spans="1:16" ht="15.75" hidden="1">
       <c r="A579" s="2">
         <v>12</v>
       </c>
@@ -28665,7 +28671,7 @@
       <c r="O579" s="7"/>
       <c r="P579" s="8"/>
     </row>
-    <row r="580" spans="1:16" ht="15.75">
+    <row r="580" spans="1:16" ht="15.75" hidden="1">
       <c r="A580" s="2">
         <v>1</v>
       </c>
@@ -28709,7 +28715,7 @@
       <c r="O580" s="7"/>
       <c r="P580" s="8"/>
     </row>
-    <row r="581" spans="1:16" ht="15.75">
+    <row r="581" spans="1:16" ht="15.75" hidden="1">
       <c r="A581" s="2">
         <v>1</v>
       </c>
@@ -28753,7 +28759,7 @@
       <c r="O581" s="7"/>
       <c r="P581" s="8"/>
     </row>
-    <row r="582" spans="1:16" ht="15.75">
+    <row r="582" spans="1:16" ht="15.75" hidden="1">
       <c r="A582" s="2">
         <v>1</v>
       </c>
@@ -28797,7 +28803,7 @@
       <c r="O582" s="7"/>
       <c r="P582" s="8"/>
     </row>
-    <row r="583" spans="1:16" ht="15.75">
+    <row r="583" spans="1:16" ht="15.75" hidden="1">
       <c r="A583" s="2">
         <v>1</v>
       </c>
@@ -28841,7 +28847,7 @@
       <c r="O583" s="7"/>
       <c r="P583" s="8"/>
     </row>
-    <row r="584" spans="1:16" ht="15.75">
+    <row r="584" spans="1:16" ht="15.75" hidden="1">
       <c r="A584" s="2">
         <v>1</v>
       </c>
@@ -28885,7 +28891,7 @@
       <c r="O584" s="7"/>
       <c r="P584" s="8"/>
     </row>
-    <row r="585" spans="1:16" ht="15.75">
+    <row r="585" spans="1:16" ht="15.75" hidden="1">
       <c r="A585" s="2">
         <v>1</v>
       </c>
@@ -28929,7 +28935,7 @@
       <c r="O585" s="7"/>
       <c r="P585" s="8"/>
     </row>
-    <row r="586" spans="1:16" ht="15.75">
+    <row r="586" spans="1:16" ht="15.75" hidden="1">
       <c r="A586" s="2">
         <v>1</v>
       </c>
@@ -28973,7 +28979,7 @@
       <c r="O586" s="7"/>
       <c r="P586" s="8"/>
     </row>
-    <row r="587" spans="1:16" ht="15.75">
+    <row r="587" spans="1:16" ht="15.75" hidden="1">
       <c r="A587" s="2">
         <v>1</v>
       </c>
@@ -29017,7 +29023,7 @@
       <c r="O587" s="7"/>
       <c r="P587" s="8"/>
     </row>
-    <row r="588" spans="1:16" ht="15.75">
+    <row r="588" spans="1:16" ht="15.75" hidden="1">
       <c r="A588" s="2">
         <v>1</v>
       </c>
@@ -29061,7 +29067,7 @@
       <c r="O588" s="7"/>
       <c r="P588" s="8"/>
     </row>
-    <row r="589" spans="1:16" ht="15.75">
+    <row r="589" spans="1:16" ht="15.75" hidden="1">
       <c r="A589" s="2">
         <v>1</v>
       </c>
@@ -29105,7 +29111,7 @@
       <c r="O589" s="7"/>
       <c r="P589" s="8"/>
     </row>
-    <row r="590" spans="1:16" ht="15.75">
+    <row r="590" spans="1:16" ht="15.75" hidden="1">
       <c r="A590" s="2">
         <v>1</v>
       </c>
@@ -29149,7 +29155,7 @@
       <c r="O590" s="7"/>
       <c r="P590" s="8"/>
     </row>
-    <row r="591" spans="1:16" ht="15.75">
+    <row r="591" spans="1:16" ht="15.75" hidden="1">
       <c r="A591" s="2">
         <v>1</v>
       </c>
@@ -29193,7 +29199,7 @@
       <c r="O591" s="7"/>
       <c r="P591" s="8"/>
     </row>
-    <row r="592" spans="1:16" ht="15.75">
+    <row r="592" spans="1:16" ht="15.75" hidden="1">
       <c r="A592" s="2">
         <v>2</v>
       </c>
@@ -29235,7 +29241,7 @@
       <c r="O592" s="7"/>
       <c r="P592" s="8"/>
     </row>
-    <row r="593" spans="1:16" ht="15.75">
+    <row r="593" spans="1:16" ht="15.75" hidden="1">
       <c r="A593" s="2">
         <v>2</v>
       </c>
@@ -29277,7 +29283,7 @@
       <c r="O593" s="7"/>
       <c r="P593" s="8"/>
     </row>
-    <row r="594" spans="1:16" ht="15.75">
+    <row r="594" spans="1:16" ht="15.75" hidden="1">
       <c r="A594" s="2">
         <v>2</v>
       </c>
@@ -29319,7 +29325,7 @@
       <c r="O594" s="7"/>
       <c r="P594" s="8"/>
     </row>
-    <row r="595" spans="1:16" ht="15.75">
+    <row r="595" spans="1:16" ht="15.75" hidden="1">
       <c r="A595" s="2">
         <v>2</v>
       </c>
@@ -29361,7 +29367,7 @@
       <c r="O595" s="7"/>
       <c r="P595" s="8"/>
     </row>
-    <row r="596" spans="1:16" ht="15.75">
+    <row r="596" spans="1:16" ht="15.75" hidden="1">
       <c r="A596" s="2">
         <v>2</v>
       </c>
@@ -29403,7 +29409,7 @@
       <c r="O596" s="7"/>
       <c r="P596" s="8"/>
     </row>
-    <row r="597" spans="1:16" ht="15.75">
+    <row r="597" spans="1:16" ht="15.75" hidden="1">
       <c r="A597" s="2">
         <v>3</v>
       </c>
@@ -29449,7 +29455,7 @@
       </c>
       <c r="P597" s="8"/>
     </row>
-    <row r="598" spans="1:16" ht="15.75">
+    <row r="598" spans="1:16" ht="15.75" hidden="1">
       <c r="A598" s="2">
         <v>3</v>
       </c>
@@ -29495,7 +29501,7 @@
       </c>
       <c r="P598" s="8"/>
     </row>
-    <row r="599" spans="1:16" ht="15.75">
+    <row r="599" spans="1:16" ht="15.75" hidden="1">
       <c r="A599" s="2">
         <v>3</v>
       </c>
@@ -29541,7 +29547,7 @@
       </c>
       <c r="P599" s="8"/>
     </row>
-    <row r="600" spans="1:16" ht="15.75">
+    <row r="600" spans="1:16" ht="15.75" hidden="1">
       <c r="A600" s="2">
         <v>3</v>
       </c>
@@ -29983,7 +29989,7 @@
       <c r="O609" s="7"/>
       <c r="P609" s="8"/>
     </row>
-    <row r="610" spans="1:16" ht="15.75">
+    <row r="610" spans="1:16" ht="15.75" hidden="1">
       <c r="A610" s="2">
         <v>5</v>
       </c>
@@ -30025,7 +30031,7 @@
       <c r="O610" s="7"/>
       <c r="P610" s="8"/>
     </row>
-    <row r="611" spans="1:16" ht="15.75">
+    <row r="611" spans="1:16" ht="15.75" hidden="1">
       <c r="A611" s="2">
         <v>5</v>
       </c>
@@ -30069,7 +30075,7 @@
       </c>
       <c r="P611" s="8"/>
     </row>
-    <row r="612" spans="1:16" ht="15.75">
+    <row r="612" spans="1:16" ht="15.75" hidden="1">
       <c r="A612" s="2">
         <v>5</v>
       </c>
@@ -30111,7 +30117,7 @@
       <c r="O612" s="7"/>
       <c r="P612" s="8"/>
     </row>
-    <row r="613" spans="1:16" ht="15.75">
+    <row r="613" spans="1:16" ht="15.75" hidden="1">
       <c r="A613" s="2">
         <v>5</v>
       </c>
@@ -30153,7 +30159,7 @@
       <c r="O613" s="7"/>
       <c r="P613" s="8"/>
     </row>
-    <row r="614" spans="1:16" ht="15.75">
+    <row r="614" spans="1:16" ht="15.75" hidden="1">
       <c r="A614" s="2">
         <v>5</v>
       </c>
@@ -30195,7 +30201,7 @@
       <c r="O614" s="7"/>
       <c r="P614" s="8"/>
     </row>
-    <row r="615" spans="1:16" ht="15.75">
+    <row r="615" spans="1:16" ht="15.75" hidden="1">
       <c r="A615" s="2">
         <v>5</v>
       </c>
@@ -30237,7 +30243,7 @@
       <c r="O615" s="7"/>
       <c r="P615" s="8"/>
     </row>
-    <row r="616" spans="1:16" ht="15.75">
+    <row r="616" spans="1:16" ht="15.75" hidden="1">
       <c r="A616" s="2">
         <v>5</v>
       </c>
@@ -30279,7 +30285,7 @@
       <c r="O616" s="7"/>
       <c r="P616" s="8"/>
     </row>
-    <row r="617" spans="1:16" ht="15.75">
+    <row r="617" spans="1:16" ht="15.75" hidden="1">
       <c r="A617" s="2">
         <v>5</v>
       </c>
@@ -30321,7 +30327,7 @@
       <c r="O617" s="7"/>
       <c r="P617" s="8"/>
     </row>
-    <row r="618" spans="1:16" ht="15.75">
+    <row r="618" spans="1:16" ht="15.75" hidden="1">
       <c r="A618" s="2">
         <v>5</v>
       </c>
@@ -30363,7 +30369,7 @@
       <c r="O618" s="7"/>
       <c r="P618" s="8"/>
     </row>
-    <row r="619" spans="1:16" ht="15.75">
+    <row r="619" spans="1:16" ht="15.75" hidden="1">
       <c r="A619" s="2">
         <v>5</v>
       </c>
@@ -30405,7 +30411,7 @@
       <c r="O619" s="7"/>
       <c r="P619" s="8"/>
     </row>
-    <row r="620" spans="1:16" ht="15.75">
+    <row r="620" spans="1:16" ht="15.75" hidden="1">
       <c r="A620" s="2">
         <v>5</v>
       </c>
@@ -30447,7 +30453,7 @@
       <c r="O620" s="7"/>
       <c r="P620" s="8"/>
     </row>
-    <row r="621" spans="1:16" ht="15.75">
+    <row r="621" spans="1:16" ht="15.75" hidden="1">
       <c r="A621" s="2">
         <v>5</v>
       </c>
@@ -30489,7 +30495,7 @@
       <c r="O621" s="7"/>
       <c r="P621" s="8"/>
     </row>
-    <row r="622" spans="1:16" ht="15.75">
+    <row r="622" spans="1:16" ht="15.75" hidden="1">
       <c r="A622" s="2">
         <v>5</v>
       </c>
@@ -30531,7 +30537,7 @@
       <c r="O622" s="7"/>
       <c r="P622" s="8"/>
     </row>
-    <row r="623" spans="1:16" ht="15.75">
+    <row r="623" spans="1:16" ht="15.75" hidden="1">
       <c r="A623" s="2">
         <v>6</v>
       </c>
@@ -30573,7 +30579,7 @@
       <c r="O623" s="7"/>
       <c r="P623" s="8"/>
     </row>
-    <row r="624" spans="1:16" ht="15.75">
+    <row r="624" spans="1:16" ht="15.75" hidden="1">
       <c r="A624" s="2">
         <v>7</v>
       </c>
@@ -30615,7 +30621,7 @@
       <c r="O624" s="7"/>
       <c r="P624" s="8"/>
     </row>
-    <row r="625" spans="1:16" ht="78.75">
+    <row r="625" spans="1:16" ht="78.75" hidden="1">
       <c r="A625" s="2">
         <v>8</v>
       </c>
@@ -30663,7 +30669,7 @@
       </c>
       <c r="P625" s="8"/>
     </row>
-    <row r="626" spans="1:16" ht="15.75">
+    <row r="626" spans="1:16" ht="15.75" hidden="1">
       <c r="A626" s="2">
         <v>9</v>
       </c>
@@ -30705,7 +30711,7 @@
       <c r="O626" s="7"/>
       <c r="P626" s="8"/>
     </row>
-    <row r="627" spans="1:16" ht="15.75">
+    <row r="627" spans="1:16" ht="15.75" hidden="1">
       <c r="A627" s="2">
         <v>9</v>
       </c>
@@ -30747,7 +30753,7 @@
       <c r="O627" s="7"/>
       <c r="P627" s="8"/>
     </row>
-    <row r="628" spans="1:16" ht="15.75">
+    <row r="628" spans="1:16" ht="15.75" hidden="1">
       <c r="A628" s="2">
         <v>9</v>
       </c>
@@ -30789,7 +30795,7 @@
       <c r="O628" s="7"/>
       <c r="P628" s="8"/>
     </row>
-    <row r="629" spans="1:16" ht="15.75">
+    <row r="629" spans="1:16" ht="15.75" hidden="1">
       <c r="A629" s="2">
         <v>9</v>
       </c>
@@ -30831,7 +30837,7 @@
       <c r="O629" s="7"/>
       <c r="P629" s="8"/>
     </row>
-    <row r="630" spans="1:16" ht="15.75">
+    <row r="630" spans="1:16" ht="15.75" hidden="1">
       <c r="A630" s="2">
         <v>9</v>
       </c>
@@ -30873,7 +30879,7 @@
       <c r="O630" s="7"/>
       <c r="P630" s="8"/>
     </row>
-    <row r="631" spans="1:16" ht="15.75">
+    <row r="631" spans="1:16" ht="15.75" hidden="1">
       <c r="A631" s="2">
         <v>9</v>
       </c>
@@ -30915,7 +30921,7 @@
       <c r="O631" s="7"/>
       <c r="P631" s="8"/>
     </row>
-    <row r="632" spans="1:16" ht="15.75">
+    <row r="632" spans="1:16" ht="15.75" hidden="1">
       <c r="A632" s="2">
         <v>9</v>
       </c>
@@ -30957,7 +30963,7 @@
       <c r="O632" s="7"/>
       <c r="P632" s="8"/>
     </row>
-    <row r="633" spans="1:16" ht="15.75">
+    <row r="633" spans="1:16" ht="15.75" hidden="1">
       <c r="A633" s="2">
         <v>9</v>
       </c>
@@ -30999,7 +31005,7 @@
       <c r="O633" s="7"/>
       <c r="P633" s="8"/>
     </row>
-    <row r="634" spans="1:16" ht="15.75">
+    <row r="634" spans="1:16" ht="15.75" hidden="1">
       <c r="A634" s="2">
         <v>12</v>
       </c>
@@ -31041,7 +31047,7 @@
       <c r="O634" s="7"/>
       <c r="P634" s="8"/>
     </row>
-    <row r="635" spans="1:16" ht="15.75">
+    <row r="635" spans="1:16" ht="15.75" hidden="1">
       <c r="A635" s="2">
         <v>12</v>
       </c>
@@ -31083,7 +31089,7 @@
       <c r="O635" s="7"/>
       <c r="P635" s="8"/>
     </row>
-    <row r="636" spans="1:16" ht="15.75">
+    <row r="636" spans="1:16" ht="15.75" hidden="1">
       <c r="A636" s="2">
         <v>12</v>
       </c>
@@ -31125,7 +31131,7 @@
       <c r="O636" s="7"/>
       <c r="P636" s="8"/>
     </row>
-    <row r="637" spans="1:16" ht="15.75">
+    <row r="637" spans="1:16" ht="15.75" hidden="1">
       <c r="A637" s="2">
         <v>12</v>
       </c>
@@ -31167,7 +31173,7 @@
       <c r="O637" s="7"/>
       <c r="P637" s="8"/>
     </row>
-    <row r="638" spans="1:16" ht="15.75">
+    <row r="638" spans="1:16" ht="15.75" hidden="1">
       <c r="A638" s="2">
         <v>12</v>
       </c>
@@ -31209,7 +31215,7 @@
       <c r="O638" s="7"/>
       <c r="P638" s="8"/>
     </row>
-    <row r="639" spans="1:16" ht="15.75">
+    <row r="639" spans="1:16" ht="15.75" hidden="1">
       <c r="A639" s="2">
         <v>12</v>
       </c>
@@ -31251,7 +31257,7 @@
       <c r="O639" s="7"/>
       <c r="P639" s="8"/>
     </row>
-    <row r="640" spans="1:16" ht="15.75">
+    <row r="640" spans="1:16" ht="15.75" hidden="1">
       <c r="A640" s="2">
         <v>12</v>
       </c>
@@ -31293,7 +31299,7 @@
       <c r="O640" s="7"/>
       <c r="P640" s="8"/>
     </row>
-    <row r="641" spans="1:16" ht="15.75">
+    <row r="641" spans="1:16" ht="15.75" hidden="1">
       <c r="A641" s="2">
         <v>12</v>
       </c>
@@ -31335,7 +31341,7 @@
       <c r="O641" s="7"/>
       <c r="P641" s="8"/>
     </row>
-    <row r="642" spans="1:16" ht="15.75">
+    <row r="642" spans="1:16" ht="15.75" hidden="1">
       <c r="A642" s="2">
         <v>12</v>
       </c>
@@ -31377,7 +31383,7 @@
       <c r="O642" s="7"/>
       <c r="P642" s="8"/>
     </row>
-    <row r="643" spans="1:16" ht="15.75">
+    <row r="643" spans="1:16" ht="15.75" hidden="1">
       <c r="A643" s="2">
         <v>12</v>
       </c>
@@ -31419,7 +31425,7 @@
       <c r="O643" s="7"/>
       <c r="P643" s="8"/>
     </row>
-    <row r="644" spans="1:16" ht="15.75">
+    <row r="644" spans="1:16" ht="15.75" hidden="1">
       <c r="A644" s="2">
         <v>12</v>
       </c>
@@ -31461,7 +31467,7 @@
       <c r="O644" s="7"/>
       <c r="P644" s="8"/>
     </row>
-    <row r="645" spans="1:16" ht="15.75">
+    <row r="645" spans="1:16" ht="15.75" hidden="1">
       <c r="A645" s="2">
         <v>12</v>
       </c>
@@ -31503,7 +31509,7 @@
       <c r="O645" s="7"/>
       <c r="P645" s="8"/>
     </row>
-    <row r="646" spans="1:16" ht="15.75">
+    <row r="646" spans="1:16" ht="15.75" hidden="1">
       <c r="A646" s="2">
         <v>12</v>
       </c>
@@ -31545,7 +31551,7 @@
       <c r="O646" s="7"/>
       <c r="P646" s="8"/>
     </row>
-    <row r="647" spans="1:16" ht="15.75">
+    <row r="647" spans="1:16" ht="15.75" hidden="1">
       <c r="A647" s="2">
         <v>12</v>
       </c>
@@ -31587,7 +31593,7 @@
       <c r="O647" s="7"/>
       <c r="P647" s="8"/>
     </row>
-    <row r="648" spans="1:16" ht="15.75">
+    <row r="648" spans="1:16" ht="15.75" hidden="1">
       <c r="A648" s="2">
         <v>12</v>
       </c>
@@ -31629,7 +31635,7 @@
       <c r="O648" s="7"/>
       <c r="P648" s="8"/>
     </row>
-    <row r="649" spans="1:16" ht="15.75">
+    <row r="649" spans="1:16" ht="15.75" hidden="1">
       <c r="A649" s="2">
         <v>12</v>
       </c>
@@ -31671,7 +31677,7 @@
       <c r="O649" s="7"/>
       <c r="P649" s="8"/>
     </row>
-    <row r="650" spans="1:16" ht="15.75">
+    <row r="650" spans="1:16" ht="15.75" hidden="1">
       <c r="A650" s="2">
         <v>12</v>
       </c>
@@ -31713,7 +31719,7 @@
       <c r="O650" s="7"/>
       <c r="P650" s="8"/>
     </row>
-    <row r="651" spans="1:16" ht="15.75">
+    <row r="651" spans="1:16" ht="15.75" hidden="1">
       <c r="A651" s="2">
         <v>12</v>
       </c>
@@ -31755,7 +31761,7 @@
       <c r="O651" s="7"/>
       <c r="P651" s="8"/>
     </row>
-    <row r="652" spans="1:16" ht="15.75">
+    <row r="652" spans="1:16" ht="15.75" hidden="1">
       <c r="A652" s="2">
         <v>12</v>
       </c>
@@ -31797,7 +31803,7 @@
       <c r="O652" s="7"/>
       <c r="P652" s="8"/>
     </row>
-    <row r="653" spans="1:16" ht="78.75">
+    <row r="653" spans="1:16" ht="78.75" hidden="1">
       <c r="A653" s="2">
         <v>13</v>
       </c>
@@ -31845,7 +31851,7 @@
       </c>
       <c r="P653" s="8"/>
     </row>
-    <row r="654" spans="1:16" ht="78.75">
+    <row r="654" spans="1:16" ht="78.75" hidden="1">
       <c r="A654" s="2">
         <v>13</v>
       </c>
@@ -31893,7 +31899,7 @@
       </c>
       <c r="P654" s="8"/>
     </row>
-    <row r="655" spans="1:16" ht="78.75">
+    <row r="655" spans="1:16" ht="78.75" hidden="1">
       <c r="A655" s="2">
         <v>13</v>
       </c>
@@ -31941,7 +31947,7 @@
       </c>
       <c r="P655" s="8"/>
     </row>
-    <row r="656" spans="1:16" ht="78.75">
+    <row r="656" spans="1:16" ht="78.75" hidden="1">
       <c r="A656" s="2">
         <v>13</v>
       </c>
@@ -31989,7 +31995,7 @@
       </c>
       <c r="P656" s="8"/>
     </row>
-    <row r="657" spans="1:16" ht="78.75">
+    <row r="657" spans="1:16" ht="78.75" hidden="1">
       <c r="A657" s="2">
         <v>13</v>
       </c>
@@ -32037,7 +32043,7 @@
       </c>
       <c r="P657" s="8"/>
     </row>
-    <row r="658" spans="1:16" ht="78.75">
+    <row r="658" spans="1:16" ht="78.75" hidden="1">
       <c r="A658" s="2">
         <v>13</v>
       </c>
@@ -32085,7 +32091,7 @@
       </c>
       <c r="P658" s="8"/>
     </row>
-    <row r="659" spans="1:16" ht="78.75">
+    <row r="659" spans="1:16" ht="78.75" hidden="1">
       <c r="A659" s="2">
         <v>13</v>
       </c>
@@ -32133,7 +32139,7 @@
       </c>
       <c r="P659" s="8"/>
     </row>
-    <row r="660" spans="1:16" ht="78.75">
+    <row r="660" spans="1:16" ht="78.75" hidden="1">
       <c r="A660" s="2">
         <v>13</v>
       </c>
@@ -32181,7 +32187,7 @@
       </c>
       <c r="P660" s="8"/>
     </row>
-    <row r="661" spans="1:16" ht="78.75">
+    <row r="661" spans="1:16" ht="78.75" hidden="1">
       <c r="A661" s="2">
         <v>13</v>
       </c>
@@ -32229,7 +32235,7 @@
       </c>
       <c r="P661" s="8"/>
     </row>
-    <row r="662" spans="1:16" ht="78.75">
+    <row r="662" spans="1:16" ht="78.75" hidden="1">
       <c r="A662" s="2">
         <v>13</v>
       </c>
@@ -32277,7 +32283,7 @@
       </c>
       <c r="P662" s="8"/>
     </row>
-    <row r="663" spans="1:16" ht="78.75">
+    <row r="663" spans="1:16" ht="78.75" hidden="1">
       <c r="A663" s="2">
         <v>13</v>
       </c>
@@ -32325,7 +32331,7 @@
       </c>
       <c r="P663" s="8"/>
     </row>
-    <row r="664" spans="1:16" ht="78.75">
+    <row r="664" spans="1:16" ht="78.75" hidden="1">
       <c r="A664" s="2">
         <v>13</v>
       </c>
@@ -32373,7 +32379,7 @@
       </c>
       <c r="P664" s="8"/>
     </row>
-    <row r="665" spans="1:16" ht="78.75">
+    <row r="665" spans="1:16" ht="78.75" hidden="1">
       <c r="A665" s="2">
         <v>13</v>
       </c>
@@ -32421,7 +32427,7 @@
       </c>
       <c r="P665" s="8"/>
     </row>
-    <row r="666" spans="1:16" ht="78.75">
+    <row r="666" spans="1:16" ht="78.75" hidden="1">
       <c r="A666" s="2">
         <v>13</v>
       </c>
@@ -32469,7 +32475,7 @@
       </c>
       <c r="P666" s="8"/>
     </row>
-    <row r="667" spans="1:16" ht="78.75">
+    <row r="667" spans="1:16" ht="78.75" hidden="1">
       <c r="A667" s="2">
         <v>13</v>
       </c>
@@ -32517,7 +32523,7 @@
       </c>
       <c r="P667" s="8"/>
     </row>
-    <row r="668" spans="1:16" ht="78.75">
+    <row r="668" spans="1:16" ht="78.75" hidden="1">
       <c r="A668" s="2">
         <v>13</v>
       </c>
@@ -32565,7 +32571,7 @@
       </c>
       <c r="P668" s="8"/>
     </row>
-    <row r="669" spans="1:16" ht="78.75">
+    <row r="669" spans="1:16" ht="78.75" hidden="1">
       <c r="A669" s="2">
         <v>13</v>
       </c>
@@ -32613,7 +32619,7 @@
       </c>
       <c r="P669" s="8"/>
     </row>
-    <row r="670" spans="1:16" ht="78.75">
+    <row r="670" spans="1:16" ht="78.75" hidden="1">
       <c r="A670" s="2">
         <v>13</v>
       </c>
@@ -32661,7 +32667,7 @@
       </c>
       <c r="P670" s="8"/>
     </row>
-    <row r="671" spans="1:16" ht="78.75">
+    <row r="671" spans="1:16" ht="78.75" hidden="1">
       <c r="A671" s="2">
         <v>13</v>
       </c>
@@ -32709,7 +32715,7 @@
       </c>
       <c r="P671" s="8"/>
     </row>
-    <row r="672" spans="1:16" ht="78.75">
+    <row r="672" spans="1:16" ht="78.75" hidden="1">
       <c r="A672" s="2">
         <v>13</v>
       </c>
@@ -32757,7 +32763,7 @@
       </c>
       <c r="P672" s="8"/>
     </row>
-    <row r="673" spans="1:16" ht="78.75">
+    <row r="673" spans="1:16" ht="78.75" hidden="1">
       <c r="A673" s="2">
         <v>13</v>
       </c>
@@ -32805,7 +32811,7 @@
       </c>
       <c r="P673" s="8"/>
     </row>
-    <row r="674" spans="1:16" ht="78.75">
+    <row r="674" spans="1:16" ht="78.75" hidden="1">
       <c r="A674" s="2">
         <v>13</v>
       </c>
@@ -32853,7 +32859,7 @@
       </c>
       <c r="P674" s="8"/>
     </row>
-    <row r="675" spans="1:16" ht="78.75">
+    <row r="675" spans="1:16" ht="78.75" hidden="1">
       <c r="A675" s="2">
         <v>13</v>
       </c>
@@ -32901,7 +32907,7 @@
       </c>
       <c r="P675" s="8"/>
     </row>
-    <row r="676" spans="1:16" ht="78.75">
+    <row r="676" spans="1:16" ht="78.75" hidden="1">
       <c r="A676" s="2">
         <v>13</v>
       </c>
@@ -32949,7 +32955,7 @@
       </c>
       <c r="P676" s="8"/>
     </row>
-    <row r="677" spans="1:16" ht="78.75">
+    <row r="677" spans="1:16" ht="78.75" hidden="1">
       <c r="A677" s="2">
         <v>13</v>
       </c>
@@ -32997,7 +33003,7 @@
       </c>
       <c r="P677" s="8"/>
     </row>
-    <row r="678" spans="1:16" ht="78.75">
+    <row r="678" spans="1:16" ht="78.75" hidden="1">
       <c r="A678" s="2">
         <v>13</v>
       </c>
@@ -33045,7 +33051,7 @@
       </c>
       <c r="P678" s="8"/>
     </row>
-    <row r="679" spans="1:16" ht="78.75">
+    <row r="679" spans="1:16" ht="78.75" hidden="1">
       <c r="A679" s="2">
         <v>13</v>
       </c>
@@ -33093,7 +33099,7 @@
       </c>
       <c r="P679" s="8"/>
     </row>
-    <row r="680" spans="1:16" ht="78.75">
+    <row r="680" spans="1:16" ht="78.75" hidden="1">
       <c r="A680" s="2">
         <v>13</v>
       </c>
@@ -33141,7 +33147,7 @@
       </c>
       <c r="P680" s="8"/>
     </row>
-    <row r="681" spans="1:16" ht="78.75">
+    <row r="681" spans="1:16" ht="78.75" hidden="1">
       <c r="A681" s="2">
         <v>13</v>
       </c>
@@ -33189,7 +33195,7 @@
       </c>
       <c r="P681" s="8"/>
     </row>
-    <row r="682" spans="1:16" ht="78.75">
+    <row r="682" spans="1:16" ht="78.75" hidden="1">
       <c r="A682" s="2">
         <v>13</v>
       </c>
@@ -33237,7 +33243,7 @@
       </c>
       <c r="P682" s="8"/>
     </row>
-    <row r="683" spans="1:16" ht="78.75">
+    <row r="683" spans="1:16" ht="78.75" hidden="1">
       <c r="A683" s="2">
         <v>13</v>
       </c>
@@ -33285,7 +33291,7 @@
       </c>
       <c r="P683" s="8"/>
     </row>
-    <row r="684" spans="1:16" ht="78.75">
+    <row r="684" spans="1:16" ht="78.75" hidden="1">
       <c r="A684" s="2">
         <v>13</v>
       </c>
@@ -33333,7 +33339,7 @@
       </c>
       <c r="P684" s="8"/>
     </row>
-    <row r="685" spans="1:16" ht="78.75">
+    <row r="685" spans="1:16" ht="78.75" hidden="1">
       <c r="A685" s="2">
         <v>13</v>
       </c>
@@ -33381,7 +33387,7 @@
       </c>
       <c r="P685" s="8"/>
     </row>
-    <row r="686" spans="1:16" ht="78.75">
+    <row r="686" spans="1:16" ht="78.75" hidden="1">
       <c r="A686" s="2">
         <v>13</v>
       </c>
@@ -33429,7 +33435,7 @@
       </c>
       <c r="P686" s="8"/>
     </row>
-    <row r="687" spans="1:16" ht="78.75">
+    <row r="687" spans="1:16" ht="78.75" hidden="1">
       <c r="A687" s="2">
         <v>13</v>
       </c>
@@ -33477,7 +33483,7 @@
       </c>
       <c r="P687" s="8"/>
     </row>
-    <row r="688" spans="1:16" ht="78.75">
+    <row r="688" spans="1:16" ht="78.75" hidden="1">
       <c r="A688" s="2">
         <v>13</v>
       </c>
@@ -33525,7 +33531,7 @@
       </c>
       <c r="P688" s="8"/>
     </row>
-    <row r="689" spans="1:16" ht="78.75">
+    <row r="689" spans="1:16" ht="78.75" hidden="1">
       <c r="A689" s="2">
         <v>13</v>
       </c>
@@ -33573,7 +33579,7 @@
       </c>
       <c r="P689" s="8"/>
     </row>
-    <row r="690" spans="1:16" ht="78.75">
+    <row r="690" spans="1:16" ht="78.75" hidden="1">
       <c r="A690" s="2">
         <v>13</v>
       </c>
@@ -33621,7 +33627,7 @@
       </c>
       <c r="P690" s="8"/>
     </row>
-    <row r="691" spans="1:16" ht="78.75">
+    <row r="691" spans="1:16" ht="78.75" hidden="1">
       <c r="A691" s="2">
         <v>13</v>
       </c>
@@ -33669,7 +33675,7 @@
       </c>
       <c r="P691" s="8"/>
     </row>
-    <row r="692" spans="1:16" ht="78.75">
+    <row r="692" spans="1:16" ht="78.75" hidden="1">
       <c r="A692" s="2">
         <v>13</v>
       </c>
@@ -33717,7 +33723,7 @@
       </c>
       <c r="P692" s="8"/>
     </row>
-    <row r="693" spans="1:16" ht="78.75">
+    <row r="693" spans="1:16" ht="78.75" hidden="1">
       <c r="A693" s="2">
         <v>13</v>
       </c>
@@ -33765,7 +33771,7 @@
       </c>
       <c r="P693" s="8"/>
     </row>
-    <row r="694" spans="1:16" ht="78.75">
+    <row r="694" spans="1:16" ht="78.75" hidden="1">
       <c r="A694" s="2">
         <v>13</v>
       </c>
@@ -33813,7 +33819,7 @@
       </c>
       <c r="P694" s="8"/>
     </row>
-    <row r="695" spans="1:16" ht="78.75">
+    <row r="695" spans="1:16" ht="78.75" hidden="1">
       <c r="A695" s="2">
         <v>13</v>
       </c>
@@ -33861,7 +33867,7 @@
       </c>
       <c r="P695" s="8"/>
     </row>
-    <row r="696" spans="1:16" ht="78.75">
+    <row r="696" spans="1:16" ht="78.75" hidden="1">
       <c r="A696" s="2">
         <v>13</v>
       </c>
@@ -33909,7 +33915,7 @@
       </c>
       <c r="P696" s="8"/>
     </row>
-    <row r="697" spans="1:16" ht="78.75">
+    <row r="697" spans="1:16" ht="78.75" hidden="1">
       <c r="A697" s="2">
         <v>13</v>
       </c>
@@ -33957,7 +33963,7 @@
       </c>
       <c r="P697" s="8"/>
     </row>
-    <row r="698" spans="1:16" ht="78.75">
+    <row r="698" spans="1:16" ht="78.75" hidden="1">
       <c r="A698" s="2">
         <v>13</v>
       </c>
@@ -34005,7 +34011,7 @@
       </c>
       <c r="P698" s="8"/>
     </row>
-    <row r="699" spans="1:16" ht="78.75">
+    <row r="699" spans="1:16" ht="78.75" hidden="1">
       <c r="A699" s="2">
         <v>13</v>
       </c>
@@ -34053,7 +34059,7 @@
       </c>
       <c r="P699" s="8"/>
     </row>
-    <row r="700" spans="1:16" ht="78.75">
+    <row r="700" spans="1:16" ht="78.75" hidden="1">
       <c r="A700" s="2">
         <v>13</v>
       </c>
@@ -34101,7 +34107,7 @@
       </c>
       <c r="P700" s="8"/>
     </row>
-    <row r="701" spans="1:16" ht="78.75">
+    <row r="701" spans="1:16" ht="78.75" hidden="1">
       <c r="A701" s="2">
         <v>13</v>
       </c>
@@ -34149,7 +34155,7 @@
       </c>
       <c r="P701" s="8"/>
     </row>
-    <row r="702" spans="1:16" ht="78.75">
+    <row r="702" spans="1:16" ht="78.75" hidden="1">
       <c r="A702" s="2">
         <v>13</v>
       </c>
@@ -34197,7 +34203,7 @@
       </c>
       <c r="P702" s="8"/>
     </row>
-    <row r="703" spans="1:16" ht="78.75">
+    <row r="703" spans="1:16" ht="78.75" hidden="1">
       <c r="A703" s="2">
         <v>13</v>
       </c>
@@ -34245,7 +34251,7 @@
       </c>
       <c r="P703" s="8"/>
     </row>
-    <row r="704" spans="1:16" ht="78.75">
+    <row r="704" spans="1:16" ht="78.75" hidden="1">
       <c r="A704" s="2">
         <v>13</v>
       </c>
@@ -34293,7 +34299,7 @@
       </c>
       <c r="P704" s="8"/>
     </row>
-    <row r="705" spans="1:16" ht="78.75">
+    <row r="705" spans="1:16" ht="78.75" hidden="1">
       <c r="A705" s="2">
         <v>13</v>
       </c>
@@ -34341,7 +34347,7 @@
       </c>
       <c r="P705" s="8"/>
     </row>
-    <row r="706" spans="1:16" ht="78.75">
+    <row r="706" spans="1:16" ht="78.75" hidden="1">
       <c r="A706" s="2">
         <v>13</v>
       </c>
@@ -34389,7 +34395,7 @@
       </c>
       <c r="P706" s="8"/>
     </row>
-    <row r="707" spans="1:16" ht="78.75">
+    <row r="707" spans="1:16" ht="78.75" hidden="1">
       <c r="A707" s="2">
         <v>13</v>
       </c>
@@ -34437,7 +34443,7 @@
       </c>
       <c r="P707" s="8"/>
     </row>
-    <row r="708" spans="1:16" ht="78.75">
+    <row r="708" spans="1:16" ht="78.75" hidden="1">
       <c r="A708" s="2">
         <v>13</v>
       </c>
@@ -34485,7 +34491,7 @@
       </c>
       <c r="P708" s="8"/>
     </row>
-    <row r="709" spans="1:16" ht="78.75">
+    <row r="709" spans="1:16" ht="78.75" hidden="1">
       <c r="A709" s="2">
         <v>13</v>
       </c>
@@ -34533,7 +34539,7 @@
       </c>
       <c r="P709" s="8"/>
     </row>
-    <row r="710" spans="1:16" ht="78.75">
+    <row r="710" spans="1:16" ht="78.75" hidden="1">
       <c r="A710" s="2">
         <v>13</v>
       </c>
@@ -34581,7 +34587,7 @@
       </c>
       <c r="P710" s="8"/>
     </row>
-    <row r="711" spans="1:16" ht="78.75">
+    <row r="711" spans="1:16" ht="78.75" hidden="1">
       <c r="A711" s="2">
         <v>13</v>
       </c>
@@ -34629,7 +34635,7 @@
       </c>
       <c r="P711" s="8"/>
     </row>
-    <row r="712" spans="1:16" ht="78.75">
+    <row r="712" spans="1:16" ht="78.75" hidden="1">
       <c r="A712" s="2">
         <v>13</v>
       </c>
@@ -34677,7 +34683,7 @@
       </c>
       <c r="P712" s="8"/>
     </row>
-    <row r="713" spans="1:16" ht="78.75">
+    <row r="713" spans="1:16" ht="78.75" hidden="1">
       <c r="A713" s="2">
         <v>13</v>
       </c>
@@ -34725,7 +34731,7 @@
       </c>
       <c r="P713" s="8"/>
     </row>
-    <row r="714" spans="1:16" ht="78.75">
+    <row r="714" spans="1:16" ht="78.75" hidden="1">
       <c r="A714" s="2">
         <v>13</v>
       </c>
@@ -34773,7 +34779,7 @@
       </c>
       <c r="P714" s="8"/>
     </row>
-    <row r="715" spans="1:16" ht="78.75">
+    <row r="715" spans="1:16" ht="78.75" hidden="1">
       <c r="A715" s="2">
         <v>13</v>
       </c>
@@ -34821,7 +34827,7 @@
       </c>
       <c r="P715" s="8"/>
     </row>
-    <row r="716" spans="1:16" ht="78.75">
+    <row r="716" spans="1:16" ht="78.75" hidden="1">
       <c r="A716" s="2">
         <v>13</v>
       </c>
@@ -34869,7 +34875,7 @@
       </c>
       <c r="P716" s="8"/>
     </row>
-    <row r="717" spans="1:16" ht="78.75">
+    <row r="717" spans="1:16" ht="78.75" hidden="1">
       <c r="A717" s="2">
         <v>13</v>
       </c>
@@ -34917,7 +34923,7 @@
       </c>
       <c r="P717" s="8"/>
     </row>
-    <row r="718" spans="1:16" ht="78.75">
+    <row r="718" spans="1:16" ht="78.75" hidden="1">
       <c r="A718" s="2">
         <v>13</v>
       </c>
@@ -34965,7 +34971,7 @@
       </c>
       <c r="P718" s="8"/>
     </row>
-    <row r="719" spans="1:16" ht="78.75">
+    <row r="719" spans="1:16" ht="78.75" hidden="1">
       <c r="A719" s="2">
         <v>13</v>
       </c>
@@ -35013,7 +35019,7 @@
       </c>
       <c r="P719" s="8"/>
     </row>
-    <row r="720" spans="1:16" ht="78.75">
+    <row r="720" spans="1:16" ht="78.75" hidden="1">
       <c r="A720" s="2">
         <v>13</v>
       </c>
@@ -35061,7 +35067,7 @@
       </c>
       <c r="P720" s="8"/>
     </row>
-    <row r="721" spans="1:16" ht="78.75">
+    <row r="721" spans="1:16" ht="78.75" hidden="1">
       <c r="A721" s="2">
         <v>13</v>
       </c>
@@ -35211,7 +35217,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23318"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="597" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2157E29C-1E2A-4DEA-BA0C-DECB70173A28}"/>
+  <xr:revisionPtr revIDLastSave="631" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4C8397B-9BCD-438E-9EFA-C6909ECF7870}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCALIZACION" sheetId="2" r:id="rId1"/>
@@ -47,6 +47,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="810">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -2454,6 +2455,42 @@
   </si>
   <si>
     <t>Detalla nuevo plan de reapertura y da información con respecto al levantamiento de la restricción de movilidad por género y toques de queda.</t>
+  </si>
+  <si>
+    <t>Inicio de reapertura gradual de actividades económicas.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MINSAPma/status/1302956901131603968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy iniciamos la reapertura gradual de actividades económicas. Como país tenemos el compromiso de seguir las medidas de prevención para la reactivación de nuevos sectores. </t>
+  </si>
+  <si>
+    <t>Medidas establecidas a partir del lunes 14 de sempiembre.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MINSAPma/status/1304567912171274241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te recordamos las medidas que se establecerán a partir del lunes 14 de septiembre con la reapertura de nuevas actividades económicas. </t>
+  </si>
+  <si>
+    <t>Se mantiene toque de queda en Bocas de Toro, Colón y Chiriquí.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/presidenciapma/status/1305337913522225152</t>
+  </si>
+  <si>
+    <t>Ante las reaperturas de actividades económicas desde este 14 de septiembre, aclaramos que se mantiene el toque de queda en las provincias de Bocas del Toro, Colón y Chiriquí, de lunes a jueves de 7:00 pm a 5:00 am, y del viernes a las 7:00 pm hasta el lunes a las 5:00 am.</t>
+  </si>
+  <si>
+    <t>Se reactivan actividades deportivas federativas a partir del lunes 21.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MINSAPma/status/1307787537700749312</t>
+  </si>
+  <si>
+    <t>A partir del lunes 21 de septiembre se reactivan las actividades deportivas federativas de lunes a sábados, sin asistencia de público y respetando el toque de queda de cada área.</t>
   </si>
 </sst>
 </file>
@@ -3613,8 +3650,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F24" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F28" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EA6FFEBC-DF5B-4039-8DBA-5ADF7C795E14}" name="Fuente" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{B604F324-ACB1-4871-8569-DD6561328939}" name="Tipo Fuente" dataDxfId="4"/>
@@ -3926,7 +3963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE435327-D82B-436B-B387-4B676AA50241}">
   <dimension ref="A10:P721"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
@@ -35214,10 +35251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789927B8-B4AE-4E15-AA25-E1A61CBEA5D5}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -35708,6 +35745,86 @@
       </c>
       <c r="F24" s="11" t="s">
         <v>797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="120">
+      <c r="A25" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="E25" s="13">
+        <v>44081</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75">
+      <c r="A26" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="E26" s="13">
+        <v>44085</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="165">
+      <c r="A27" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="E27" s="13">
+        <v>44087</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="120">
+      <c r="A28" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="E28" s="13">
+        <v>44094</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -35735,10 +35852,14 @@
     <hyperlink ref="D22" r:id="rId21" xr:uid="{06B4A1FA-F4C6-4EBB-B7D8-939F7E17F75A}"/>
     <hyperlink ref="D23" r:id="rId22" xr:uid="{C336E5FE-C63F-4912-9211-4B3D0E9ADABA}"/>
     <hyperlink ref="D24" r:id="rId23" xr:uid="{3767A7B8-7E58-4001-ABDE-7843AD67B5DC}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{E1EFCDEC-99F0-4C81-9D94-F7FBE0D9CD81}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{8400FB9F-FF5F-4BAE-8783-EEE32E167476}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{79371927-7668-43BF-8FDE-022CEA0F7117}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{E87FC0F0-FD6E-44B9-8294-63191EC34DCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23322"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="631" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4C8397B-9BCD-438E-9EFA-C6909ECF7870}"/>
+  <xr:revisionPtr revIDLastSave="639" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2FE5CFF-6308-4C27-90E2-8FEEC3656FB5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="813">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -2491,6 +2491,15 @@
   </si>
   <si>
     <t>A partir del lunes 21 de septiembre se reactivan las actividades deportivas federativas de lunes a sábados, sin asistencia de público y respetando el toque de queda de cada área.</t>
+  </si>
+  <si>
+    <t>Actividades económicas que se reactivaran a partir del lunes 28 de Septiembre.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MINSAPma/status/1310392461081145344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conoce las actividades económicas que se reactivarán, cumpliendo con las nuevas regulaciones, a partir de este lunes 28 de septiembre. Sigue las medidas de prevención para evitar el contagio de #COVID19. </t>
   </si>
 </sst>
 </file>
@@ -3650,8 +3659,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F28" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F29" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EA6FFEBC-DF5B-4039-8DBA-5ADF7C795E14}" name="Fuente" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{B604F324-ACB1-4871-8569-DD6561328939}" name="Tipo Fuente" dataDxfId="4"/>
@@ -3964,7 +3973,7 @@
   <dimension ref="A10:P721"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -35251,10 +35260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789927B8-B4AE-4E15-AA25-E1A61CBEA5D5}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F28" sqref="A28:F28"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -35825,6 +35834,26 @@
       </c>
       <c r="F28" s="11" t="s">
         <v>809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="150">
+      <c r="A29" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E29" s="13">
+        <v>44101</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -35856,10 +35885,11 @@
     <hyperlink ref="D26" r:id="rId25" xr:uid="{8400FB9F-FF5F-4BAE-8783-EEE32E167476}"/>
     <hyperlink ref="D27" r:id="rId26" xr:uid="{79371927-7668-43BF-8FDE-022CEA0F7117}"/>
     <hyperlink ref="D28" r:id="rId27" xr:uid="{E87FC0F0-FD6E-44B9-8294-63191EC34DCA}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{E83F18A8-D1FE-485F-A0A4-FBA5A2E337FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23330"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="639" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2FE5CFF-6308-4C27-90E2-8FEEC3656FB5}"/>
+  <xr:revisionPtr revIDLastSave="647" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF69EAE7-9965-46B8-9A96-DBF26FCD85A7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="816">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -2500,6 +2500,15 @@
   </si>
   <si>
     <t xml:space="preserve">Conoce las actividades económicas que se reactivarán, cumpliendo con las nuevas regulaciones, a partir de este lunes 28 de septiembre. Sigue las medidas de prevención para evitar el contagio de #COVID19. </t>
+  </si>
+  <si>
+    <t>Minsa decretaría cuarentena total sábados y domingo en Soná y Santiago de Veraguas</t>
+  </si>
+  <si>
+    <t>https://www.prensa.com/sociedad/minsa-decretara-cuarentena-total-sabados-y-domingo-en-sona-y-santiago-de-veraguas/</t>
+  </si>
+  <si>
+    <t>El ministro de Salud, Luis Francisco Sucre, anunció que “muy posiblemente” la próxima semana comenzará a regir una cuarentena total los sábados y domingo en los distritos de Soná y Santiago, en la provincia de Veraguas, debido a un aumento de los casos de coronavirus en los últimos días.</t>
   </si>
 </sst>
 </file>
@@ -3659,8 +3668,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F29" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F30" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EA6FFEBC-DF5B-4039-8DBA-5ADF7C795E14}" name="Fuente" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{B604F324-ACB1-4871-8569-DD6561328939}" name="Tipo Fuente" dataDxfId="4"/>
@@ -35260,10 +35269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789927B8-B4AE-4E15-AA25-E1A61CBEA5D5}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -35854,6 +35863,26 @@
       </c>
       <c r="F29" s="11" t="s">
         <v>812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="180">
+      <c r="A30" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="E30" s="13">
+        <v>44107</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -35886,10 +35915,11 @@
     <hyperlink ref="D27" r:id="rId26" xr:uid="{79371927-7668-43BF-8FDE-022CEA0F7117}"/>
     <hyperlink ref="D28" r:id="rId27" xr:uid="{E87FC0F0-FD6E-44B9-8294-63191EC34DCA}"/>
     <hyperlink ref="D29" r:id="rId28" xr:uid="{E83F18A8-D1FE-485F-A0A4-FBA5A2E337FF}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{87A2F2E0-EFAD-4072-9A56-0FE9BE45CB99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>

--- a/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
+++ b/datacovidpa/00 DATACOVID_PN_CUARENTENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23405"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID PN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="647" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF69EAE7-9965-46B8-9A96-DBF26FCD85A7}"/>
+  <xr:revisionPtr revIDLastSave="654" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF4B7653-F04E-4E64-A269-09165D44E25E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="819">
   <si>
     <t>Id_Prov</t>
   </si>
@@ -2509,6 +2509,15 @@
   </si>
   <si>
     <t>El ministro de Salud, Luis Francisco Sucre, anunció que “muy posiblemente” la próxima semana comenzará a regir una cuarentena total los sábados y domingo en los distritos de Soná y Santiago, en la provincia de Veraguas, debido a un aumento de los casos de coronavirus en los últimos días.</t>
+  </si>
+  <si>
+    <t>Panamá registra 683 casos nuevos de covid-19 y 10 defunciones; establecen horarios escalonados</t>
+  </si>
+  <si>
+    <t>https://www.laestrella.com.pa/nacional/201006/panama-registra-683-casos-nuevos-covid-19-10-defunciones-establecen-horarios-escalonados</t>
+  </si>
+  <si>
+    <t>El sector de la construcción deberá iniciar sus labores a las 7: 00 a.m., la empresa privada a las 8: a.m., las instituciones públicas a las 9:00 a.m. y los centros comerciales a las 10:00 a.m., anunció el ministro de Salud, Luis Francisco Sucre.</t>
   </si>
 </sst>
 </file>
@@ -3668,8 +3677,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F30" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7C00E8C-D9BC-416F-809A-6033577F14AF}" name="Tabla1" displayName="Tabla1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F31" xr:uid="{4AB5A879-BAE3-440D-9AD2-3BBD481D8D15}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EA6FFEBC-DF5B-4039-8DBA-5ADF7C795E14}" name="Fuente" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{B604F324-ACB1-4871-8569-DD6561328939}" name="Tipo Fuente" dataDxfId="4"/>
@@ -35269,10 +35278,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789927B8-B4AE-4E15-AA25-E1A61CBEA5D5}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -35883,6 +35892,26 @@
       </c>
       <c r="F30" s="11" t="s">
         <v>815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="135">
+      <c r="A31" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="E31" s="13">
+        <v>44110</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -35916,10 +35945,11 @@
     <hyperlink ref="D28" r:id="rId27" xr:uid="{E87FC0F0-FD6E-44B9-8294-63191EC34DCA}"/>
     <hyperlink ref="D29" r:id="rId28" xr:uid="{E83F18A8-D1FE-485F-A0A4-FBA5A2E337FF}"/>
     <hyperlink ref="D30" r:id="rId29" xr:uid="{87A2F2E0-EFAD-4072-9A56-0FE9BE45CB99}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{081C2501-5AEA-4057-BA37-9393358E4B6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
